--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_取引単体(画面)_WA10202_プロジェクト照会.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_取引単体(画面)_WA10202_プロジェクト照会.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD60AF0-ABD9-4A40-A4AB-D889D0BD4BD4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73EED89-DBC1-42E4-8CA5-B248B82AAF63}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="1395" windowWidth="14340" windowHeight="8940" tabRatio="575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" r:id="rId1"/>
@@ -14418,9 +14418,153 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="275" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="199" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="197" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="201" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="202" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="192" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="193" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="194" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="203" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="205" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="21" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="23" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="22" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -14529,155 +14673,11 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="21" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="23" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="22" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="199" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="197" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="201" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="202" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="192" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="193" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="194" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="203" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="205" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -15531,9 +15531,7 @@
   </sheetPr>
   <dimension ref="A1:K513"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="13.5"/>
   <cols>
@@ -15587,12 +15585,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="840">
+      <c r="I25" s="860">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>43896</v>
       </c>
-      <c r="J25" s="840"/>
-      <c r="K25" s="840"/>
+      <c r="J25" s="860"/>
+      <c r="K25" s="860"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -16139,7 +16137,7 @@
   <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="11.25"/>
@@ -16148,57 +16146,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="847" t="s">
+      <c r="A1" s="895" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="848"/>
-      <c r="C1" s="848"/>
-      <c r="D1" s="849"/>
-      <c r="E1" s="850" t="s">
+      <c r="B1" s="896"/>
+      <c r="C1" s="896"/>
+      <c r="D1" s="897"/>
+      <c r="E1" s="898" t="s">
         <v>159</v>
       </c>
-      <c r="F1" s="851"/>
-      <c r="G1" s="851"/>
-      <c r="H1" s="851"/>
-      <c r="I1" s="851"/>
-      <c r="J1" s="851"/>
-      <c r="K1" s="851"/>
-      <c r="L1" s="851"/>
-      <c r="M1" s="851"/>
-      <c r="N1" s="852"/>
-      <c r="O1" s="856" t="s">
+      <c r="F1" s="899"/>
+      <c r="G1" s="899"/>
+      <c r="H1" s="899"/>
+      <c r="I1" s="899"/>
+      <c r="J1" s="899"/>
+      <c r="K1" s="899"/>
+      <c r="L1" s="899"/>
+      <c r="M1" s="899"/>
+      <c r="N1" s="900"/>
+      <c r="O1" s="904" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="857"/>
-      <c r="Q1" s="857"/>
-      <c r="R1" s="858"/>
-      <c r="S1" s="865" t="s">
+      <c r="P1" s="905"/>
+      <c r="Q1" s="905"/>
+      <c r="R1" s="906"/>
+      <c r="S1" s="913" t="s">
         <v>123</v>
       </c>
-      <c r="T1" s="866"/>
-      <c r="U1" s="866"/>
-      <c r="V1" s="866"/>
-      <c r="W1" s="866"/>
-      <c r="X1" s="866"/>
-      <c r="Y1" s="866"/>
-      <c r="Z1" s="867"/>
-      <c r="AA1" s="847" t="s">
+      <c r="T1" s="914"/>
+      <c r="U1" s="914"/>
+      <c r="V1" s="914"/>
+      <c r="W1" s="914"/>
+      <c r="X1" s="914"/>
+      <c r="Y1" s="914"/>
+      <c r="Z1" s="915"/>
+      <c r="AA1" s="895" t="s">
         <v>106</v>
       </c>
-      <c r="AB1" s="849"/>
-      <c r="AC1" s="874" t="str">
+      <c r="AB1" s="897"/>
+      <c r="AC1" s="922" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="875"/>
-      <c r="AE1" s="875"/>
-      <c r="AF1" s="876"/>
-      <c r="AG1" s="841">
+      <c r="AD1" s="923"/>
+      <c r="AE1" s="923"/>
+      <c r="AF1" s="924"/>
+      <c r="AG1" s="889">
         <f>IF(D8="","",D8)</f>
         <v>43808</v>
       </c>
-      <c r="AH1" s="842"/>
-      <c r="AI1" s="843"/>
+      <c r="AH1" s="890"/>
+      <c r="AI1" s="891"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -16206,53 +16204,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="847" t="s">
+      <c r="A2" s="895" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="848"/>
-      <c r="C2" s="848"/>
-      <c r="D2" s="849"/>
-      <c r="E2" s="850" t="s">
+      <c r="B2" s="896"/>
+      <c r="C2" s="896"/>
+      <c r="D2" s="897"/>
+      <c r="E2" s="898" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="851"/>
-      <c r="G2" s="851"/>
-      <c r="H2" s="851"/>
-      <c r="I2" s="851"/>
-      <c r="J2" s="851"/>
-      <c r="K2" s="851"/>
-      <c r="L2" s="851"/>
-      <c r="M2" s="851"/>
-      <c r="N2" s="852"/>
-      <c r="O2" s="859"/>
-      <c r="P2" s="860"/>
-      <c r="Q2" s="860"/>
-      <c r="R2" s="861"/>
-      <c r="S2" s="868"/>
-      <c r="T2" s="869"/>
-      <c r="U2" s="869"/>
-      <c r="V2" s="869"/>
-      <c r="W2" s="869"/>
-      <c r="X2" s="869"/>
-      <c r="Y2" s="869"/>
-      <c r="Z2" s="870"/>
-      <c r="AA2" s="847" t="s">
+      <c r="F2" s="899"/>
+      <c r="G2" s="899"/>
+      <c r="H2" s="899"/>
+      <c r="I2" s="899"/>
+      <c r="J2" s="899"/>
+      <c r="K2" s="899"/>
+      <c r="L2" s="899"/>
+      <c r="M2" s="899"/>
+      <c r="N2" s="900"/>
+      <c r="O2" s="907"/>
+      <c r="P2" s="908"/>
+      <c r="Q2" s="908"/>
+      <c r="R2" s="909"/>
+      <c r="S2" s="916"/>
+      <c r="T2" s="917"/>
+      <c r="U2" s="917"/>
+      <c r="V2" s="917"/>
+      <c r="W2" s="917"/>
+      <c r="X2" s="917"/>
+      <c r="Y2" s="917"/>
+      <c r="Z2" s="918"/>
+      <c r="AA2" s="895" t="s">
         <v>108</v>
       </c>
-      <c r="AB2" s="849"/>
-      <c r="AC2" s="853" t="str">
+      <c r="AB2" s="897"/>
+      <c r="AC2" s="901" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="854"/>
-      <c r="AE2" s="854"/>
-      <c r="AF2" s="855"/>
-      <c r="AG2" s="841">
+      <c r="AD2" s="902"/>
+      <c r="AE2" s="902"/>
+      <c r="AF2" s="903"/>
+      <c r="AG2" s="889">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>43896</v>
       </c>
-      <c r="AH2" s="842"/>
-      <c r="AI2" s="843"/>
+      <c r="AH2" s="890"/>
+      <c r="AI2" s="891"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -16260,45 +16258,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="847" t="s">
+      <c r="A3" s="895" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="848"/>
-      <c r="C3" s="848"/>
-      <c r="D3" s="849"/>
-      <c r="E3" s="850" t="s">
+      <c r="B3" s="896"/>
+      <c r="C3" s="896"/>
+      <c r="D3" s="897"/>
+      <c r="E3" s="898" t="s">
         <v>161</v>
       </c>
-      <c r="F3" s="851"/>
-      <c r="G3" s="851"/>
-      <c r="H3" s="851"/>
-      <c r="I3" s="851"/>
-      <c r="J3" s="851"/>
-      <c r="K3" s="851"/>
-      <c r="L3" s="851"/>
-      <c r="M3" s="851"/>
-      <c r="N3" s="852"/>
-      <c r="O3" s="862"/>
-      <c r="P3" s="863"/>
-      <c r="Q3" s="863"/>
-      <c r="R3" s="864"/>
-      <c r="S3" s="871"/>
-      <c r="T3" s="872"/>
-      <c r="U3" s="872"/>
-      <c r="V3" s="872"/>
-      <c r="W3" s="872"/>
-      <c r="X3" s="872"/>
-      <c r="Y3" s="872"/>
-      <c r="Z3" s="873"/>
-      <c r="AA3" s="847"/>
-      <c r="AB3" s="849"/>
-      <c r="AC3" s="874"/>
-      <c r="AD3" s="875"/>
-      <c r="AE3" s="875"/>
-      <c r="AF3" s="876"/>
-      <c r="AG3" s="841"/>
-      <c r="AH3" s="842"/>
-      <c r="AI3" s="843"/>
+      <c r="F3" s="899"/>
+      <c r="G3" s="899"/>
+      <c r="H3" s="899"/>
+      <c r="I3" s="899"/>
+      <c r="J3" s="899"/>
+      <c r="K3" s="899"/>
+      <c r="L3" s="899"/>
+      <c r="M3" s="899"/>
+      <c r="N3" s="900"/>
+      <c r="O3" s="910"/>
+      <c r="P3" s="911"/>
+      <c r="Q3" s="911"/>
+      <c r="R3" s="912"/>
+      <c r="S3" s="919"/>
+      <c r="T3" s="920"/>
+      <c r="U3" s="920"/>
+      <c r="V3" s="920"/>
+      <c r="W3" s="920"/>
+      <c r="X3" s="920"/>
+      <c r="Y3" s="920"/>
+      <c r="Z3" s="921"/>
+      <c r="AA3" s="895"/>
+      <c r="AB3" s="897"/>
+      <c r="AC3" s="922"/>
+      <c r="AD3" s="923"/>
+      <c r="AE3" s="923"/>
+      <c r="AF3" s="924"/>
+      <c r="AG3" s="889"/>
+      <c r="AH3" s="890"/>
+      <c r="AI3" s="891"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -16335,1204 +16333,1048 @@
       <c r="A7" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="844" t="s">
+      <c r="B7" s="892" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="845"/>
-      <c r="D7" s="844" t="s">
+      <c r="C7" s="893"/>
+      <c r="D7" s="892" t="s">
         <v>113</v>
       </c>
-      <c r="E7" s="846"/>
-      <c r="F7" s="845"/>
-      <c r="G7" s="844" t="s">
+      <c r="E7" s="894"/>
+      <c r="F7" s="893"/>
+      <c r="G7" s="892" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="846"/>
-      <c r="I7" s="845"/>
-      <c r="J7" s="844" t="s">
+      <c r="H7" s="894"/>
+      <c r="I7" s="893"/>
+      <c r="J7" s="892" t="s">
         <v>114</v>
       </c>
-      <c r="K7" s="846"/>
-      <c r="L7" s="846"/>
-      <c r="M7" s="846"/>
-      <c r="N7" s="846"/>
-      <c r="O7" s="846"/>
-      <c r="P7" s="845"/>
-      <c r="Q7" s="844" t="s">
+      <c r="K7" s="894"/>
+      <c r="L7" s="894"/>
+      <c r="M7" s="894"/>
+      <c r="N7" s="894"/>
+      <c r="O7" s="894"/>
+      <c r="P7" s="893"/>
+      <c r="Q7" s="892" t="s">
         <v>115</v>
       </c>
-      <c r="R7" s="846"/>
-      <c r="S7" s="846"/>
-      <c r="T7" s="846"/>
-      <c r="U7" s="846"/>
-      <c r="V7" s="846"/>
-      <c r="W7" s="846"/>
-      <c r="X7" s="846"/>
-      <c r="Y7" s="846"/>
-      <c r="Z7" s="846"/>
-      <c r="AA7" s="846"/>
-      <c r="AB7" s="846"/>
-      <c r="AC7" s="846"/>
-      <c r="AD7" s="846"/>
-      <c r="AE7" s="845"/>
-      <c r="AF7" s="844" t="s">
+      <c r="R7" s="894"/>
+      <c r="S7" s="894"/>
+      <c r="T7" s="894"/>
+      <c r="U7" s="894"/>
+      <c r="V7" s="894"/>
+      <c r="W7" s="894"/>
+      <c r="X7" s="894"/>
+      <c r="Y7" s="894"/>
+      <c r="Z7" s="894"/>
+      <c r="AA7" s="894"/>
+      <c r="AB7" s="894"/>
+      <c r="AC7" s="894"/>
+      <c r="AD7" s="894"/>
+      <c r="AE7" s="893"/>
+      <c r="AF7" s="892" t="s">
         <v>116</v>
       </c>
-      <c r="AG7" s="846"/>
-      <c r="AH7" s="846"/>
-      <c r="AI7" s="845"/>
+      <c r="AG7" s="894"/>
+      <c r="AH7" s="894"/>
+      <c r="AI7" s="893"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="893" t="s">
+      <c r="B8" s="879" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="894"/>
-      <c r="D8" s="895">
+      <c r="C8" s="880"/>
+      <c r="D8" s="881">
         <v>43808</v>
       </c>
-      <c r="E8" s="896"/>
-      <c r="F8" s="897"/>
-      <c r="G8" s="898" t="s">
+      <c r="E8" s="882"/>
+      <c r="F8" s="883"/>
+      <c r="G8" s="884" t="s">
         <v>152</v>
       </c>
-      <c r="H8" s="899"/>
-      <c r="I8" s="894"/>
-      <c r="J8" s="884" t="s">
+      <c r="H8" s="885"/>
+      <c r="I8" s="880"/>
+      <c r="J8" s="876" t="s">
         <v>153</v>
       </c>
-      <c r="K8" s="885"/>
-      <c r="L8" s="885"/>
-      <c r="M8" s="885"/>
-      <c r="N8" s="885"/>
-      <c r="O8" s="885"/>
-      <c r="P8" s="886"/>
-      <c r="Q8" s="900" t="s">
+      <c r="K8" s="877"/>
+      <c r="L8" s="877"/>
+      <c r="M8" s="877"/>
+      <c r="N8" s="877"/>
+      <c r="O8" s="877"/>
+      <c r="P8" s="878"/>
+      <c r="Q8" s="886" t="s">
         <v>154</v>
       </c>
-      <c r="R8" s="901"/>
-      <c r="S8" s="901"/>
-      <c r="T8" s="901"/>
-      <c r="U8" s="901"/>
-      <c r="V8" s="901"/>
-      <c r="W8" s="901"/>
-      <c r="X8" s="901"/>
-      <c r="Y8" s="901"/>
-      <c r="Z8" s="901"/>
-      <c r="AA8" s="901"/>
-      <c r="AB8" s="901"/>
-      <c r="AC8" s="901"/>
-      <c r="AD8" s="901"/>
-      <c r="AE8" s="902"/>
-      <c r="AF8" s="884" t="s">
+      <c r="R8" s="887"/>
+      <c r="S8" s="887"/>
+      <c r="T8" s="887"/>
+      <c r="U8" s="887"/>
+      <c r="V8" s="887"/>
+      <c r="W8" s="887"/>
+      <c r="X8" s="887"/>
+      <c r="Y8" s="887"/>
+      <c r="Z8" s="887"/>
+      <c r="AA8" s="887"/>
+      <c r="AB8" s="887"/>
+      <c r="AC8" s="887"/>
+      <c r="AD8" s="887"/>
+      <c r="AE8" s="888"/>
+      <c r="AF8" s="876" t="s">
         <v>155</v>
       </c>
-      <c r="AG8" s="885"/>
-      <c r="AH8" s="885"/>
-      <c r="AI8" s="886"/>
+      <c r="AG8" s="877"/>
+      <c r="AH8" s="877"/>
+      <c r="AI8" s="878"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A9" s="22">
         <v>2</v>
       </c>
-      <c r="B9" s="877">
+      <c r="B9" s="861">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="878"/>
-      <c r="D9" s="879">
+      <c r="C9" s="862"/>
+      <c r="D9" s="863">
         <v>43896</v>
       </c>
-      <c r="E9" s="880"/>
-      <c r="F9" s="881"/>
-      <c r="G9" s="879" t="s">
+      <c r="E9" s="864"/>
+      <c r="F9" s="865"/>
+      <c r="G9" s="863" t="s">
         <v>1489</v>
       </c>
-      <c r="H9" s="882"/>
-      <c r="I9" s="883"/>
-      <c r="J9" s="884" t="s">
+      <c r="H9" s="867"/>
+      <c r="I9" s="868"/>
+      <c r="J9" s="876" t="s">
         <v>1491</v>
       </c>
-      <c r="K9" s="885"/>
-      <c r="L9" s="885"/>
-      <c r="M9" s="885"/>
-      <c r="N9" s="885"/>
-      <c r="O9" s="885"/>
-      <c r="P9" s="886"/>
-      <c r="Q9" s="887" t="s">
+      <c r="K9" s="877"/>
+      <c r="L9" s="877"/>
+      <c r="M9" s="877"/>
+      <c r="N9" s="877"/>
+      <c r="O9" s="877"/>
+      <c r="P9" s="878"/>
+      <c r="Q9" s="872" t="s">
         <v>1492</v>
       </c>
-      <c r="R9" s="888"/>
-      <c r="S9" s="888"/>
-      <c r="T9" s="888"/>
-      <c r="U9" s="888"/>
-      <c r="V9" s="888"/>
-      <c r="W9" s="888"/>
-      <c r="X9" s="888"/>
-      <c r="Y9" s="888"/>
-      <c r="Z9" s="888"/>
-      <c r="AA9" s="888"/>
-      <c r="AB9" s="888"/>
-      <c r="AC9" s="888"/>
-      <c r="AD9" s="888"/>
-      <c r="AE9" s="889"/>
-      <c r="AF9" s="890" t="s">
+      <c r="R9" s="873"/>
+      <c r="S9" s="873"/>
+      <c r="T9" s="873"/>
+      <c r="U9" s="873"/>
+      <c r="V9" s="873"/>
+      <c r="W9" s="873"/>
+      <c r="X9" s="873"/>
+      <c r="Y9" s="873"/>
+      <c r="Z9" s="873"/>
+      <c r="AA9" s="873"/>
+      <c r="AB9" s="873"/>
+      <c r="AC9" s="873"/>
+      <c r="AD9" s="873"/>
+      <c r="AE9" s="874"/>
+      <c r="AF9" s="869" t="s">
         <v>155</v>
       </c>
-      <c r="AG9" s="891"/>
-      <c r="AH9" s="891"/>
-      <c r="AI9" s="892"/>
+      <c r="AG9" s="870"/>
+      <c r="AH9" s="870"/>
+      <c r="AI9" s="871"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="877"/>
-      <c r="C10" s="878"/>
-      <c r="D10" s="879"/>
-      <c r="E10" s="880"/>
-      <c r="F10" s="881"/>
-      <c r="G10" s="903"/>
-      <c r="H10" s="882"/>
-      <c r="I10" s="883"/>
-      <c r="J10" s="890"/>
-      <c r="K10" s="891"/>
-      <c r="L10" s="891"/>
-      <c r="M10" s="891"/>
-      <c r="N10" s="891"/>
-      <c r="O10" s="891"/>
-      <c r="P10" s="892"/>
-      <c r="Q10" s="887"/>
-      <c r="R10" s="888"/>
-      <c r="S10" s="888"/>
-      <c r="T10" s="888"/>
-      <c r="U10" s="888"/>
-      <c r="V10" s="888"/>
-      <c r="W10" s="888"/>
-      <c r="X10" s="888"/>
-      <c r="Y10" s="888"/>
-      <c r="Z10" s="888"/>
-      <c r="AA10" s="888"/>
-      <c r="AB10" s="888"/>
-      <c r="AC10" s="888"/>
-      <c r="AD10" s="888"/>
-      <c r="AE10" s="889"/>
-      <c r="AF10" s="890"/>
-      <c r="AG10" s="891"/>
-      <c r="AH10" s="891"/>
-      <c r="AI10" s="892"/>
+      <c r="B10" s="861"/>
+      <c r="C10" s="862"/>
+      <c r="D10" s="863"/>
+      <c r="E10" s="864"/>
+      <c r="F10" s="865"/>
+      <c r="G10" s="866"/>
+      <c r="H10" s="867"/>
+      <c r="I10" s="868"/>
+      <c r="J10" s="869"/>
+      <c r="K10" s="870"/>
+      <c r="L10" s="870"/>
+      <c r="M10" s="870"/>
+      <c r="N10" s="870"/>
+      <c r="O10" s="870"/>
+      <c r="P10" s="871"/>
+      <c r="Q10" s="872"/>
+      <c r="R10" s="873"/>
+      <c r="S10" s="873"/>
+      <c r="T10" s="873"/>
+      <c r="U10" s="873"/>
+      <c r="V10" s="873"/>
+      <c r="W10" s="873"/>
+      <c r="X10" s="873"/>
+      <c r="Y10" s="873"/>
+      <c r="Z10" s="873"/>
+      <c r="AA10" s="873"/>
+      <c r="AB10" s="873"/>
+      <c r="AC10" s="873"/>
+      <c r="AD10" s="873"/>
+      <c r="AE10" s="874"/>
+      <c r="AF10" s="869"/>
+      <c r="AG10" s="870"/>
+      <c r="AH10" s="870"/>
+      <c r="AI10" s="871"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="877"/>
-      <c r="C11" s="878"/>
-      <c r="D11" s="879"/>
-      <c r="E11" s="880"/>
-      <c r="F11" s="881"/>
-      <c r="G11" s="903"/>
-      <c r="H11" s="882"/>
-      <c r="I11" s="883"/>
-      <c r="J11" s="890"/>
-      <c r="K11" s="891"/>
-      <c r="L11" s="891"/>
-      <c r="M11" s="891"/>
-      <c r="N11" s="891"/>
-      <c r="O11" s="891"/>
-      <c r="P11" s="892"/>
-      <c r="Q11" s="887"/>
-      <c r="R11" s="888"/>
-      <c r="S11" s="888"/>
-      <c r="T11" s="888"/>
-      <c r="U11" s="888"/>
-      <c r="V11" s="888"/>
-      <c r="W11" s="888"/>
-      <c r="X11" s="888"/>
-      <c r="Y11" s="888"/>
-      <c r="Z11" s="888"/>
-      <c r="AA11" s="888"/>
-      <c r="AB11" s="888"/>
-      <c r="AC11" s="888"/>
-      <c r="AD11" s="888"/>
-      <c r="AE11" s="889"/>
-      <c r="AF11" s="890"/>
-      <c r="AG11" s="891"/>
-      <c r="AH11" s="891"/>
-      <c r="AI11" s="892"/>
+      <c r="B11" s="861"/>
+      <c r="C11" s="862"/>
+      <c r="D11" s="863"/>
+      <c r="E11" s="864"/>
+      <c r="F11" s="865"/>
+      <c r="G11" s="866"/>
+      <c r="H11" s="867"/>
+      <c r="I11" s="868"/>
+      <c r="J11" s="869"/>
+      <c r="K11" s="870"/>
+      <c r="L11" s="870"/>
+      <c r="M11" s="870"/>
+      <c r="N11" s="870"/>
+      <c r="O11" s="870"/>
+      <c r="P11" s="871"/>
+      <c r="Q11" s="872"/>
+      <c r="R11" s="873"/>
+      <c r="S11" s="873"/>
+      <c r="T11" s="873"/>
+      <c r="U11" s="873"/>
+      <c r="V11" s="873"/>
+      <c r="W11" s="873"/>
+      <c r="X11" s="873"/>
+      <c r="Y11" s="873"/>
+      <c r="Z11" s="873"/>
+      <c r="AA11" s="873"/>
+      <c r="AB11" s="873"/>
+      <c r="AC11" s="873"/>
+      <c r="AD11" s="873"/>
+      <c r="AE11" s="874"/>
+      <c r="AF11" s="869"/>
+      <c r="AG11" s="870"/>
+      <c r="AH11" s="870"/>
+      <c r="AI11" s="871"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="877"/>
-      <c r="C12" s="878"/>
-      <c r="D12" s="879"/>
-      <c r="E12" s="880"/>
-      <c r="F12" s="881"/>
-      <c r="G12" s="903"/>
-      <c r="H12" s="882"/>
-      <c r="I12" s="883"/>
-      <c r="J12" s="890"/>
-      <c r="K12" s="891"/>
-      <c r="L12" s="891"/>
-      <c r="M12" s="891"/>
-      <c r="N12" s="891"/>
-      <c r="O12" s="891"/>
-      <c r="P12" s="892"/>
-      <c r="Q12" s="887"/>
-      <c r="R12" s="888"/>
-      <c r="S12" s="888"/>
-      <c r="T12" s="888"/>
-      <c r="U12" s="888"/>
-      <c r="V12" s="888"/>
-      <c r="W12" s="888"/>
-      <c r="X12" s="888"/>
-      <c r="Y12" s="888"/>
-      <c r="Z12" s="888"/>
-      <c r="AA12" s="888"/>
-      <c r="AB12" s="888"/>
-      <c r="AC12" s="888"/>
-      <c r="AD12" s="888"/>
-      <c r="AE12" s="889"/>
-      <c r="AF12" s="890"/>
-      <c r="AG12" s="891"/>
-      <c r="AH12" s="891"/>
-      <c r="AI12" s="892"/>
+      <c r="B12" s="861"/>
+      <c r="C12" s="862"/>
+      <c r="D12" s="863"/>
+      <c r="E12" s="864"/>
+      <c r="F12" s="865"/>
+      <c r="G12" s="866"/>
+      <c r="H12" s="867"/>
+      <c r="I12" s="868"/>
+      <c r="J12" s="869"/>
+      <c r="K12" s="870"/>
+      <c r="L12" s="870"/>
+      <c r="M12" s="870"/>
+      <c r="N12" s="870"/>
+      <c r="O12" s="870"/>
+      <c r="P12" s="871"/>
+      <c r="Q12" s="872"/>
+      <c r="R12" s="873"/>
+      <c r="S12" s="873"/>
+      <c r="T12" s="873"/>
+      <c r="U12" s="873"/>
+      <c r="V12" s="873"/>
+      <c r="W12" s="873"/>
+      <c r="X12" s="873"/>
+      <c r="Y12" s="873"/>
+      <c r="Z12" s="873"/>
+      <c r="AA12" s="873"/>
+      <c r="AB12" s="873"/>
+      <c r="AC12" s="873"/>
+      <c r="AD12" s="873"/>
+      <c r="AE12" s="874"/>
+      <c r="AF12" s="869"/>
+      <c r="AG12" s="870"/>
+      <c r="AH12" s="870"/>
+      <c r="AI12" s="871"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="877"/>
-      <c r="C13" s="878"/>
-      <c r="D13" s="879"/>
-      <c r="E13" s="880"/>
-      <c r="F13" s="881"/>
-      <c r="G13" s="903"/>
-      <c r="H13" s="882"/>
-      <c r="I13" s="883"/>
-      <c r="J13" s="890"/>
-      <c r="K13" s="891"/>
-      <c r="L13" s="891"/>
-      <c r="M13" s="891"/>
-      <c r="N13" s="891"/>
-      <c r="O13" s="891"/>
-      <c r="P13" s="892"/>
-      <c r="Q13" s="887"/>
-      <c r="R13" s="888"/>
-      <c r="S13" s="888"/>
-      <c r="T13" s="888"/>
-      <c r="U13" s="888"/>
-      <c r="V13" s="888"/>
-      <c r="W13" s="888"/>
-      <c r="X13" s="888"/>
-      <c r="Y13" s="888"/>
-      <c r="Z13" s="888"/>
-      <c r="AA13" s="888"/>
-      <c r="AB13" s="888"/>
-      <c r="AC13" s="888"/>
-      <c r="AD13" s="888"/>
-      <c r="AE13" s="889"/>
-      <c r="AF13" s="890"/>
-      <c r="AG13" s="891"/>
-      <c r="AH13" s="891"/>
-      <c r="AI13" s="892"/>
+      <c r="B13" s="861"/>
+      <c r="C13" s="862"/>
+      <c r="D13" s="863"/>
+      <c r="E13" s="864"/>
+      <c r="F13" s="865"/>
+      <c r="G13" s="866"/>
+      <c r="H13" s="867"/>
+      <c r="I13" s="868"/>
+      <c r="J13" s="869"/>
+      <c r="K13" s="870"/>
+      <c r="L13" s="870"/>
+      <c r="M13" s="870"/>
+      <c r="N13" s="870"/>
+      <c r="O13" s="870"/>
+      <c r="P13" s="871"/>
+      <c r="Q13" s="872"/>
+      <c r="R13" s="873"/>
+      <c r="S13" s="873"/>
+      <c r="T13" s="873"/>
+      <c r="U13" s="873"/>
+      <c r="V13" s="873"/>
+      <c r="W13" s="873"/>
+      <c r="X13" s="873"/>
+      <c r="Y13" s="873"/>
+      <c r="Z13" s="873"/>
+      <c r="AA13" s="873"/>
+      <c r="AB13" s="873"/>
+      <c r="AC13" s="873"/>
+      <c r="AD13" s="873"/>
+      <c r="AE13" s="874"/>
+      <c r="AF13" s="869"/>
+      <c r="AG13" s="870"/>
+      <c r="AH13" s="870"/>
+      <c r="AI13" s="871"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="877"/>
-      <c r="C14" s="878"/>
-      <c r="D14" s="879"/>
-      <c r="E14" s="880"/>
-      <c r="F14" s="881"/>
-      <c r="G14" s="903"/>
-      <c r="H14" s="882"/>
-      <c r="I14" s="883"/>
-      <c r="J14" s="890"/>
-      <c r="K14" s="891"/>
-      <c r="L14" s="891"/>
-      <c r="M14" s="891"/>
-      <c r="N14" s="891"/>
-      <c r="O14" s="891"/>
-      <c r="P14" s="892"/>
-      <c r="Q14" s="887"/>
-      <c r="R14" s="888"/>
-      <c r="S14" s="888"/>
-      <c r="T14" s="888"/>
-      <c r="U14" s="888"/>
-      <c r="V14" s="888"/>
-      <c r="W14" s="888"/>
-      <c r="X14" s="888"/>
-      <c r="Y14" s="888"/>
-      <c r="Z14" s="888"/>
-      <c r="AA14" s="888"/>
-      <c r="AB14" s="888"/>
-      <c r="AC14" s="888"/>
-      <c r="AD14" s="888"/>
-      <c r="AE14" s="889"/>
-      <c r="AF14" s="890"/>
-      <c r="AG14" s="891"/>
-      <c r="AH14" s="891"/>
-      <c r="AI14" s="892"/>
+      <c r="B14" s="861"/>
+      <c r="C14" s="862"/>
+      <c r="D14" s="863"/>
+      <c r="E14" s="864"/>
+      <c r="F14" s="865"/>
+      <c r="G14" s="866"/>
+      <c r="H14" s="867"/>
+      <c r="I14" s="868"/>
+      <c r="J14" s="869"/>
+      <c r="K14" s="870"/>
+      <c r="L14" s="870"/>
+      <c r="M14" s="870"/>
+      <c r="N14" s="870"/>
+      <c r="O14" s="870"/>
+      <c r="P14" s="871"/>
+      <c r="Q14" s="872"/>
+      <c r="R14" s="873"/>
+      <c r="S14" s="873"/>
+      <c r="T14" s="873"/>
+      <c r="U14" s="873"/>
+      <c r="V14" s="873"/>
+      <c r="W14" s="873"/>
+      <c r="X14" s="873"/>
+      <c r="Y14" s="873"/>
+      <c r="Z14" s="873"/>
+      <c r="AA14" s="873"/>
+      <c r="AB14" s="873"/>
+      <c r="AC14" s="873"/>
+      <c r="AD14" s="873"/>
+      <c r="AE14" s="874"/>
+      <c r="AF14" s="869"/>
+      <c r="AG14" s="870"/>
+      <c r="AH14" s="870"/>
+      <c r="AI14" s="871"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="877"/>
-      <c r="C15" s="878"/>
-      <c r="D15" s="879"/>
-      <c r="E15" s="880"/>
-      <c r="F15" s="881"/>
-      <c r="G15" s="903"/>
-      <c r="H15" s="882"/>
-      <c r="I15" s="883"/>
-      <c r="J15" s="890"/>
-      <c r="K15" s="891"/>
-      <c r="L15" s="891"/>
-      <c r="M15" s="891"/>
-      <c r="N15" s="891"/>
-      <c r="O15" s="891"/>
-      <c r="P15" s="892"/>
-      <c r="Q15" s="887"/>
-      <c r="R15" s="888"/>
-      <c r="S15" s="888"/>
-      <c r="T15" s="888"/>
-      <c r="U15" s="888"/>
-      <c r="V15" s="888"/>
-      <c r="W15" s="888"/>
-      <c r="X15" s="888"/>
-      <c r="Y15" s="888"/>
-      <c r="Z15" s="888"/>
-      <c r="AA15" s="888"/>
-      <c r="AB15" s="888"/>
-      <c r="AC15" s="888"/>
-      <c r="AD15" s="888"/>
-      <c r="AE15" s="889"/>
-      <c r="AF15" s="890"/>
-      <c r="AG15" s="891"/>
-      <c r="AH15" s="891"/>
-      <c r="AI15" s="892"/>
+      <c r="B15" s="861"/>
+      <c r="C15" s="862"/>
+      <c r="D15" s="863"/>
+      <c r="E15" s="864"/>
+      <c r="F15" s="865"/>
+      <c r="G15" s="866"/>
+      <c r="H15" s="867"/>
+      <c r="I15" s="868"/>
+      <c r="J15" s="869"/>
+      <c r="K15" s="870"/>
+      <c r="L15" s="870"/>
+      <c r="M15" s="870"/>
+      <c r="N15" s="870"/>
+      <c r="O15" s="870"/>
+      <c r="P15" s="871"/>
+      <c r="Q15" s="872"/>
+      <c r="R15" s="873"/>
+      <c r="S15" s="873"/>
+      <c r="T15" s="873"/>
+      <c r="U15" s="873"/>
+      <c r="V15" s="873"/>
+      <c r="W15" s="873"/>
+      <c r="X15" s="873"/>
+      <c r="Y15" s="873"/>
+      <c r="Z15" s="873"/>
+      <c r="AA15" s="873"/>
+      <c r="AB15" s="873"/>
+      <c r="AC15" s="873"/>
+      <c r="AD15" s="873"/>
+      <c r="AE15" s="874"/>
+      <c r="AF15" s="869"/>
+      <c r="AG15" s="870"/>
+      <c r="AH15" s="870"/>
+      <c r="AI15" s="871"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="877"/>
-      <c r="C16" s="878"/>
-      <c r="D16" s="879"/>
-      <c r="E16" s="880"/>
-      <c r="F16" s="881"/>
-      <c r="G16" s="903"/>
-      <c r="H16" s="882"/>
-      <c r="I16" s="883"/>
-      <c r="J16" s="890"/>
-      <c r="K16" s="891"/>
-      <c r="L16" s="891"/>
-      <c r="M16" s="891"/>
-      <c r="N16" s="891"/>
-      <c r="O16" s="891"/>
-      <c r="P16" s="892"/>
-      <c r="Q16" s="887"/>
-      <c r="R16" s="888"/>
-      <c r="S16" s="888"/>
-      <c r="T16" s="888"/>
-      <c r="U16" s="888"/>
-      <c r="V16" s="888"/>
-      <c r="W16" s="888"/>
-      <c r="X16" s="888"/>
-      <c r="Y16" s="888"/>
-      <c r="Z16" s="888"/>
-      <c r="AA16" s="888"/>
-      <c r="AB16" s="888"/>
-      <c r="AC16" s="888"/>
-      <c r="AD16" s="888"/>
-      <c r="AE16" s="889"/>
-      <c r="AF16" s="890"/>
-      <c r="AG16" s="891"/>
-      <c r="AH16" s="891"/>
-      <c r="AI16" s="892"/>
+      <c r="B16" s="861"/>
+      <c r="C16" s="862"/>
+      <c r="D16" s="863"/>
+      <c r="E16" s="864"/>
+      <c r="F16" s="865"/>
+      <c r="G16" s="866"/>
+      <c r="H16" s="867"/>
+      <c r="I16" s="868"/>
+      <c r="J16" s="869"/>
+      <c r="K16" s="870"/>
+      <c r="L16" s="870"/>
+      <c r="M16" s="870"/>
+      <c r="N16" s="870"/>
+      <c r="O16" s="870"/>
+      <c r="P16" s="871"/>
+      <c r="Q16" s="872"/>
+      <c r="R16" s="873"/>
+      <c r="S16" s="873"/>
+      <c r="T16" s="873"/>
+      <c r="U16" s="873"/>
+      <c r="V16" s="873"/>
+      <c r="W16" s="873"/>
+      <c r="X16" s="873"/>
+      <c r="Y16" s="873"/>
+      <c r="Z16" s="873"/>
+      <c r="AA16" s="873"/>
+      <c r="AB16" s="873"/>
+      <c r="AC16" s="873"/>
+      <c r="AD16" s="873"/>
+      <c r="AE16" s="874"/>
+      <c r="AF16" s="869"/>
+      <c r="AG16" s="870"/>
+      <c r="AH16" s="870"/>
+      <c r="AI16" s="871"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="877"/>
-      <c r="C17" s="878"/>
-      <c r="D17" s="879"/>
-      <c r="E17" s="880"/>
-      <c r="F17" s="881"/>
-      <c r="G17" s="903"/>
-      <c r="H17" s="882"/>
-      <c r="I17" s="883"/>
-      <c r="J17" s="890"/>
-      <c r="K17" s="891"/>
-      <c r="L17" s="891"/>
-      <c r="M17" s="891"/>
-      <c r="N17" s="891"/>
-      <c r="O17" s="891"/>
-      <c r="P17" s="892"/>
-      <c r="Q17" s="887"/>
-      <c r="R17" s="888"/>
-      <c r="S17" s="888"/>
-      <c r="T17" s="888"/>
-      <c r="U17" s="888"/>
-      <c r="V17" s="888"/>
-      <c r="W17" s="888"/>
-      <c r="X17" s="888"/>
-      <c r="Y17" s="888"/>
-      <c r="Z17" s="888"/>
-      <c r="AA17" s="888"/>
-      <c r="AB17" s="888"/>
-      <c r="AC17" s="888"/>
-      <c r="AD17" s="888"/>
-      <c r="AE17" s="889"/>
-      <c r="AF17" s="890"/>
-      <c r="AG17" s="891"/>
-      <c r="AH17" s="891"/>
-      <c r="AI17" s="892"/>
+      <c r="B17" s="861"/>
+      <c r="C17" s="862"/>
+      <c r="D17" s="863"/>
+      <c r="E17" s="864"/>
+      <c r="F17" s="865"/>
+      <c r="G17" s="866"/>
+      <c r="H17" s="867"/>
+      <c r="I17" s="868"/>
+      <c r="J17" s="869"/>
+      <c r="K17" s="870"/>
+      <c r="L17" s="870"/>
+      <c r="M17" s="870"/>
+      <c r="N17" s="870"/>
+      <c r="O17" s="870"/>
+      <c r="P17" s="871"/>
+      <c r="Q17" s="872"/>
+      <c r="R17" s="873"/>
+      <c r="S17" s="873"/>
+      <c r="T17" s="873"/>
+      <c r="U17" s="873"/>
+      <c r="V17" s="873"/>
+      <c r="W17" s="873"/>
+      <c r="X17" s="873"/>
+      <c r="Y17" s="873"/>
+      <c r="Z17" s="873"/>
+      <c r="AA17" s="873"/>
+      <c r="AB17" s="873"/>
+      <c r="AC17" s="873"/>
+      <c r="AD17" s="873"/>
+      <c r="AE17" s="874"/>
+      <c r="AF17" s="869"/>
+      <c r="AG17" s="870"/>
+      <c r="AH17" s="870"/>
+      <c r="AI17" s="871"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="877"/>
-      <c r="C18" s="878"/>
-      <c r="D18" s="879"/>
-      <c r="E18" s="880"/>
-      <c r="F18" s="881"/>
-      <c r="G18" s="903"/>
-      <c r="H18" s="882"/>
-      <c r="I18" s="883"/>
-      <c r="J18" s="890"/>
-      <c r="K18" s="891"/>
-      <c r="L18" s="891"/>
-      <c r="M18" s="891"/>
-      <c r="N18" s="891"/>
-      <c r="O18" s="891"/>
-      <c r="P18" s="892"/>
-      <c r="Q18" s="887"/>
-      <c r="R18" s="888"/>
-      <c r="S18" s="888"/>
-      <c r="T18" s="888"/>
-      <c r="U18" s="888"/>
-      <c r="V18" s="888"/>
-      <c r="W18" s="888"/>
-      <c r="X18" s="888"/>
-      <c r="Y18" s="888"/>
-      <c r="Z18" s="888"/>
-      <c r="AA18" s="888"/>
-      <c r="AB18" s="888"/>
-      <c r="AC18" s="888"/>
-      <c r="AD18" s="888"/>
-      <c r="AE18" s="889"/>
-      <c r="AF18" s="890"/>
-      <c r="AG18" s="891"/>
-      <c r="AH18" s="891"/>
-      <c r="AI18" s="892"/>
+      <c r="B18" s="861"/>
+      <c r="C18" s="862"/>
+      <c r="D18" s="863"/>
+      <c r="E18" s="864"/>
+      <c r="F18" s="865"/>
+      <c r="G18" s="866"/>
+      <c r="H18" s="867"/>
+      <c r="I18" s="868"/>
+      <c r="J18" s="869"/>
+      <c r="K18" s="870"/>
+      <c r="L18" s="870"/>
+      <c r="M18" s="870"/>
+      <c r="N18" s="870"/>
+      <c r="O18" s="870"/>
+      <c r="P18" s="871"/>
+      <c r="Q18" s="872"/>
+      <c r="R18" s="873"/>
+      <c r="S18" s="873"/>
+      <c r="T18" s="873"/>
+      <c r="U18" s="873"/>
+      <c r="V18" s="873"/>
+      <c r="W18" s="873"/>
+      <c r="X18" s="873"/>
+      <c r="Y18" s="873"/>
+      <c r="Z18" s="873"/>
+      <c r="AA18" s="873"/>
+      <c r="AB18" s="873"/>
+      <c r="AC18" s="873"/>
+      <c r="AD18" s="873"/>
+      <c r="AE18" s="874"/>
+      <c r="AF18" s="869"/>
+      <c r="AG18" s="870"/>
+      <c r="AH18" s="870"/>
+      <c r="AI18" s="871"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="877"/>
-      <c r="C19" s="878"/>
-      <c r="D19" s="879"/>
-      <c r="E19" s="880"/>
-      <c r="F19" s="881"/>
-      <c r="G19" s="903"/>
-      <c r="H19" s="882"/>
-      <c r="I19" s="883"/>
-      <c r="J19" s="890"/>
-      <c r="K19" s="891"/>
-      <c r="L19" s="891"/>
-      <c r="M19" s="891"/>
-      <c r="N19" s="891"/>
-      <c r="O19" s="891"/>
-      <c r="P19" s="892"/>
-      <c r="Q19" s="887"/>
-      <c r="R19" s="888"/>
-      <c r="S19" s="888"/>
-      <c r="T19" s="888"/>
-      <c r="U19" s="888"/>
-      <c r="V19" s="888"/>
-      <c r="W19" s="888"/>
-      <c r="X19" s="888"/>
-      <c r="Y19" s="888"/>
-      <c r="Z19" s="888"/>
-      <c r="AA19" s="888"/>
-      <c r="AB19" s="888"/>
-      <c r="AC19" s="888"/>
-      <c r="AD19" s="888"/>
-      <c r="AE19" s="889"/>
-      <c r="AF19" s="890"/>
-      <c r="AG19" s="891"/>
-      <c r="AH19" s="891"/>
-      <c r="AI19" s="892"/>
+      <c r="B19" s="861"/>
+      <c r="C19" s="862"/>
+      <c r="D19" s="863"/>
+      <c r="E19" s="864"/>
+      <c r="F19" s="865"/>
+      <c r="G19" s="866"/>
+      <c r="H19" s="867"/>
+      <c r="I19" s="868"/>
+      <c r="J19" s="869"/>
+      <c r="K19" s="870"/>
+      <c r="L19" s="870"/>
+      <c r="M19" s="870"/>
+      <c r="N19" s="870"/>
+      <c r="O19" s="870"/>
+      <c r="P19" s="871"/>
+      <c r="Q19" s="872"/>
+      <c r="R19" s="873"/>
+      <c r="S19" s="873"/>
+      <c r="T19" s="873"/>
+      <c r="U19" s="873"/>
+      <c r="V19" s="873"/>
+      <c r="W19" s="873"/>
+      <c r="X19" s="873"/>
+      <c r="Y19" s="873"/>
+      <c r="Z19" s="873"/>
+      <c r="AA19" s="873"/>
+      <c r="AB19" s="873"/>
+      <c r="AC19" s="873"/>
+      <c r="AD19" s="873"/>
+      <c r="AE19" s="874"/>
+      <c r="AF19" s="869"/>
+      <c r="AG19" s="870"/>
+      <c r="AH19" s="870"/>
+      <c r="AI19" s="871"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="877"/>
-      <c r="C20" s="878"/>
-      <c r="D20" s="879"/>
-      <c r="E20" s="880"/>
-      <c r="F20" s="881"/>
-      <c r="G20" s="903"/>
-      <c r="H20" s="882"/>
-      <c r="I20" s="883"/>
-      <c r="J20" s="890"/>
-      <c r="K20" s="891"/>
-      <c r="L20" s="891"/>
-      <c r="M20" s="891"/>
-      <c r="N20" s="891"/>
-      <c r="O20" s="891"/>
-      <c r="P20" s="892"/>
-      <c r="Q20" s="887"/>
-      <c r="R20" s="888"/>
-      <c r="S20" s="888"/>
-      <c r="T20" s="888"/>
-      <c r="U20" s="888"/>
-      <c r="V20" s="888"/>
-      <c r="W20" s="888"/>
-      <c r="X20" s="888"/>
-      <c r="Y20" s="888"/>
-      <c r="Z20" s="888"/>
-      <c r="AA20" s="888"/>
-      <c r="AB20" s="888"/>
-      <c r="AC20" s="888"/>
-      <c r="AD20" s="888"/>
-      <c r="AE20" s="889"/>
-      <c r="AF20" s="890"/>
-      <c r="AG20" s="891"/>
-      <c r="AH20" s="891"/>
-      <c r="AI20" s="892"/>
+      <c r="B20" s="861"/>
+      <c r="C20" s="862"/>
+      <c r="D20" s="863"/>
+      <c r="E20" s="864"/>
+      <c r="F20" s="865"/>
+      <c r="G20" s="866"/>
+      <c r="H20" s="867"/>
+      <c r="I20" s="868"/>
+      <c r="J20" s="869"/>
+      <c r="K20" s="870"/>
+      <c r="L20" s="870"/>
+      <c r="M20" s="870"/>
+      <c r="N20" s="870"/>
+      <c r="O20" s="870"/>
+      <c r="P20" s="871"/>
+      <c r="Q20" s="872"/>
+      <c r="R20" s="873"/>
+      <c r="S20" s="873"/>
+      <c r="T20" s="873"/>
+      <c r="U20" s="873"/>
+      <c r="V20" s="873"/>
+      <c r="W20" s="873"/>
+      <c r="X20" s="873"/>
+      <c r="Y20" s="873"/>
+      <c r="Z20" s="873"/>
+      <c r="AA20" s="873"/>
+      <c r="AB20" s="873"/>
+      <c r="AC20" s="873"/>
+      <c r="AD20" s="873"/>
+      <c r="AE20" s="874"/>
+      <c r="AF20" s="869"/>
+      <c r="AG20" s="870"/>
+      <c r="AH20" s="870"/>
+      <c r="AI20" s="871"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="877"/>
-      <c r="C21" s="878"/>
-      <c r="D21" s="879"/>
-      <c r="E21" s="880"/>
-      <c r="F21" s="881"/>
-      <c r="G21" s="903"/>
-      <c r="H21" s="882"/>
-      <c r="I21" s="883"/>
-      <c r="J21" s="890"/>
-      <c r="K21" s="891"/>
-      <c r="L21" s="891"/>
-      <c r="M21" s="891"/>
-      <c r="N21" s="891"/>
-      <c r="O21" s="891"/>
-      <c r="P21" s="892"/>
-      <c r="Q21" s="887"/>
-      <c r="R21" s="888"/>
-      <c r="S21" s="888"/>
-      <c r="T21" s="888"/>
-      <c r="U21" s="888"/>
-      <c r="V21" s="888"/>
-      <c r="W21" s="888"/>
-      <c r="X21" s="888"/>
-      <c r="Y21" s="888"/>
-      <c r="Z21" s="888"/>
-      <c r="AA21" s="888"/>
-      <c r="AB21" s="888"/>
-      <c r="AC21" s="888"/>
-      <c r="AD21" s="888"/>
-      <c r="AE21" s="889"/>
-      <c r="AF21" s="890"/>
-      <c r="AG21" s="891"/>
-      <c r="AH21" s="891"/>
-      <c r="AI21" s="892"/>
+      <c r="B21" s="861"/>
+      <c r="C21" s="862"/>
+      <c r="D21" s="863"/>
+      <c r="E21" s="864"/>
+      <c r="F21" s="865"/>
+      <c r="G21" s="866"/>
+      <c r="H21" s="867"/>
+      <c r="I21" s="868"/>
+      <c r="J21" s="869"/>
+      <c r="K21" s="870"/>
+      <c r="L21" s="870"/>
+      <c r="M21" s="870"/>
+      <c r="N21" s="870"/>
+      <c r="O21" s="870"/>
+      <c r="P21" s="871"/>
+      <c r="Q21" s="872"/>
+      <c r="R21" s="873"/>
+      <c r="S21" s="873"/>
+      <c r="T21" s="873"/>
+      <c r="U21" s="873"/>
+      <c r="V21" s="873"/>
+      <c r="W21" s="873"/>
+      <c r="X21" s="873"/>
+      <c r="Y21" s="873"/>
+      <c r="Z21" s="873"/>
+      <c r="AA21" s="873"/>
+      <c r="AB21" s="873"/>
+      <c r="AC21" s="873"/>
+      <c r="AD21" s="873"/>
+      <c r="AE21" s="874"/>
+      <c r="AF21" s="869"/>
+      <c r="AG21" s="870"/>
+      <c r="AH21" s="870"/>
+      <c r="AI21" s="871"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="877"/>
-      <c r="C22" s="878"/>
-      <c r="D22" s="879"/>
-      <c r="E22" s="880"/>
-      <c r="F22" s="881"/>
-      <c r="G22" s="903"/>
-      <c r="H22" s="882"/>
-      <c r="I22" s="883"/>
-      <c r="J22" s="890"/>
-      <c r="K22" s="891"/>
-      <c r="L22" s="891"/>
-      <c r="M22" s="891"/>
-      <c r="N22" s="891"/>
-      <c r="O22" s="891"/>
-      <c r="P22" s="892"/>
-      <c r="Q22" s="887"/>
-      <c r="R22" s="888"/>
-      <c r="S22" s="888"/>
-      <c r="T22" s="888"/>
-      <c r="U22" s="888"/>
-      <c r="V22" s="888"/>
-      <c r="W22" s="888"/>
-      <c r="X22" s="888"/>
-      <c r="Y22" s="888"/>
-      <c r="Z22" s="888"/>
-      <c r="AA22" s="888"/>
-      <c r="AB22" s="888"/>
-      <c r="AC22" s="888"/>
-      <c r="AD22" s="888"/>
-      <c r="AE22" s="889"/>
-      <c r="AF22" s="890"/>
-      <c r="AG22" s="891"/>
-      <c r="AH22" s="891"/>
-      <c r="AI22" s="892"/>
+      <c r="B22" s="861"/>
+      <c r="C22" s="862"/>
+      <c r="D22" s="863"/>
+      <c r="E22" s="864"/>
+      <c r="F22" s="865"/>
+      <c r="G22" s="866"/>
+      <c r="H22" s="867"/>
+      <c r="I22" s="868"/>
+      <c r="J22" s="869"/>
+      <c r="K22" s="870"/>
+      <c r="L22" s="870"/>
+      <c r="M22" s="870"/>
+      <c r="N22" s="870"/>
+      <c r="O22" s="870"/>
+      <c r="P22" s="871"/>
+      <c r="Q22" s="872"/>
+      <c r="R22" s="873"/>
+      <c r="S22" s="873"/>
+      <c r="T22" s="873"/>
+      <c r="U22" s="873"/>
+      <c r="V22" s="873"/>
+      <c r="W22" s="873"/>
+      <c r="X22" s="873"/>
+      <c r="Y22" s="873"/>
+      <c r="Z22" s="873"/>
+      <c r="AA22" s="873"/>
+      <c r="AB22" s="873"/>
+      <c r="AC22" s="873"/>
+      <c r="AD22" s="873"/>
+      <c r="AE22" s="874"/>
+      <c r="AF22" s="869"/>
+      <c r="AG22" s="870"/>
+      <c r="AH22" s="870"/>
+      <c r="AI22" s="871"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="877"/>
-      <c r="C23" s="878"/>
-      <c r="D23" s="879"/>
-      <c r="E23" s="880"/>
-      <c r="F23" s="881"/>
-      <c r="G23" s="903"/>
-      <c r="H23" s="882"/>
-      <c r="I23" s="883"/>
-      <c r="J23" s="890"/>
-      <c r="K23" s="891"/>
-      <c r="L23" s="891"/>
-      <c r="M23" s="891"/>
-      <c r="N23" s="891"/>
-      <c r="O23" s="891"/>
-      <c r="P23" s="892"/>
-      <c r="Q23" s="887"/>
-      <c r="R23" s="888"/>
-      <c r="S23" s="888"/>
-      <c r="T23" s="888"/>
-      <c r="U23" s="888"/>
-      <c r="V23" s="888"/>
-      <c r="W23" s="888"/>
-      <c r="X23" s="888"/>
-      <c r="Y23" s="888"/>
-      <c r="Z23" s="888"/>
-      <c r="AA23" s="888"/>
-      <c r="AB23" s="888"/>
-      <c r="AC23" s="888"/>
-      <c r="AD23" s="888"/>
-      <c r="AE23" s="889"/>
-      <c r="AF23" s="890"/>
-      <c r="AG23" s="891"/>
-      <c r="AH23" s="891"/>
-      <c r="AI23" s="892"/>
+      <c r="B23" s="861"/>
+      <c r="C23" s="862"/>
+      <c r="D23" s="863"/>
+      <c r="E23" s="864"/>
+      <c r="F23" s="865"/>
+      <c r="G23" s="866"/>
+      <c r="H23" s="867"/>
+      <c r="I23" s="868"/>
+      <c r="J23" s="869"/>
+      <c r="K23" s="870"/>
+      <c r="L23" s="870"/>
+      <c r="M23" s="870"/>
+      <c r="N23" s="870"/>
+      <c r="O23" s="870"/>
+      <c r="P23" s="871"/>
+      <c r="Q23" s="872"/>
+      <c r="R23" s="873"/>
+      <c r="S23" s="873"/>
+      <c r="T23" s="873"/>
+      <c r="U23" s="873"/>
+      <c r="V23" s="873"/>
+      <c r="W23" s="873"/>
+      <c r="X23" s="873"/>
+      <c r="Y23" s="873"/>
+      <c r="Z23" s="873"/>
+      <c r="AA23" s="873"/>
+      <c r="AB23" s="873"/>
+      <c r="AC23" s="873"/>
+      <c r="AD23" s="873"/>
+      <c r="AE23" s="874"/>
+      <c r="AF23" s="869"/>
+      <c r="AG23" s="870"/>
+      <c r="AH23" s="870"/>
+      <c r="AI23" s="871"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="877"/>
-      <c r="C24" s="878"/>
-      <c r="D24" s="879"/>
-      <c r="E24" s="880"/>
-      <c r="F24" s="881"/>
-      <c r="G24" s="903"/>
-      <c r="H24" s="882"/>
-      <c r="I24" s="883"/>
-      <c r="J24" s="890"/>
-      <c r="K24" s="891"/>
-      <c r="L24" s="891"/>
-      <c r="M24" s="891"/>
-      <c r="N24" s="891"/>
-      <c r="O24" s="891"/>
-      <c r="P24" s="892"/>
-      <c r="Q24" s="887"/>
-      <c r="R24" s="888"/>
-      <c r="S24" s="888"/>
-      <c r="T24" s="888"/>
-      <c r="U24" s="888"/>
-      <c r="V24" s="888"/>
-      <c r="W24" s="888"/>
-      <c r="X24" s="888"/>
-      <c r="Y24" s="888"/>
-      <c r="Z24" s="888"/>
-      <c r="AA24" s="888"/>
-      <c r="AB24" s="888"/>
-      <c r="AC24" s="888"/>
-      <c r="AD24" s="888"/>
-      <c r="AE24" s="889"/>
-      <c r="AF24" s="890"/>
-      <c r="AG24" s="891"/>
-      <c r="AH24" s="891"/>
-      <c r="AI24" s="892"/>
+      <c r="B24" s="861"/>
+      <c r="C24" s="862"/>
+      <c r="D24" s="863"/>
+      <c r="E24" s="864"/>
+      <c r="F24" s="865"/>
+      <c r="G24" s="866"/>
+      <c r="H24" s="867"/>
+      <c r="I24" s="868"/>
+      <c r="J24" s="869"/>
+      <c r="K24" s="870"/>
+      <c r="L24" s="870"/>
+      <c r="M24" s="870"/>
+      <c r="N24" s="870"/>
+      <c r="O24" s="870"/>
+      <c r="P24" s="871"/>
+      <c r="Q24" s="872"/>
+      <c r="R24" s="873"/>
+      <c r="S24" s="873"/>
+      <c r="T24" s="873"/>
+      <c r="U24" s="873"/>
+      <c r="V24" s="873"/>
+      <c r="W24" s="873"/>
+      <c r="X24" s="873"/>
+      <c r="Y24" s="873"/>
+      <c r="Z24" s="873"/>
+      <c r="AA24" s="873"/>
+      <c r="AB24" s="873"/>
+      <c r="AC24" s="873"/>
+      <c r="AD24" s="873"/>
+      <c r="AE24" s="874"/>
+      <c r="AF24" s="869"/>
+      <c r="AG24" s="870"/>
+      <c r="AH24" s="870"/>
+      <c r="AI24" s="871"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="877"/>
-      <c r="C25" s="878"/>
-      <c r="D25" s="879"/>
-      <c r="E25" s="880"/>
-      <c r="F25" s="881"/>
-      <c r="G25" s="903"/>
-      <c r="H25" s="882"/>
-      <c r="I25" s="883"/>
-      <c r="J25" s="890"/>
-      <c r="K25" s="891"/>
-      <c r="L25" s="891"/>
-      <c r="M25" s="891"/>
-      <c r="N25" s="891"/>
-      <c r="O25" s="891"/>
-      <c r="P25" s="892"/>
-      <c r="Q25" s="887"/>
-      <c r="R25" s="888"/>
-      <c r="S25" s="888"/>
-      <c r="T25" s="888"/>
-      <c r="U25" s="888"/>
-      <c r="V25" s="888"/>
-      <c r="W25" s="888"/>
-      <c r="X25" s="888"/>
-      <c r="Y25" s="888"/>
-      <c r="Z25" s="888"/>
-      <c r="AA25" s="888"/>
-      <c r="AB25" s="888"/>
-      <c r="AC25" s="888"/>
-      <c r="AD25" s="888"/>
-      <c r="AE25" s="889"/>
-      <c r="AF25" s="890"/>
-      <c r="AG25" s="891"/>
-      <c r="AH25" s="891"/>
-      <c r="AI25" s="892"/>
+      <c r="B25" s="861"/>
+      <c r="C25" s="862"/>
+      <c r="D25" s="863"/>
+      <c r="E25" s="864"/>
+      <c r="F25" s="865"/>
+      <c r="G25" s="866"/>
+      <c r="H25" s="867"/>
+      <c r="I25" s="868"/>
+      <c r="J25" s="869"/>
+      <c r="K25" s="870"/>
+      <c r="L25" s="870"/>
+      <c r="M25" s="870"/>
+      <c r="N25" s="870"/>
+      <c r="O25" s="870"/>
+      <c r="P25" s="871"/>
+      <c r="Q25" s="872"/>
+      <c r="R25" s="873"/>
+      <c r="S25" s="873"/>
+      <c r="T25" s="873"/>
+      <c r="U25" s="873"/>
+      <c r="V25" s="873"/>
+      <c r="W25" s="873"/>
+      <c r="X25" s="873"/>
+      <c r="Y25" s="873"/>
+      <c r="Z25" s="873"/>
+      <c r="AA25" s="873"/>
+      <c r="AB25" s="873"/>
+      <c r="AC25" s="873"/>
+      <c r="AD25" s="873"/>
+      <c r="AE25" s="874"/>
+      <c r="AF25" s="869"/>
+      <c r="AG25" s="870"/>
+      <c r="AH25" s="870"/>
+      <c r="AI25" s="871"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="877"/>
-      <c r="C26" s="878"/>
-      <c r="D26" s="879"/>
-      <c r="E26" s="880"/>
-      <c r="F26" s="881"/>
-      <c r="G26" s="903"/>
-      <c r="H26" s="882"/>
-      <c r="I26" s="883"/>
-      <c r="J26" s="890"/>
-      <c r="K26" s="891"/>
-      <c r="L26" s="891"/>
-      <c r="M26" s="891"/>
-      <c r="N26" s="891"/>
-      <c r="O26" s="891"/>
-      <c r="P26" s="892"/>
-      <c r="Q26" s="887"/>
-      <c r="R26" s="888"/>
-      <c r="S26" s="888"/>
-      <c r="T26" s="888"/>
-      <c r="U26" s="888"/>
-      <c r="V26" s="888"/>
-      <c r="W26" s="888"/>
-      <c r="X26" s="888"/>
-      <c r="Y26" s="888"/>
-      <c r="Z26" s="888"/>
-      <c r="AA26" s="888"/>
-      <c r="AB26" s="888"/>
-      <c r="AC26" s="888"/>
-      <c r="AD26" s="888"/>
-      <c r="AE26" s="889"/>
-      <c r="AF26" s="890"/>
-      <c r="AG26" s="891"/>
-      <c r="AH26" s="891"/>
-      <c r="AI26" s="892"/>
+      <c r="B26" s="861"/>
+      <c r="C26" s="862"/>
+      <c r="D26" s="863"/>
+      <c r="E26" s="864"/>
+      <c r="F26" s="865"/>
+      <c r="G26" s="866"/>
+      <c r="H26" s="867"/>
+      <c r="I26" s="868"/>
+      <c r="J26" s="869"/>
+      <c r="K26" s="870"/>
+      <c r="L26" s="870"/>
+      <c r="M26" s="870"/>
+      <c r="N26" s="870"/>
+      <c r="O26" s="870"/>
+      <c r="P26" s="871"/>
+      <c r="Q26" s="872"/>
+      <c r="R26" s="873"/>
+      <c r="S26" s="873"/>
+      <c r="T26" s="873"/>
+      <c r="U26" s="873"/>
+      <c r="V26" s="873"/>
+      <c r="W26" s="873"/>
+      <c r="X26" s="873"/>
+      <c r="Y26" s="873"/>
+      <c r="Z26" s="873"/>
+      <c r="AA26" s="873"/>
+      <c r="AB26" s="873"/>
+      <c r="AC26" s="873"/>
+      <c r="AD26" s="873"/>
+      <c r="AE26" s="874"/>
+      <c r="AF26" s="869"/>
+      <c r="AG26" s="870"/>
+      <c r="AH26" s="870"/>
+      <c r="AI26" s="871"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="877"/>
-      <c r="C27" s="878"/>
-      <c r="D27" s="879"/>
-      <c r="E27" s="880"/>
-      <c r="F27" s="881"/>
-      <c r="G27" s="903"/>
-      <c r="H27" s="882"/>
-      <c r="I27" s="883"/>
-      <c r="J27" s="890"/>
-      <c r="K27" s="891"/>
-      <c r="L27" s="891"/>
-      <c r="M27" s="891"/>
-      <c r="N27" s="891"/>
-      <c r="O27" s="891"/>
-      <c r="P27" s="892"/>
-      <c r="Q27" s="887"/>
-      <c r="R27" s="888"/>
-      <c r="S27" s="888"/>
-      <c r="T27" s="888"/>
-      <c r="U27" s="888"/>
-      <c r="V27" s="888"/>
-      <c r="W27" s="888"/>
-      <c r="X27" s="888"/>
-      <c r="Y27" s="888"/>
-      <c r="Z27" s="888"/>
-      <c r="AA27" s="888"/>
-      <c r="AB27" s="888"/>
-      <c r="AC27" s="888"/>
-      <c r="AD27" s="888"/>
-      <c r="AE27" s="889"/>
-      <c r="AF27" s="890"/>
-      <c r="AG27" s="891"/>
-      <c r="AH27" s="891"/>
-      <c r="AI27" s="892"/>
+      <c r="B27" s="861"/>
+      <c r="C27" s="862"/>
+      <c r="D27" s="863"/>
+      <c r="E27" s="864"/>
+      <c r="F27" s="865"/>
+      <c r="G27" s="866"/>
+      <c r="H27" s="867"/>
+      <c r="I27" s="868"/>
+      <c r="J27" s="869"/>
+      <c r="K27" s="870"/>
+      <c r="L27" s="870"/>
+      <c r="M27" s="870"/>
+      <c r="N27" s="870"/>
+      <c r="O27" s="870"/>
+      <c r="P27" s="871"/>
+      <c r="Q27" s="872"/>
+      <c r="R27" s="873"/>
+      <c r="S27" s="873"/>
+      <c r="T27" s="873"/>
+      <c r="U27" s="873"/>
+      <c r="V27" s="873"/>
+      <c r="W27" s="873"/>
+      <c r="X27" s="873"/>
+      <c r="Y27" s="873"/>
+      <c r="Z27" s="873"/>
+      <c r="AA27" s="873"/>
+      <c r="AB27" s="873"/>
+      <c r="AC27" s="873"/>
+      <c r="AD27" s="873"/>
+      <c r="AE27" s="874"/>
+      <c r="AF27" s="869"/>
+      <c r="AG27" s="870"/>
+      <c r="AH27" s="870"/>
+      <c r="AI27" s="871"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="877"/>
-      <c r="C28" s="878"/>
-      <c r="D28" s="879"/>
-      <c r="E28" s="880"/>
-      <c r="F28" s="881"/>
-      <c r="G28" s="903"/>
-      <c r="H28" s="882"/>
-      <c r="I28" s="883"/>
-      <c r="J28" s="890"/>
-      <c r="K28" s="891"/>
-      <c r="L28" s="891"/>
-      <c r="M28" s="891"/>
-      <c r="N28" s="891"/>
-      <c r="O28" s="891"/>
-      <c r="P28" s="892"/>
-      <c r="Q28" s="887"/>
-      <c r="R28" s="888"/>
-      <c r="S28" s="888"/>
-      <c r="T28" s="888"/>
-      <c r="U28" s="888"/>
-      <c r="V28" s="888"/>
-      <c r="W28" s="888"/>
-      <c r="X28" s="888"/>
-      <c r="Y28" s="888"/>
-      <c r="Z28" s="888"/>
-      <c r="AA28" s="888"/>
-      <c r="AB28" s="888"/>
-      <c r="AC28" s="888"/>
-      <c r="AD28" s="888"/>
-      <c r="AE28" s="889"/>
-      <c r="AF28" s="890"/>
-      <c r="AG28" s="891"/>
-      <c r="AH28" s="891"/>
-      <c r="AI28" s="892"/>
+      <c r="B28" s="861"/>
+      <c r="C28" s="862"/>
+      <c r="D28" s="863"/>
+      <c r="E28" s="864"/>
+      <c r="F28" s="865"/>
+      <c r="G28" s="866"/>
+      <c r="H28" s="867"/>
+      <c r="I28" s="868"/>
+      <c r="J28" s="869"/>
+      <c r="K28" s="870"/>
+      <c r="L28" s="870"/>
+      <c r="M28" s="870"/>
+      <c r="N28" s="870"/>
+      <c r="O28" s="870"/>
+      <c r="P28" s="871"/>
+      <c r="Q28" s="872"/>
+      <c r="R28" s="873"/>
+      <c r="S28" s="873"/>
+      <c r="T28" s="873"/>
+      <c r="U28" s="873"/>
+      <c r="V28" s="873"/>
+      <c r="W28" s="873"/>
+      <c r="X28" s="873"/>
+      <c r="Y28" s="873"/>
+      <c r="Z28" s="873"/>
+      <c r="AA28" s="873"/>
+      <c r="AB28" s="873"/>
+      <c r="AC28" s="873"/>
+      <c r="AD28" s="873"/>
+      <c r="AE28" s="874"/>
+      <c r="AF28" s="869"/>
+      <c r="AG28" s="870"/>
+      <c r="AH28" s="870"/>
+      <c r="AI28" s="871"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="877"/>
-      <c r="C29" s="878"/>
-      <c r="D29" s="879"/>
-      <c r="E29" s="880"/>
-      <c r="F29" s="881"/>
-      <c r="G29" s="903"/>
-      <c r="H29" s="882"/>
-      <c r="I29" s="883"/>
-      <c r="J29" s="890"/>
-      <c r="K29" s="891"/>
-      <c r="L29" s="891"/>
-      <c r="M29" s="891"/>
-      <c r="N29" s="891"/>
-      <c r="O29" s="891"/>
-      <c r="P29" s="892"/>
-      <c r="Q29" s="887"/>
-      <c r="R29" s="888"/>
-      <c r="S29" s="888"/>
-      <c r="T29" s="888"/>
-      <c r="U29" s="888"/>
-      <c r="V29" s="888"/>
-      <c r="W29" s="888"/>
-      <c r="X29" s="888"/>
-      <c r="Y29" s="888"/>
-      <c r="Z29" s="888"/>
-      <c r="AA29" s="888"/>
-      <c r="AB29" s="888"/>
-      <c r="AC29" s="888"/>
-      <c r="AD29" s="888"/>
-      <c r="AE29" s="889"/>
-      <c r="AF29" s="890"/>
-      <c r="AG29" s="891"/>
-      <c r="AH29" s="891"/>
-      <c r="AI29" s="892"/>
+      <c r="B29" s="861"/>
+      <c r="C29" s="862"/>
+      <c r="D29" s="863"/>
+      <c r="E29" s="864"/>
+      <c r="F29" s="865"/>
+      <c r="G29" s="866"/>
+      <c r="H29" s="867"/>
+      <c r="I29" s="868"/>
+      <c r="J29" s="869"/>
+      <c r="K29" s="870"/>
+      <c r="L29" s="870"/>
+      <c r="M29" s="870"/>
+      <c r="N29" s="870"/>
+      <c r="O29" s="870"/>
+      <c r="P29" s="871"/>
+      <c r="Q29" s="872"/>
+      <c r="R29" s="873"/>
+      <c r="S29" s="873"/>
+      <c r="T29" s="873"/>
+      <c r="U29" s="873"/>
+      <c r="V29" s="873"/>
+      <c r="W29" s="873"/>
+      <c r="X29" s="873"/>
+      <c r="Y29" s="873"/>
+      <c r="Z29" s="873"/>
+      <c r="AA29" s="873"/>
+      <c r="AB29" s="873"/>
+      <c r="AC29" s="873"/>
+      <c r="AD29" s="873"/>
+      <c r="AE29" s="874"/>
+      <c r="AF29" s="869"/>
+      <c r="AG29" s="870"/>
+      <c r="AH29" s="870"/>
+      <c r="AI29" s="871"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="877"/>
-      <c r="C30" s="878"/>
-      <c r="D30" s="879"/>
-      <c r="E30" s="880"/>
-      <c r="F30" s="881"/>
-      <c r="G30" s="903"/>
-      <c r="H30" s="882"/>
-      <c r="I30" s="883"/>
-      <c r="J30" s="890"/>
-      <c r="K30" s="891"/>
-      <c r="L30" s="891"/>
-      <c r="M30" s="891"/>
-      <c r="N30" s="891"/>
-      <c r="O30" s="891"/>
-      <c r="P30" s="892"/>
-      <c r="Q30" s="887"/>
-      <c r="R30" s="888"/>
-      <c r="S30" s="888"/>
-      <c r="T30" s="888"/>
-      <c r="U30" s="888"/>
-      <c r="V30" s="888"/>
-      <c r="W30" s="888"/>
-      <c r="X30" s="888"/>
-      <c r="Y30" s="888"/>
-      <c r="Z30" s="888"/>
-      <c r="AA30" s="888"/>
-      <c r="AB30" s="888"/>
-      <c r="AC30" s="888"/>
-      <c r="AD30" s="888"/>
-      <c r="AE30" s="889"/>
-      <c r="AF30" s="890"/>
-      <c r="AG30" s="891"/>
-      <c r="AH30" s="891"/>
-      <c r="AI30" s="892"/>
+      <c r="B30" s="861"/>
+      <c r="C30" s="862"/>
+      <c r="D30" s="863"/>
+      <c r="E30" s="864"/>
+      <c r="F30" s="865"/>
+      <c r="G30" s="866"/>
+      <c r="H30" s="867"/>
+      <c r="I30" s="868"/>
+      <c r="J30" s="869"/>
+      <c r="K30" s="870"/>
+      <c r="L30" s="870"/>
+      <c r="M30" s="870"/>
+      <c r="N30" s="870"/>
+      <c r="O30" s="870"/>
+      <c r="P30" s="871"/>
+      <c r="Q30" s="872"/>
+      <c r="R30" s="873"/>
+      <c r="S30" s="873"/>
+      <c r="T30" s="873"/>
+      <c r="U30" s="873"/>
+      <c r="V30" s="873"/>
+      <c r="W30" s="873"/>
+      <c r="X30" s="873"/>
+      <c r="Y30" s="873"/>
+      <c r="Z30" s="873"/>
+      <c r="AA30" s="873"/>
+      <c r="AB30" s="873"/>
+      <c r="AC30" s="873"/>
+      <c r="AD30" s="873"/>
+      <c r="AE30" s="874"/>
+      <c r="AF30" s="869"/>
+      <c r="AG30" s="870"/>
+      <c r="AH30" s="870"/>
+      <c r="AI30" s="871"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="877"/>
-      <c r="C31" s="878"/>
-      <c r="D31" s="879"/>
-      <c r="E31" s="880"/>
-      <c r="F31" s="881"/>
-      <c r="G31" s="903"/>
-      <c r="H31" s="882"/>
-      <c r="I31" s="883"/>
-      <c r="J31" s="890"/>
-      <c r="K31" s="891"/>
-      <c r="L31" s="891"/>
-      <c r="M31" s="891"/>
-      <c r="N31" s="891"/>
-      <c r="O31" s="891"/>
-      <c r="P31" s="892"/>
-      <c r="Q31" s="887"/>
-      <c r="R31" s="888"/>
-      <c r="S31" s="888"/>
-      <c r="T31" s="888"/>
-      <c r="U31" s="888"/>
-      <c r="V31" s="888"/>
-      <c r="W31" s="888"/>
-      <c r="X31" s="888"/>
-      <c r="Y31" s="888"/>
-      <c r="Z31" s="888"/>
-      <c r="AA31" s="888"/>
-      <c r="AB31" s="888"/>
-      <c r="AC31" s="888"/>
-      <c r="AD31" s="888"/>
-      <c r="AE31" s="889"/>
-      <c r="AF31" s="890"/>
-      <c r="AG31" s="891"/>
-      <c r="AH31" s="891"/>
-      <c r="AI31" s="892"/>
+      <c r="B31" s="861"/>
+      <c r="C31" s="862"/>
+      <c r="D31" s="863"/>
+      <c r="E31" s="864"/>
+      <c r="F31" s="865"/>
+      <c r="G31" s="866"/>
+      <c r="H31" s="867"/>
+      <c r="I31" s="868"/>
+      <c r="J31" s="869"/>
+      <c r="K31" s="870"/>
+      <c r="L31" s="870"/>
+      <c r="M31" s="870"/>
+      <c r="N31" s="870"/>
+      <c r="O31" s="870"/>
+      <c r="P31" s="871"/>
+      <c r="Q31" s="872"/>
+      <c r="R31" s="873"/>
+      <c r="S31" s="873"/>
+      <c r="T31" s="873"/>
+      <c r="U31" s="873"/>
+      <c r="V31" s="873"/>
+      <c r="W31" s="873"/>
+      <c r="X31" s="873"/>
+      <c r="Y31" s="873"/>
+      <c r="Z31" s="873"/>
+      <c r="AA31" s="873"/>
+      <c r="AB31" s="873"/>
+      <c r="AC31" s="873"/>
+      <c r="AD31" s="873"/>
+      <c r="AE31" s="874"/>
+      <c r="AF31" s="869"/>
+      <c r="AG31" s="870"/>
+      <c r="AH31" s="870"/>
+      <c r="AI31" s="871"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="877"/>
-      <c r="C32" s="878"/>
-      <c r="D32" s="879"/>
-      <c r="E32" s="880"/>
-      <c r="F32" s="881"/>
-      <c r="G32" s="903"/>
-      <c r="H32" s="882"/>
-      <c r="I32" s="883"/>
-      <c r="J32" s="890"/>
-      <c r="K32" s="904"/>
-      <c r="L32" s="891"/>
-      <c r="M32" s="891"/>
-      <c r="N32" s="891"/>
-      <c r="O32" s="891"/>
-      <c r="P32" s="892"/>
-      <c r="Q32" s="887"/>
-      <c r="R32" s="888"/>
-      <c r="S32" s="888"/>
-      <c r="T32" s="888"/>
-      <c r="U32" s="888"/>
-      <c r="V32" s="888"/>
-      <c r="W32" s="888"/>
-      <c r="X32" s="888"/>
-      <c r="Y32" s="888"/>
-      <c r="Z32" s="888"/>
-      <c r="AA32" s="888"/>
-      <c r="AB32" s="888"/>
-      <c r="AC32" s="888"/>
-      <c r="AD32" s="888"/>
-      <c r="AE32" s="889"/>
-      <c r="AF32" s="890"/>
-      <c r="AG32" s="891"/>
-      <c r="AH32" s="891"/>
-      <c r="AI32" s="892"/>
+      <c r="B32" s="861"/>
+      <c r="C32" s="862"/>
+      <c r="D32" s="863"/>
+      <c r="E32" s="864"/>
+      <c r="F32" s="865"/>
+      <c r="G32" s="866"/>
+      <c r="H32" s="867"/>
+      <c r="I32" s="868"/>
+      <c r="J32" s="869"/>
+      <c r="K32" s="875"/>
+      <c r="L32" s="870"/>
+      <c r="M32" s="870"/>
+      <c r="N32" s="870"/>
+      <c r="O32" s="870"/>
+      <c r="P32" s="871"/>
+      <c r="Q32" s="872"/>
+      <c r="R32" s="873"/>
+      <c r="S32" s="873"/>
+      <c r="T32" s="873"/>
+      <c r="U32" s="873"/>
+      <c r="V32" s="873"/>
+      <c r="W32" s="873"/>
+      <c r="X32" s="873"/>
+      <c r="Y32" s="873"/>
+      <c r="Z32" s="873"/>
+      <c r="AA32" s="873"/>
+      <c r="AB32" s="873"/>
+      <c r="AC32" s="873"/>
+      <c r="AD32" s="873"/>
+      <c r="AE32" s="874"/>
+      <c r="AF32" s="869"/>
+      <c r="AG32" s="870"/>
+      <c r="AH32" s="870"/>
+      <c r="AI32" s="871"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="877"/>
-      <c r="C33" s="878"/>
-      <c r="D33" s="879"/>
-      <c r="E33" s="880"/>
-      <c r="F33" s="881"/>
-      <c r="G33" s="903"/>
-      <c r="H33" s="882"/>
-      <c r="I33" s="883"/>
-      <c r="J33" s="890"/>
-      <c r="K33" s="891"/>
-      <c r="L33" s="891"/>
-      <c r="M33" s="891"/>
-      <c r="N33" s="891"/>
-      <c r="O33" s="891"/>
-      <c r="P33" s="892"/>
-      <c r="Q33" s="887"/>
-      <c r="R33" s="888"/>
-      <c r="S33" s="888"/>
-      <c r="T33" s="888"/>
-      <c r="U33" s="888"/>
-      <c r="V33" s="888"/>
-      <c r="W33" s="888"/>
-      <c r="X33" s="888"/>
-      <c r="Y33" s="888"/>
-      <c r="Z33" s="888"/>
-      <c r="AA33" s="888"/>
-      <c r="AB33" s="888"/>
-      <c r="AC33" s="888"/>
-      <c r="AD33" s="888"/>
-      <c r="AE33" s="889"/>
-      <c r="AF33" s="890"/>
-      <c r="AG33" s="891"/>
-      <c r="AH33" s="891"/>
-      <c r="AI33" s="892"/>
+      <c r="B33" s="861"/>
+      <c r="C33" s="862"/>
+      <c r="D33" s="863"/>
+      <c r="E33" s="864"/>
+      <c r="F33" s="865"/>
+      <c r="G33" s="866"/>
+      <c r="H33" s="867"/>
+      <c r="I33" s="868"/>
+      <c r="J33" s="869"/>
+      <c r="K33" s="870"/>
+      <c r="L33" s="870"/>
+      <c r="M33" s="870"/>
+      <c r="N33" s="870"/>
+      <c r="O33" s="870"/>
+      <c r="P33" s="871"/>
+      <c r="Q33" s="872"/>
+      <c r="R33" s="873"/>
+      <c r="S33" s="873"/>
+      <c r="T33" s="873"/>
+      <c r="U33" s="873"/>
+      <c r="V33" s="873"/>
+      <c r="W33" s="873"/>
+      <c r="X33" s="873"/>
+      <c r="Y33" s="873"/>
+      <c r="Z33" s="873"/>
+      <c r="AA33" s="873"/>
+      <c r="AB33" s="873"/>
+      <c r="AC33" s="873"/>
+      <c r="AD33" s="873"/>
+      <c r="AE33" s="874"/>
+      <c r="AF33" s="869"/>
+      <c r="AG33" s="870"/>
+      <c r="AH33" s="870"/>
+      <c r="AI33" s="871"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -17556,6 +17398,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -22091,7 +22089,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"&amp;9- &amp;P -</oddFooter>
   </headerFooter>
@@ -22106,9 +22104,7 @@
   </sheetPr>
   <dimension ref="A1:T128"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A26" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1"/>
   <cols>
@@ -23610,33 +23606,33 @@
       <c r="R53" s="537"/>
     </row>
     <row r="54" spans="1:20" s="32" customFormat="1" ht="22.5">
-      <c r="A54" s="907" t="s">
+      <c r="A54" s="840" t="s">
         <v>139</v>
       </c>
-      <c r="B54" s="908" t="s">
+      <c r="B54" s="841" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="908" t="s">
+      <c r="C54" s="841" t="s">
         <v>35</v>
       </c>
-      <c r="D54" s="919" t="s">
+      <c r="D54" s="852" t="s">
         <v>267</v>
       </c>
-      <c r="E54" s="920" t="s">
+      <c r="E54" s="853" t="s">
         <v>268</v>
       </c>
       <c r="F54" s="332"/>
       <c r="G54" s="333"/>
-      <c r="H54" s="921" t="s">
+      <c r="H54" s="854" t="s">
         <v>36</v>
       </c>
-      <c r="I54" s="908" t="s">
+      <c r="I54" s="841" t="s">
         <v>37</v>
       </c>
-      <c r="J54" s="912" t="s">
+      <c r="J54" s="845" t="s">
         <v>498</v>
       </c>
-      <c r="K54" s="922" t="s">
+      <c r="K54" s="855" t="s">
         <v>397</v>
       </c>
       <c r="L54" s="837" t="s">
@@ -23645,9 +23641,9 @@
       <c r="M54" s="838">
         <v>1</v>
       </c>
-      <c r="N54" s="914"/>
-      <c r="O54" s="915"/>
-      <c r="P54" s="916"/>
+      <c r="N54" s="847"/>
+      <c r="O54" s="848"/>
+      <c r="P54" s="849"/>
       <c r="Q54" s="50"/>
       <c r="R54" s="331"/>
       <c r="S54" s="818" t="s">
@@ -24630,29 +24626,29 @@
       <c r="R80" s="543"/>
     </row>
     <row r="81" spans="1:20" s="32" customFormat="1" ht="22.5">
-      <c r="A81" s="907" t="s">
+      <c r="A81" s="840" t="s">
         <v>304</v>
       </c>
-      <c r="B81" s="908"/>
-      <c r="C81" s="909" t="s">
+      <c r="B81" s="841"/>
+      <c r="C81" s="842" t="s">
         <v>59</v>
       </c>
-      <c r="D81" s="910" t="s">
+      <c r="D81" s="843" t="s">
         <v>60</v>
       </c>
-      <c r="E81" s="911"/>
+      <c r="E81" s="844"/>
       <c r="F81" s="343"/>
       <c r="G81" s="344"/>
-      <c r="H81" s="909" t="s">
+      <c r="H81" s="842" t="s">
         <v>305</v>
       </c>
-      <c r="I81" s="909" t="s">
+      <c r="I81" s="842" t="s">
         <v>61</v>
       </c>
-      <c r="J81" s="912" t="s">
+      <c r="J81" s="845" t="s">
         <v>498</v>
       </c>
-      <c r="K81" s="913" t="s">
+      <c r="K81" s="846" t="s">
         <v>501</v>
       </c>
       <c r="L81" s="837" t="s">
@@ -24661,11 +24657,11 @@
       <c r="M81" s="838">
         <v>1</v>
       </c>
-      <c r="N81" s="914"/>
-      <c r="O81" s="915"/>
-      <c r="P81" s="916"/>
-      <c r="Q81" s="917"/>
-      <c r="R81" s="918"/>
+      <c r="N81" s="847"/>
+      <c r="O81" s="848"/>
+      <c r="P81" s="849"/>
+      <c r="Q81" s="850"/>
+      <c r="R81" s="851"/>
       <c r="S81" s="818" t="s">
         <v>1398</v>
       </c>
@@ -24803,28 +24799,28 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="85" spans="1:20" s="926" customFormat="1" ht="22.5">
-      <c r="A85" s="907" t="s">
+    <row r="85" spans="1:20" s="859" customFormat="1" ht="22.5">
+      <c r="A85" s="840" t="s">
         <v>310</v>
       </c>
-      <c r="B85" s="908"/>
-      <c r="C85" s="908"/>
-      <c r="D85" s="923" t="s">
+      <c r="B85" s="841"/>
+      <c r="C85" s="841"/>
+      <c r="D85" s="856" t="s">
         <v>64</v>
       </c>
-      <c r="E85" s="924"/>
+      <c r="E85" s="857"/>
       <c r="F85" s="343"/>
       <c r="G85" s="344"/>
-      <c r="H85" s="909" t="s">
+      <c r="H85" s="842" t="s">
         <v>305</v>
       </c>
-      <c r="I85" s="909" t="s">
+      <c r="I85" s="842" t="s">
         <v>61</v>
       </c>
-      <c r="J85" s="912" t="s">
+      <c r="J85" s="845" t="s">
         <v>498</v>
       </c>
-      <c r="K85" s="913" t="s">
+      <c r="K85" s="846" t="s">
         <v>500</v>
       </c>
       <c r="L85" s="837" t="s">
@@ -24833,40 +24829,40 @@
       <c r="M85" s="838">
         <v>1</v>
       </c>
-      <c r="N85" s="914"/>
-      <c r="O85" s="915"/>
-      <c r="P85" s="916"/>
-      <c r="Q85" s="917"/>
-      <c r="R85" s="918"/>
-      <c r="S85" s="925" t="s">
+      <c r="N85" s="847"/>
+      <c r="O85" s="848"/>
+      <c r="P85" s="849"/>
+      <c r="Q85" s="850"/>
+      <c r="R85" s="851"/>
+      <c r="S85" s="858" t="s">
         <v>1398</v>
       </c>
-      <c r="T85" s="925" t="s">
+      <c r="T85" s="858" t="s">
         <v>1417</v>
       </c>
     </row>
-    <row r="86" spans="1:20" s="926" customFormat="1" ht="22.5">
-      <c r="A86" s="907" t="s">
+    <row r="86" spans="1:20" s="859" customFormat="1" ht="22.5">
+      <c r="A86" s="840" t="s">
         <v>311</v>
       </c>
-      <c r="B86" s="908"/>
-      <c r="C86" s="908"/>
-      <c r="D86" s="923" t="s">
+      <c r="B86" s="841"/>
+      <c r="C86" s="841"/>
+      <c r="D86" s="856" t="s">
         <v>65</v>
       </c>
-      <c r="E86" s="924"/>
+      <c r="E86" s="857"/>
       <c r="F86" s="343"/>
       <c r="G86" s="344"/>
-      <c r="H86" s="909" t="s">
+      <c r="H86" s="842" t="s">
         <v>305</v>
       </c>
-      <c r="I86" s="909" t="s">
+      <c r="I86" s="842" t="s">
         <v>61</v>
       </c>
-      <c r="J86" s="912" t="s">
+      <c r="J86" s="845" t="s">
         <v>498</v>
       </c>
-      <c r="K86" s="913" t="s">
+      <c r="K86" s="846" t="s">
         <v>500</v>
       </c>
       <c r="L86" s="837" t="s">
@@ -24875,15 +24871,15 @@
       <c r="M86" s="838">
         <v>1</v>
       </c>
-      <c r="N86" s="914"/>
-      <c r="O86" s="915"/>
-      <c r="P86" s="916"/>
-      <c r="Q86" s="917"/>
-      <c r="R86" s="918"/>
-      <c r="S86" s="925" t="s">
+      <c r="N86" s="847"/>
+      <c r="O86" s="848"/>
+      <c r="P86" s="849"/>
+      <c r="Q86" s="850"/>
+      <c r="R86" s="851"/>
+      <c r="S86" s="858" t="s">
         <v>1398</v>
       </c>
-      <c r="T86" s="925" t="s">
+      <c r="T86" s="858" t="s">
         <v>1417</v>
       </c>
     </row>
@@ -25608,7 +25604,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"&amp;9- &amp;P -</oddFooter>
   </headerFooter>
@@ -25623,9 +25619,7 @@
   </sheetPr>
   <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1"/>
   <cols>
@@ -26868,10 +26862,10 @@
       </c>
       <c r="B37" s="682"/>
       <c r="C37" s="682"/>
-      <c r="D37" s="905" t="s">
+      <c r="D37" s="925" t="s">
         <v>361</v>
       </c>
-      <c r="E37" s="906"/>
+      <c r="E37" s="926"/>
       <c r="F37" s="100"/>
       <c r="G37" s="100"/>
       <c r="H37" s="583" t="s">
@@ -27162,7 +27156,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"&amp;9- &amp;P -</oddFooter>
   </headerFooter>
@@ -27175,9 +27169,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:P217"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -35611,6 +35603,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_取引単体(画面)_WA10202_プロジェクト照会.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_取引単体(画面)_WA10202_プロジェクト照会.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCFE050-79FC-475E-8046-888FB55C0258}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1242C28A-4B99-49B5-BBA4-F5998B22D0F3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="-120" windowWidth="27915" windowHeight="16440" tabRatio="575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" r:id="rId1"/>
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="650">
   <si>
     <t>更新者：</t>
     <rPh sb="0" eb="3">
@@ -3357,26 +3357,6 @@
   </si>
   <si>
     <t>4-1-2</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">「事業部」プルダウンを変更する。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>※2019年X月版では未実装</t>
-    </r>
-    <rPh sb="11" eb="13">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>プロジェクト検索画面表示に二重サブミット制御が不要のため</t>
@@ -5526,6 +5506,33 @@
   </si>
   <si>
     <t>シナリオID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">「事業部」プルダウンを変更する。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※2020年3月版では未実装</t>
+    </r>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金沢</t>
+    <rPh sb="0" eb="2">
+      <t>カナザワ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -9330,7 +9337,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="860">
+  <cellXfs count="863">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -11659,6 +11666,90 @@
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="21" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="23" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="22" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -11767,95 +11858,20 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="21" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="23" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="22" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="121" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="122" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -13324,57 +13340,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="800" t="s">
+      <c r="A1" s="828" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="801"/>
-      <c r="C1" s="801"/>
-      <c r="D1" s="802"/>
-      <c r="E1" s="803" t="s">
+      <c r="B1" s="829"/>
+      <c r="C1" s="829"/>
+      <c r="D1" s="830"/>
+      <c r="E1" s="831" t="s">
         <v>158</v>
       </c>
-      <c r="F1" s="804"/>
-      <c r="G1" s="804"/>
-      <c r="H1" s="804"/>
-      <c r="I1" s="804"/>
-      <c r="J1" s="804"/>
-      <c r="K1" s="804"/>
-      <c r="L1" s="804"/>
-      <c r="M1" s="804"/>
-      <c r="N1" s="805"/>
-      <c r="O1" s="809" t="s">
+      <c r="F1" s="832"/>
+      <c r="G1" s="832"/>
+      <c r="H1" s="832"/>
+      <c r="I1" s="832"/>
+      <c r="J1" s="832"/>
+      <c r="K1" s="832"/>
+      <c r="L1" s="832"/>
+      <c r="M1" s="832"/>
+      <c r="N1" s="833"/>
+      <c r="O1" s="837" t="s">
         <v>104</v>
       </c>
-      <c r="P1" s="810"/>
-      <c r="Q1" s="810"/>
-      <c r="R1" s="811"/>
-      <c r="S1" s="818" t="s">
+      <c r="P1" s="838"/>
+      <c r="Q1" s="838"/>
+      <c r="R1" s="839"/>
+      <c r="S1" s="846" t="s">
         <v>122</v>
       </c>
-      <c r="T1" s="819"/>
-      <c r="U1" s="819"/>
-      <c r="V1" s="819"/>
-      <c r="W1" s="819"/>
-      <c r="X1" s="819"/>
-      <c r="Y1" s="819"/>
-      <c r="Z1" s="820"/>
-      <c r="AA1" s="800" t="s">
+      <c r="T1" s="847"/>
+      <c r="U1" s="847"/>
+      <c r="V1" s="847"/>
+      <c r="W1" s="847"/>
+      <c r="X1" s="847"/>
+      <c r="Y1" s="847"/>
+      <c r="Z1" s="848"/>
+      <c r="AA1" s="828" t="s">
         <v>105</v>
       </c>
-      <c r="AB1" s="802"/>
-      <c r="AC1" s="827" t="str">
+      <c r="AB1" s="830"/>
+      <c r="AC1" s="855" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="828"/>
-      <c r="AE1" s="828"/>
-      <c r="AF1" s="829"/>
-      <c r="AG1" s="794">
+      <c r="AD1" s="856"/>
+      <c r="AE1" s="856"/>
+      <c r="AF1" s="857"/>
+      <c r="AG1" s="822">
         <f>IF(D8="","",D8)</f>
         <v>43808</v>
       </c>
-      <c r="AH1" s="795"/>
-      <c r="AI1" s="796"/>
+      <c r="AH1" s="823"/>
+      <c r="AI1" s="824"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -13382,53 +13398,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="800" t="s">
+      <c r="A2" s="828" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="801"/>
-      <c r="C2" s="801"/>
-      <c r="D2" s="802"/>
-      <c r="E2" s="803" t="s">
+      <c r="B2" s="829"/>
+      <c r="C2" s="829"/>
+      <c r="D2" s="830"/>
+      <c r="E2" s="831" t="s">
         <v>159</v>
       </c>
-      <c r="F2" s="804"/>
-      <c r="G2" s="804"/>
-      <c r="H2" s="804"/>
-      <c r="I2" s="804"/>
-      <c r="J2" s="804"/>
-      <c r="K2" s="804"/>
-      <c r="L2" s="804"/>
-      <c r="M2" s="804"/>
-      <c r="N2" s="805"/>
-      <c r="O2" s="812"/>
-      <c r="P2" s="813"/>
-      <c r="Q2" s="813"/>
-      <c r="R2" s="814"/>
-      <c r="S2" s="821"/>
-      <c r="T2" s="822"/>
-      <c r="U2" s="822"/>
-      <c r="V2" s="822"/>
-      <c r="W2" s="822"/>
-      <c r="X2" s="822"/>
-      <c r="Y2" s="822"/>
-      <c r="Z2" s="823"/>
-      <c r="AA2" s="800" t="s">
+      <c r="F2" s="832"/>
+      <c r="G2" s="832"/>
+      <c r="H2" s="832"/>
+      <c r="I2" s="832"/>
+      <c r="J2" s="832"/>
+      <c r="K2" s="832"/>
+      <c r="L2" s="832"/>
+      <c r="M2" s="832"/>
+      <c r="N2" s="833"/>
+      <c r="O2" s="840"/>
+      <c r="P2" s="841"/>
+      <c r="Q2" s="841"/>
+      <c r="R2" s="842"/>
+      <c r="S2" s="849"/>
+      <c r="T2" s="850"/>
+      <c r="U2" s="850"/>
+      <c r="V2" s="850"/>
+      <c r="W2" s="850"/>
+      <c r="X2" s="850"/>
+      <c r="Y2" s="850"/>
+      <c r="Z2" s="851"/>
+      <c r="AA2" s="828" t="s">
         <v>107</v>
       </c>
-      <c r="AB2" s="802"/>
-      <c r="AC2" s="806" t="str">
+      <c r="AB2" s="830"/>
+      <c r="AC2" s="834" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="807"/>
-      <c r="AE2" s="807"/>
-      <c r="AF2" s="808"/>
-      <c r="AG2" s="794">
+      <c r="AD2" s="835"/>
+      <c r="AE2" s="835"/>
+      <c r="AF2" s="836"/>
+      <c r="AG2" s="822">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>43896</v>
       </c>
-      <c r="AH2" s="795"/>
-      <c r="AI2" s="796"/>
+      <c r="AH2" s="823"/>
+      <c r="AI2" s="824"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -13436,45 +13452,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="800" t="s">
+      <c r="A3" s="828" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="801"/>
-      <c r="C3" s="801"/>
-      <c r="D3" s="802"/>
-      <c r="E3" s="803" t="s">
+      <c r="B3" s="829"/>
+      <c r="C3" s="829"/>
+      <c r="D3" s="830"/>
+      <c r="E3" s="831" t="s">
         <v>160</v>
       </c>
-      <c r="F3" s="804"/>
-      <c r="G3" s="804"/>
-      <c r="H3" s="804"/>
-      <c r="I3" s="804"/>
-      <c r="J3" s="804"/>
-      <c r="K3" s="804"/>
-      <c r="L3" s="804"/>
-      <c r="M3" s="804"/>
-      <c r="N3" s="805"/>
-      <c r="O3" s="815"/>
-      <c r="P3" s="816"/>
-      <c r="Q3" s="816"/>
-      <c r="R3" s="817"/>
-      <c r="S3" s="824"/>
-      <c r="T3" s="825"/>
-      <c r="U3" s="825"/>
-      <c r="V3" s="825"/>
-      <c r="W3" s="825"/>
-      <c r="X3" s="825"/>
-      <c r="Y3" s="825"/>
-      <c r="Z3" s="826"/>
-      <c r="AA3" s="800"/>
-      <c r="AB3" s="802"/>
-      <c r="AC3" s="827"/>
-      <c r="AD3" s="828"/>
-      <c r="AE3" s="828"/>
-      <c r="AF3" s="829"/>
-      <c r="AG3" s="794"/>
-      <c r="AH3" s="795"/>
-      <c r="AI3" s="796"/>
+      <c r="F3" s="832"/>
+      <c r="G3" s="832"/>
+      <c r="H3" s="832"/>
+      <c r="I3" s="832"/>
+      <c r="J3" s="832"/>
+      <c r="K3" s="832"/>
+      <c r="L3" s="832"/>
+      <c r="M3" s="832"/>
+      <c r="N3" s="833"/>
+      <c r="O3" s="843"/>
+      <c r="P3" s="844"/>
+      <c r="Q3" s="844"/>
+      <c r="R3" s="845"/>
+      <c r="S3" s="852"/>
+      <c r="T3" s="853"/>
+      <c r="U3" s="853"/>
+      <c r="V3" s="853"/>
+      <c r="W3" s="853"/>
+      <c r="X3" s="853"/>
+      <c r="Y3" s="853"/>
+      <c r="Z3" s="854"/>
+      <c r="AA3" s="828"/>
+      <c r="AB3" s="830"/>
+      <c r="AC3" s="855"/>
+      <c r="AD3" s="856"/>
+      <c r="AE3" s="856"/>
+      <c r="AF3" s="857"/>
+      <c r="AG3" s="822"/>
+      <c r="AH3" s="823"/>
+      <c r="AI3" s="824"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -13511,1204 +13527,1048 @@
       <c r="A7" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="797" t="s">
+      <c r="B7" s="825" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="798"/>
-      <c r="D7" s="797" t="s">
+      <c r="C7" s="826"/>
+      <c r="D7" s="825" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="799"/>
-      <c r="F7" s="798"/>
-      <c r="G7" s="797" t="s">
+      <c r="E7" s="827"/>
+      <c r="F7" s="826"/>
+      <c r="G7" s="825" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="799"/>
-      <c r="I7" s="798"/>
-      <c r="J7" s="797" t="s">
+      <c r="H7" s="827"/>
+      <c r="I7" s="826"/>
+      <c r="J7" s="825" t="s">
         <v>113</v>
       </c>
-      <c r="K7" s="799"/>
-      <c r="L7" s="799"/>
-      <c r="M7" s="799"/>
-      <c r="N7" s="799"/>
-      <c r="O7" s="799"/>
-      <c r="P7" s="798"/>
-      <c r="Q7" s="797" t="s">
+      <c r="K7" s="827"/>
+      <c r="L7" s="827"/>
+      <c r="M7" s="827"/>
+      <c r="N7" s="827"/>
+      <c r="O7" s="827"/>
+      <c r="P7" s="826"/>
+      <c r="Q7" s="825" t="s">
         <v>114</v>
       </c>
-      <c r="R7" s="799"/>
-      <c r="S7" s="799"/>
-      <c r="T7" s="799"/>
-      <c r="U7" s="799"/>
-      <c r="V7" s="799"/>
-      <c r="W7" s="799"/>
-      <c r="X7" s="799"/>
-      <c r="Y7" s="799"/>
-      <c r="Z7" s="799"/>
-      <c r="AA7" s="799"/>
-      <c r="AB7" s="799"/>
-      <c r="AC7" s="799"/>
-      <c r="AD7" s="799"/>
-      <c r="AE7" s="798"/>
-      <c r="AF7" s="797" t="s">
+      <c r="R7" s="827"/>
+      <c r="S7" s="827"/>
+      <c r="T7" s="827"/>
+      <c r="U7" s="827"/>
+      <c r="V7" s="827"/>
+      <c r="W7" s="827"/>
+      <c r="X7" s="827"/>
+      <c r="Y7" s="827"/>
+      <c r="Z7" s="827"/>
+      <c r="AA7" s="827"/>
+      <c r="AB7" s="827"/>
+      <c r="AC7" s="827"/>
+      <c r="AD7" s="827"/>
+      <c r="AE7" s="826"/>
+      <c r="AF7" s="825" t="s">
         <v>115</v>
       </c>
-      <c r="AG7" s="799"/>
-      <c r="AH7" s="799"/>
-      <c r="AI7" s="798"/>
-    </row>
-    <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="AG7" s="827"/>
+      <c r="AH7" s="827"/>
+      <c r="AI7" s="826"/>
+    </row>
+    <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="846" t="s">
+      <c r="B8" s="812" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="847"/>
-      <c r="D8" s="848">
+      <c r="C8" s="813"/>
+      <c r="D8" s="814">
         <v>43808</v>
       </c>
-      <c r="E8" s="849"/>
-      <c r="F8" s="850"/>
-      <c r="G8" s="851" t="s">
+      <c r="E8" s="815"/>
+      <c r="F8" s="816"/>
+      <c r="G8" s="817" t="s">
         <v>151</v>
       </c>
-      <c r="H8" s="852"/>
-      <c r="I8" s="847"/>
-      <c r="J8" s="837" t="s">
+      <c r="H8" s="818"/>
+      <c r="I8" s="813"/>
+      <c r="J8" s="809" t="s">
         <v>152</v>
       </c>
-      <c r="K8" s="838"/>
-      <c r="L8" s="838"/>
-      <c r="M8" s="838"/>
-      <c r="N8" s="838"/>
-      <c r="O8" s="838"/>
-      <c r="P8" s="839"/>
-      <c r="Q8" s="853" t="s">
+      <c r="K8" s="810"/>
+      <c r="L8" s="810"/>
+      <c r="M8" s="810"/>
+      <c r="N8" s="810"/>
+      <c r="O8" s="810"/>
+      <c r="P8" s="811"/>
+      <c r="Q8" s="819" t="s">
         <v>153</v>
       </c>
-      <c r="R8" s="854"/>
-      <c r="S8" s="854"/>
-      <c r="T8" s="854"/>
-      <c r="U8" s="854"/>
-      <c r="V8" s="854"/>
-      <c r="W8" s="854"/>
-      <c r="X8" s="854"/>
-      <c r="Y8" s="854"/>
-      <c r="Z8" s="854"/>
-      <c r="AA8" s="854"/>
-      <c r="AB8" s="854"/>
-      <c r="AC8" s="854"/>
-      <c r="AD8" s="854"/>
-      <c r="AE8" s="855"/>
-      <c r="AF8" s="837" t="s">
+      <c r="R8" s="820"/>
+      <c r="S8" s="820"/>
+      <c r="T8" s="820"/>
+      <c r="U8" s="820"/>
+      <c r="V8" s="820"/>
+      <c r="W8" s="820"/>
+      <c r="X8" s="820"/>
+      <c r="Y8" s="820"/>
+      <c r="Z8" s="820"/>
+      <c r="AA8" s="820"/>
+      <c r="AB8" s="820"/>
+      <c r="AC8" s="820"/>
+      <c r="AD8" s="820"/>
+      <c r="AE8" s="821"/>
+      <c r="AF8" s="809" t="s">
         <v>154</v>
       </c>
-      <c r="AG8" s="838"/>
-      <c r="AH8" s="838"/>
-      <c r="AI8" s="839"/>
-    </row>
-    <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
+      <c r="AG8" s="810"/>
+      <c r="AH8" s="810"/>
+      <c r="AI8" s="811"/>
+    </row>
+    <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22">
         <v>2</v>
       </c>
-      <c r="B9" s="830">
+      <c r="B9" s="794">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="831"/>
-      <c r="D9" s="832">
+      <c r="C9" s="795"/>
+      <c r="D9" s="796">
         <v>43896</v>
       </c>
-      <c r="E9" s="833"/>
-      <c r="F9" s="834"/>
-      <c r="G9" s="832" t="s">
-        <v>644</v>
-      </c>
-      <c r="H9" s="835"/>
-      <c r="I9" s="836"/>
-      <c r="J9" s="837" t="s">
+      <c r="E9" s="797"/>
+      <c r="F9" s="798"/>
+      <c r="G9" s="796" t="s">
+        <v>643</v>
+      </c>
+      <c r="H9" s="800"/>
+      <c r="I9" s="801"/>
+      <c r="J9" s="860" t="s">
+        <v>645</v>
+      </c>
+      <c r="K9" s="861"/>
+      <c r="L9" s="861"/>
+      <c r="M9" s="861"/>
+      <c r="N9" s="861"/>
+      <c r="O9" s="861"/>
+      <c r="P9" s="862"/>
+      <c r="Q9" s="805" t="s">
         <v>646</v>
       </c>
-      <c r="K9" s="838"/>
-      <c r="L9" s="838"/>
-      <c r="M9" s="838"/>
-      <c r="N9" s="838"/>
-      <c r="O9" s="838"/>
-      <c r="P9" s="839"/>
-      <c r="Q9" s="840" t="s">
-        <v>647</v>
-      </c>
-      <c r="R9" s="841"/>
-      <c r="S9" s="841"/>
-      <c r="T9" s="841"/>
-      <c r="U9" s="841"/>
-      <c r="V9" s="841"/>
-      <c r="W9" s="841"/>
-      <c r="X9" s="841"/>
-      <c r="Y9" s="841"/>
-      <c r="Z9" s="841"/>
-      <c r="AA9" s="841"/>
-      <c r="AB9" s="841"/>
-      <c r="AC9" s="841"/>
-      <c r="AD9" s="841"/>
-      <c r="AE9" s="842"/>
-      <c r="AF9" s="843" t="s">
+      <c r="R9" s="806"/>
+      <c r="S9" s="806"/>
+      <c r="T9" s="806"/>
+      <c r="U9" s="806"/>
+      <c r="V9" s="806"/>
+      <c r="W9" s="806"/>
+      <c r="X9" s="806"/>
+      <c r="Y9" s="806"/>
+      <c r="Z9" s="806"/>
+      <c r="AA9" s="806"/>
+      <c r="AB9" s="806"/>
+      <c r="AC9" s="806"/>
+      <c r="AD9" s="806"/>
+      <c r="AE9" s="807"/>
+      <c r="AF9" s="802" t="s">
         <v>154</v>
       </c>
-      <c r="AG9" s="844"/>
-      <c r="AH9" s="844"/>
-      <c r="AI9" s="845"/>
+      <c r="AG9" s="803"/>
+      <c r="AH9" s="803"/>
+      <c r="AI9" s="804"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="830"/>
-      <c r="C10" s="831"/>
-      <c r="D10" s="832"/>
-      <c r="E10" s="833"/>
-      <c r="F10" s="834"/>
-      <c r="G10" s="856"/>
-      <c r="H10" s="835"/>
-      <c r="I10" s="836"/>
-      <c r="J10" s="843"/>
-      <c r="K10" s="844"/>
-      <c r="L10" s="844"/>
-      <c r="M10" s="844"/>
-      <c r="N10" s="844"/>
-      <c r="O10" s="844"/>
-      <c r="P10" s="845"/>
-      <c r="Q10" s="840"/>
-      <c r="R10" s="841"/>
-      <c r="S10" s="841"/>
-      <c r="T10" s="841"/>
-      <c r="U10" s="841"/>
-      <c r="V10" s="841"/>
-      <c r="W10" s="841"/>
-      <c r="X10" s="841"/>
-      <c r="Y10" s="841"/>
-      <c r="Z10" s="841"/>
-      <c r="AA10" s="841"/>
-      <c r="AB10" s="841"/>
-      <c r="AC10" s="841"/>
-      <c r="AD10" s="841"/>
-      <c r="AE10" s="842"/>
-      <c r="AF10" s="843"/>
-      <c r="AG10" s="844"/>
-      <c r="AH10" s="844"/>
-      <c r="AI10" s="845"/>
+      <c r="B10" s="794"/>
+      <c r="C10" s="795"/>
+      <c r="D10" s="796"/>
+      <c r="E10" s="797"/>
+      <c r="F10" s="798"/>
+      <c r="G10" s="799"/>
+      <c r="H10" s="800"/>
+      <c r="I10" s="801"/>
+      <c r="J10" s="802"/>
+      <c r="K10" s="803"/>
+      <c r="L10" s="803"/>
+      <c r="M10" s="803"/>
+      <c r="N10" s="803"/>
+      <c r="O10" s="803"/>
+      <c r="P10" s="804"/>
+      <c r="Q10" s="805"/>
+      <c r="R10" s="806"/>
+      <c r="S10" s="806"/>
+      <c r="T10" s="806"/>
+      <c r="U10" s="806"/>
+      <c r="V10" s="806"/>
+      <c r="W10" s="806"/>
+      <c r="X10" s="806"/>
+      <c r="Y10" s="806"/>
+      <c r="Z10" s="806"/>
+      <c r="AA10" s="806"/>
+      <c r="AB10" s="806"/>
+      <c r="AC10" s="806"/>
+      <c r="AD10" s="806"/>
+      <c r="AE10" s="807"/>
+      <c r="AF10" s="802"/>
+      <c r="AG10" s="803"/>
+      <c r="AH10" s="803"/>
+      <c r="AI10" s="804"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="830"/>
-      <c r="C11" s="831"/>
-      <c r="D11" s="832"/>
-      <c r="E11" s="833"/>
-      <c r="F11" s="834"/>
-      <c r="G11" s="856"/>
-      <c r="H11" s="835"/>
-      <c r="I11" s="836"/>
-      <c r="J11" s="843"/>
-      <c r="K11" s="844"/>
-      <c r="L11" s="844"/>
-      <c r="M11" s="844"/>
-      <c r="N11" s="844"/>
-      <c r="O11" s="844"/>
-      <c r="P11" s="845"/>
-      <c r="Q11" s="840"/>
-      <c r="R11" s="841"/>
-      <c r="S11" s="841"/>
-      <c r="T11" s="841"/>
-      <c r="U11" s="841"/>
-      <c r="V11" s="841"/>
-      <c r="W11" s="841"/>
-      <c r="X11" s="841"/>
-      <c r="Y11" s="841"/>
-      <c r="Z11" s="841"/>
-      <c r="AA11" s="841"/>
-      <c r="AB11" s="841"/>
-      <c r="AC11" s="841"/>
-      <c r="AD11" s="841"/>
-      <c r="AE11" s="842"/>
-      <c r="AF11" s="843"/>
-      <c r="AG11" s="844"/>
-      <c r="AH11" s="844"/>
-      <c r="AI11" s="845"/>
+      <c r="B11" s="794"/>
+      <c r="C11" s="795"/>
+      <c r="D11" s="796"/>
+      <c r="E11" s="797"/>
+      <c r="F11" s="798"/>
+      <c r="G11" s="799"/>
+      <c r="H11" s="800"/>
+      <c r="I11" s="801"/>
+      <c r="J11" s="802"/>
+      <c r="K11" s="803"/>
+      <c r="L11" s="803"/>
+      <c r="M11" s="803"/>
+      <c r="N11" s="803"/>
+      <c r="O11" s="803"/>
+      <c r="P11" s="804"/>
+      <c r="Q11" s="805"/>
+      <c r="R11" s="806"/>
+      <c r="S11" s="806"/>
+      <c r="T11" s="806"/>
+      <c r="U11" s="806"/>
+      <c r="V11" s="806"/>
+      <c r="W11" s="806"/>
+      <c r="X11" s="806"/>
+      <c r="Y11" s="806"/>
+      <c r="Z11" s="806"/>
+      <c r="AA11" s="806"/>
+      <c r="AB11" s="806"/>
+      <c r="AC11" s="806"/>
+      <c r="AD11" s="806"/>
+      <c r="AE11" s="807"/>
+      <c r="AF11" s="802"/>
+      <c r="AG11" s="803"/>
+      <c r="AH11" s="803"/>
+      <c r="AI11" s="804"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="830"/>
-      <c r="C12" s="831"/>
-      <c r="D12" s="832"/>
-      <c r="E12" s="833"/>
-      <c r="F12" s="834"/>
-      <c r="G12" s="856"/>
-      <c r="H12" s="835"/>
-      <c r="I12" s="836"/>
-      <c r="J12" s="843"/>
-      <c r="K12" s="844"/>
-      <c r="L12" s="844"/>
-      <c r="M12" s="844"/>
-      <c r="N12" s="844"/>
-      <c r="O12" s="844"/>
-      <c r="P12" s="845"/>
-      <c r="Q12" s="840"/>
-      <c r="R12" s="841"/>
-      <c r="S12" s="841"/>
-      <c r="T12" s="841"/>
-      <c r="U12" s="841"/>
-      <c r="V12" s="841"/>
-      <c r="W12" s="841"/>
-      <c r="X12" s="841"/>
-      <c r="Y12" s="841"/>
-      <c r="Z12" s="841"/>
-      <c r="AA12" s="841"/>
-      <c r="AB12" s="841"/>
-      <c r="AC12" s="841"/>
-      <c r="AD12" s="841"/>
-      <c r="AE12" s="842"/>
-      <c r="AF12" s="843"/>
-      <c r="AG12" s="844"/>
-      <c r="AH12" s="844"/>
-      <c r="AI12" s="845"/>
+      <c r="B12" s="794"/>
+      <c r="C12" s="795"/>
+      <c r="D12" s="796"/>
+      <c r="E12" s="797"/>
+      <c r="F12" s="798"/>
+      <c r="G12" s="799"/>
+      <c r="H12" s="800"/>
+      <c r="I12" s="801"/>
+      <c r="J12" s="802"/>
+      <c r="K12" s="803"/>
+      <c r="L12" s="803"/>
+      <c r="M12" s="803"/>
+      <c r="N12" s="803"/>
+      <c r="O12" s="803"/>
+      <c r="P12" s="804"/>
+      <c r="Q12" s="805"/>
+      <c r="R12" s="806"/>
+      <c r="S12" s="806"/>
+      <c r="T12" s="806"/>
+      <c r="U12" s="806"/>
+      <c r="V12" s="806"/>
+      <c r="W12" s="806"/>
+      <c r="X12" s="806"/>
+      <c r="Y12" s="806"/>
+      <c r="Z12" s="806"/>
+      <c r="AA12" s="806"/>
+      <c r="AB12" s="806"/>
+      <c r="AC12" s="806"/>
+      <c r="AD12" s="806"/>
+      <c r="AE12" s="807"/>
+      <c r="AF12" s="802"/>
+      <c r="AG12" s="803"/>
+      <c r="AH12" s="803"/>
+      <c r="AI12" s="804"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="830"/>
-      <c r="C13" s="831"/>
-      <c r="D13" s="832"/>
-      <c r="E13" s="833"/>
-      <c r="F13" s="834"/>
-      <c r="G13" s="856"/>
-      <c r="H13" s="835"/>
-      <c r="I13" s="836"/>
-      <c r="J13" s="843"/>
-      <c r="K13" s="844"/>
-      <c r="L13" s="844"/>
-      <c r="M13" s="844"/>
-      <c r="N13" s="844"/>
-      <c r="O13" s="844"/>
-      <c r="P13" s="845"/>
-      <c r="Q13" s="840"/>
-      <c r="R13" s="841"/>
-      <c r="S13" s="841"/>
-      <c r="T13" s="841"/>
-      <c r="U13" s="841"/>
-      <c r="V13" s="841"/>
-      <c r="W13" s="841"/>
-      <c r="X13" s="841"/>
-      <c r="Y13" s="841"/>
-      <c r="Z13" s="841"/>
-      <c r="AA13" s="841"/>
-      <c r="AB13" s="841"/>
-      <c r="AC13" s="841"/>
-      <c r="AD13" s="841"/>
-      <c r="AE13" s="842"/>
-      <c r="AF13" s="843"/>
-      <c r="AG13" s="844"/>
-      <c r="AH13" s="844"/>
-      <c r="AI13" s="845"/>
+      <c r="B13" s="794"/>
+      <c r="C13" s="795"/>
+      <c r="D13" s="796"/>
+      <c r="E13" s="797"/>
+      <c r="F13" s="798"/>
+      <c r="G13" s="799"/>
+      <c r="H13" s="800"/>
+      <c r="I13" s="801"/>
+      <c r="J13" s="802"/>
+      <c r="K13" s="803"/>
+      <c r="L13" s="803"/>
+      <c r="M13" s="803"/>
+      <c r="N13" s="803"/>
+      <c r="O13" s="803"/>
+      <c r="P13" s="804"/>
+      <c r="Q13" s="805"/>
+      <c r="R13" s="806"/>
+      <c r="S13" s="806"/>
+      <c r="T13" s="806"/>
+      <c r="U13" s="806"/>
+      <c r="V13" s="806"/>
+      <c r="W13" s="806"/>
+      <c r="X13" s="806"/>
+      <c r="Y13" s="806"/>
+      <c r="Z13" s="806"/>
+      <c r="AA13" s="806"/>
+      <c r="AB13" s="806"/>
+      <c r="AC13" s="806"/>
+      <c r="AD13" s="806"/>
+      <c r="AE13" s="807"/>
+      <c r="AF13" s="802"/>
+      <c r="AG13" s="803"/>
+      <c r="AH13" s="803"/>
+      <c r="AI13" s="804"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="830"/>
-      <c r="C14" s="831"/>
-      <c r="D14" s="832"/>
-      <c r="E14" s="833"/>
-      <c r="F14" s="834"/>
-      <c r="G14" s="856"/>
-      <c r="H14" s="835"/>
-      <c r="I14" s="836"/>
-      <c r="J14" s="843"/>
-      <c r="K14" s="844"/>
-      <c r="L14" s="844"/>
-      <c r="M14" s="844"/>
-      <c r="N14" s="844"/>
-      <c r="O14" s="844"/>
-      <c r="P14" s="845"/>
-      <c r="Q14" s="840"/>
-      <c r="R14" s="841"/>
-      <c r="S14" s="841"/>
-      <c r="T14" s="841"/>
-      <c r="U14" s="841"/>
-      <c r="V14" s="841"/>
-      <c r="W14" s="841"/>
-      <c r="X14" s="841"/>
-      <c r="Y14" s="841"/>
-      <c r="Z14" s="841"/>
-      <c r="AA14" s="841"/>
-      <c r="AB14" s="841"/>
-      <c r="AC14" s="841"/>
-      <c r="AD14" s="841"/>
-      <c r="AE14" s="842"/>
-      <c r="AF14" s="843"/>
-      <c r="AG14" s="844"/>
-      <c r="AH14" s="844"/>
-      <c r="AI14" s="845"/>
+      <c r="B14" s="794"/>
+      <c r="C14" s="795"/>
+      <c r="D14" s="796"/>
+      <c r="E14" s="797"/>
+      <c r="F14" s="798"/>
+      <c r="G14" s="799"/>
+      <c r="H14" s="800"/>
+      <c r="I14" s="801"/>
+      <c r="J14" s="802"/>
+      <c r="K14" s="803"/>
+      <c r="L14" s="803"/>
+      <c r="M14" s="803"/>
+      <c r="N14" s="803"/>
+      <c r="O14" s="803"/>
+      <c r="P14" s="804"/>
+      <c r="Q14" s="805"/>
+      <c r="R14" s="806"/>
+      <c r="S14" s="806"/>
+      <c r="T14" s="806"/>
+      <c r="U14" s="806"/>
+      <c r="V14" s="806"/>
+      <c r="W14" s="806"/>
+      <c r="X14" s="806"/>
+      <c r="Y14" s="806"/>
+      <c r="Z14" s="806"/>
+      <c r="AA14" s="806"/>
+      <c r="AB14" s="806"/>
+      <c r="AC14" s="806"/>
+      <c r="AD14" s="806"/>
+      <c r="AE14" s="807"/>
+      <c r="AF14" s="802"/>
+      <c r="AG14" s="803"/>
+      <c r="AH14" s="803"/>
+      <c r="AI14" s="804"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="830"/>
-      <c r="C15" s="831"/>
-      <c r="D15" s="832"/>
-      <c r="E15" s="833"/>
-      <c r="F15" s="834"/>
-      <c r="G15" s="856"/>
-      <c r="H15" s="835"/>
-      <c r="I15" s="836"/>
-      <c r="J15" s="843"/>
-      <c r="K15" s="844"/>
-      <c r="L15" s="844"/>
-      <c r="M15" s="844"/>
-      <c r="N15" s="844"/>
-      <c r="O15" s="844"/>
-      <c r="P15" s="845"/>
-      <c r="Q15" s="840"/>
-      <c r="R15" s="841"/>
-      <c r="S15" s="841"/>
-      <c r="T15" s="841"/>
-      <c r="U15" s="841"/>
-      <c r="V15" s="841"/>
-      <c r="W15" s="841"/>
-      <c r="X15" s="841"/>
-      <c r="Y15" s="841"/>
-      <c r="Z15" s="841"/>
-      <c r="AA15" s="841"/>
-      <c r="AB15" s="841"/>
-      <c r="AC15" s="841"/>
-      <c r="AD15" s="841"/>
-      <c r="AE15" s="842"/>
-      <c r="AF15" s="843"/>
-      <c r="AG15" s="844"/>
-      <c r="AH15" s="844"/>
-      <c r="AI15" s="845"/>
+      <c r="B15" s="794"/>
+      <c r="C15" s="795"/>
+      <c r="D15" s="796"/>
+      <c r="E15" s="797"/>
+      <c r="F15" s="798"/>
+      <c r="G15" s="799"/>
+      <c r="H15" s="800"/>
+      <c r="I15" s="801"/>
+      <c r="J15" s="802"/>
+      <c r="K15" s="803"/>
+      <c r="L15" s="803"/>
+      <c r="M15" s="803"/>
+      <c r="N15" s="803"/>
+      <c r="O15" s="803"/>
+      <c r="P15" s="804"/>
+      <c r="Q15" s="805"/>
+      <c r="R15" s="806"/>
+      <c r="S15" s="806"/>
+      <c r="T15" s="806"/>
+      <c r="U15" s="806"/>
+      <c r="V15" s="806"/>
+      <c r="W15" s="806"/>
+      <c r="X15" s="806"/>
+      <c r="Y15" s="806"/>
+      <c r="Z15" s="806"/>
+      <c r="AA15" s="806"/>
+      <c r="AB15" s="806"/>
+      <c r="AC15" s="806"/>
+      <c r="AD15" s="806"/>
+      <c r="AE15" s="807"/>
+      <c r="AF15" s="802"/>
+      <c r="AG15" s="803"/>
+      <c r="AH15" s="803"/>
+      <c r="AI15" s="804"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="830"/>
-      <c r="C16" s="831"/>
-      <c r="D16" s="832"/>
-      <c r="E16" s="833"/>
-      <c r="F16" s="834"/>
-      <c r="G16" s="856"/>
-      <c r="H16" s="835"/>
-      <c r="I16" s="836"/>
-      <c r="J16" s="843"/>
-      <c r="K16" s="844"/>
-      <c r="L16" s="844"/>
-      <c r="M16" s="844"/>
-      <c r="N16" s="844"/>
-      <c r="O16" s="844"/>
-      <c r="P16" s="845"/>
-      <c r="Q16" s="840"/>
-      <c r="R16" s="841"/>
-      <c r="S16" s="841"/>
-      <c r="T16" s="841"/>
-      <c r="U16" s="841"/>
-      <c r="V16" s="841"/>
-      <c r="W16" s="841"/>
-      <c r="X16" s="841"/>
-      <c r="Y16" s="841"/>
-      <c r="Z16" s="841"/>
-      <c r="AA16" s="841"/>
-      <c r="AB16" s="841"/>
-      <c r="AC16" s="841"/>
-      <c r="AD16" s="841"/>
-      <c r="AE16" s="842"/>
-      <c r="AF16" s="843"/>
-      <c r="AG16" s="844"/>
-      <c r="AH16" s="844"/>
-      <c r="AI16" s="845"/>
+      <c r="B16" s="794"/>
+      <c r="C16" s="795"/>
+      <c r="D16" s="796"/>
+      <c r="E16" s="797"/>
+      <c r="F16" s="798"/>
+      <c r="G16" s="799"/>
+      <c r="H16" s="800"/>
+      <c r="I16" s="801"/>
+      <c r="J16" s="802"/>
+      <c r="K16" s="803"/>
+      <c r="L16" s="803"/>
+      <c r="M16" s="803"/>
+      <c r="N16" s="803"/>
+      <c r="O16" s="803"/>
+      <c r="P16" s="804"/>
+      <c r="Q16" s="805"/>
+      <c r="R16" s="806"/>
+      <c r="S16" s="806"/>
+      <c r="T16" s="806"/>
+      <c r="U16" s="806"/>
+      <c r="V16" s="806"/>
+      <c r="W16" s="806"/>
+      <c r="X16" s="806"/>
+      <c r="Y16" s="806"/>
+      <c r="Z16" s="806"/>
+      <c r="AA16" s="806"/>
+      <c r="AB16" s="806"/>
+      <c r="AC16" s="806"/>
+      <c r="AD16" s="806"/>
+      <c r="AE16" s="807"/>
+      <c r="AF16" s="802"/>
+      <c r="AG16" s="803"/>
+      <c r="AH16" s="803"/>
+      <c r="AI16" s="804"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="830"/>
-      <c r="C17" s="831"/>
-      <c r="D17" s="832"/>
-      <c r="E17" s="833"/>
-      <c r="F17" s="834"/>
-      <c r="G17" s="856"/>
-      <c r="H17" s="835"/>
-      <c r="I17" s="836"/>
-      <c r="J17" s="843"/>
-      <c r="K17" s="844"/>
-      <c r="L17" s="844"/>
-      <c r="M17" s="844"/>
-      <c r="N17" s="844"/>
-      <c r="O17" s="844"/>
-      <c r="P17" s="845"/>
-      <c r="Q17" s="840"/>
-      <c r="R17" s="841"/>
-      <c r="S17" s="841"/>
-      <c r="T17" s="841"/>
-      <c r="U17" s="841"/>
-      <c r="V17" s="841"/>
-      <c r="W17" s="841"/>
-      <c r="X17" s="841"/>
-      <c r="Y17" s="841"/>
-      <c r="Z17" s="841"/>
-      <c r="AA17" s="841"/>
-      <c r="AB17" s="841"/>
-      <c r="AC17" s="841"/>
-      <c r="AD17" s="841"/>
-      <c r="AE17" s="842"/>
-      <c r="AF17" s="843"/>
-      <c r="AG17" s="844"/>
-      <c r="AH17" s="844"/>
-      <c r="AI17" s="845"/>
+      <c r="B17" s="794"/>
+      <c r="C17" s="795"/>
+      <c r="D17" s="796"/>
+      <c r="E17" s="797"/>
+      <c r="F17" s="798"/>
+      <c r="G17" s="799"/>
+      <c r="H17" s="800"/>
+      <c r="I17" s="801"/>
+      <c r="J17" s="802"/>
+      <c r="K17" s="803"/>
+      <c r="L17" s="803"/>
+      <c r="M17" s="803"/>
+      <c r="N17" s="803"/>
+      <c r="O17" s="803"/>
+      <c r="P17" s="804"/>
+      <c r="Q17" s="805"/>
+      <c r="R17" s="806"/>
+      <c r="S17" s="806"/>
+      <c r="T17" s="806"/>
+      <c r="U17" s="806"/>
+      <c r="V17" s="806"/>
+      <c r="W17" s="806"/>
+      <c r="X17" s="806"/>
+      <c r="Y17" s="806"/>
+      <c r="Z17" s="806"/>
+      <c r="AA17" s="806"/>
+      <c r="AB17" s="806"/>
+      <c r="AC17" s="806"/>
+      <c r="AD17" s="806"/>
+      <c r="AE17" s="807"/>
+      <c r="AF17" s="802"/>
+      <c r="AG17" s="803"/>
+      <c r="AH17" s="803"/>
+      <c r="AI17" s="804"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="830"/>
-      <c r="C18" s="831"/>
-      <c r="D18" s="832"/>
-      <c r="E18" s="833"/>
-      <c r="F18" s="834"/>
-      <c r="G18" s="856"/>
-      <c r="H18" s="835"/>
-      <c r="I18" s="836"/>
-      <c r="J18" s="843"/>
-      <c r="K18" s="844"/>
-      <c r="L18" s="844"/>
-      <c r="M18" s="844"/>
-      <c r="N18" s="844"/>
-      <c r="O18" s="844"/>
-      <c r="P18" s="845"/>
-      <c r="Q18" s="840"/>
-      <c r="R18" s="841"/>
-      <c r="S18" s="841"/>
-      <c r="T18" s="841"/>
-      <c r="U18" s="841"/>
-      <c r="V18" s="841"/>
-      <c r="W18" s="841"/>
-      <c r="X18" s="841"/>
-      <c r="Y18" s="841"/>
-      <c r="Z18" s="841"/>
-      <c r="AA18" s="841"/>
-      <c r="AB18" s="841"/>
-      <c r="AC18" s="841"/>
-      <c r="AD18" s="841"/>
-      <c r="AE18" s="842"/>
-      <c r="AF18" s="843"/>
-      <c r="AG18" s="844"/>
-      <c r="AH18" s="844"/>
-      <c r="AI18" s="845"/>
+      <c r="B18" s="794"/>
+      <c r="C18" s="795"/>
+      <c r="D18" s="796"/>
+      <c r="E18" s="797"/>
+      <c r="F18" s="798"/>
+      <c r="G18" s="799"/>
+      <c r="H18" s="800"/>
+      <c r="I18" s="801"/>
+      <c r="J18" s="802"/>
+      <c r="K18" s="803"/>
+      <c r="L18" s="803"/>
+      <c r="M18" s="803"/>
+      <c r="N18" s="803"/>
+      <c r="O18" s="803"/>
+      <c r="P18" s="804"/>
+      <c r="Q18" s="805"/>
+      <c r="R18" s="806"/>
+      <c r="S18" s="806"/>
+      <c r="T18" s="806"/>
+      <c r="U18" s="806"/>
+      <c r="V18" s="806"/>
+      <c r="W18" s="806"/>
+      <c r="X18" s="806"/>
+      <c r="Y18" s="806"/>
+      <c r="Z18" s="806"/>
+      <c r="AA18" s="806"/>
+      <c r="AB18" s="806"/>
+      <c r="AC18" s="806"/>
+      <c r="AD18" s="806"/>
+      <c r="AE18" s="807"/>
+      <c r="AF18" s="802"/>
+      <c r="AG18" s="803"/>
+      <c r="AH18" s="803"/>
+      <c r="AI18" s="804"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="830"/>
-      <c r="C19" s="831"/>
-      <c r="D19" s="832"/>
-      <c r="E19" s="833"/>
-      <c r="F19" s="834"/>
-      <c r="G19" s="856"/>
-      <c r="H19" s="835"/>
-      <c r="I19" s="836"/>
-      <c r="J19" s="843"/>
-      <c r="K19" s="844"/>
-      <c r="L19" s="844"/>
-      <c r="M19" s="844"/>
-      <c r="N19" s="844"/>
-      <c r="O19" s="844"/>
-      <c r="P19" s="845"/>
-      <c r="Q19" s="840"/>
-      <c r="R19" s="841"/>
-      <c r="S19" s="841"/>
-      <c r="T19" s="841"/>
-      <c r="U19" s="841"/>
-      <c r="V19" s="841"/>
-      <c r="W19" s="841"/>
-      <c r="X19" s="841"/>
-      <c r="Y19" s="841"/>
-      <c r="Z19" s="841"/>
-      <c r="AA19" s="841"/>
-      <c r="AB19" s="841"/>
-      <c r="AC19" s="841"/>
-      <c r="AD19" s="841"/>
-      <c r="AE19" s="842"/>
-      <c r="AF19" s="843"/>
-      <c r="AG19" s="844"/>
-      <c r="AH19" s="844"/>
-      <c r="AI19" s="845"/>
+      <c r="B19" s="794"/>
+      <c r="C19" s="795"/>
+      <c r="D19" s="796"/>
+      <c r="E19" s="797"/>
+      <c r="F19" s="798"/>
+      <c r="G19" s="799"/>
+      <c r="H19" s="800"/>
+      <c r="I19" s="801"/>
+      <c r="J19" s="802"/>
+      <c r="K19" s="803"/>
+      <c r="L19" s="803"/>
+      <c r="M19" s="803"/>
+      <c r="N19" s="803"/>
+      <c r="O19" s="803"/>
+      <c r="P19" s="804"/>
+      <c r="Q19" s="805"/>
+      <c r="R19" s="806"/>
+      <c r="S19" s="806"/>
+      <c r="T19" s="806"/>
+      <c r="U19" s="806"/>
+      <c r="V19" s="806"/>
+      <c r="W19" s="806"/>
+      <c r="X19" s="806"/>
+      <c r="Y19" s="806"/>
+      <c r="Z19" s="806"/>
+      <c r="AA19" s="806"/>
+      <c r="AB19" s="806"/>
+      <c r="AC19" s="806"/>
+      <c r="AD19" s="806"/>
+      <c r="AE19" s="807"/>
+      <c r="AF19" s="802"/>
+      <c r="AG19" s="803"/>
+      <c r="AH19" s="803"/>
+      <c r="AI19" s="804"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="830"/>
-      <c r="C20" s="831"/>
-      <c r="D20" s="832"/>
-      <c r="E20" s="833"/>
-      <c r="F20" s="834"/>
-      <c r="G20" s="856"/>
-      <c r="H20" s="835"/>
-      <c r="I20" s="836"/>
-      <c r="J20" s="843"/>
-      <c r="K20" s="844"/>
-      <c r="L20" s="844"/>
-      <c r="M20" s="844"/>
-      <c r="N20" s="844"/>
-      <c r="O20" s="844"/>
-      <c r="P20" s="845"/>
-      <c r="Q20" s="840"/>
-      <c r="R20" s="841"/>
-      <c r="S20" s="841"/>
-      <c r="T20" s="841"/>
-      <c r="U20" s="841"/>
-      <c r="V20" s="841"/>
-      <c r="W20" s="841"/>
-      <c r="X20" s="841"/>
-      <c r="Y20" s="841"/>
-      <c r="Z20" s="841"/>
-      <c r="AA20" s="841"/>
-      <c r="AB20" s="841"/>
-      <c r="AC20" s="841"/>
-      <c r="AD20" s="841"/>
-      <c r="AE20" s="842"/>
-      <c r="AF20" s="843"/>
-      <c r="AG20" s="844"/>
-      <c r="AH20" s="844"/>
-      <c r="AI20" s="845"/>
+      <c r="B20" s="794"/>
+      <c r="C20" s="795"/>
+      <c r="D20" s="796"/>
+      <c r="E20" s="797"/>
+      <c r="F20" s="798"/>
+      <c r="G20" s="799"/>
+      <c r="H20" s="800"/>
+      <c r="I20" s="801"/>
+      <c r="J20" s="802"/>
+      <c r="K20" s="803"/>
+      <c r="L20" s="803"/>
+      <c r="M20" s="803"/>
+      <c r="N20" s="803"/>
+      <c r="O20" s="803"/>
+      <c r="P20" s="804"/>
+      <c r="Q20" s="805"/>
+      <c r="R20" s="806"/>
+      <c r="S20" s="806"/>
+      <c r="T20" s="806"/>
+      <c r="U20" s="806"/>
+      <c r="V20" s="806"/>
+      <c r="W20" s="806"/>
+      <c r="X20" s="806"/>
+      <c r="Y20" s="806"/>
+      <c r="Z20" s="806"/>
+      <c r="AA20" s="806"/>
+      <c r="AB20" s="806"/>
+      <c r="AC20" s="806"/>
+      <c r="AD20" s="806"/>
+      <c r="AE20" s="807"/>
+      <c r="AF20" s="802"/>
+      <c r="AG20" s="803"/>
+      <c r="AH20" s="803"/>
+      <c r="AI20" s="804"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="830"/>
-      <c r="C21" s="831"/>
-      <c r="D21" s="832"/>
-      <c r="E21" s="833"/>
-      <c r="F21" s="834"/>
-      <c r="G21" s="856"/>
-      <c r="H21" s="835"/>
-      <c r="I21" s="836"/>
-      <c r="J21" s="843"/>
-      <c r="K21" s="844"/>
-      <c r="L21" s="844"/>
-      <c r="M21" s="844"/>
-      <c r="N21" s="844"/>
-      <c r="O21" s="844"/>
-      <c r="P21" s="845"/>
-      <c r="Q21" s="840"/>
-      <c r="R21" s="841"/>
-      <c r="S21" s="841"/>
-      <c r="T21" s="841"/>
-      <c r="U21" s="841"/>
-      <c r="V21" s="841"/>
-      <c r="W21" s="841"/>
-      <c r="X21" s="841"/>
-      <c r="Y21" s="841"/>
-      <c r="Z21" s="841"/>
-      <c r="AA21" s="841"/>
-      <c r="AB21" s="841"/>
-      <c r="AC21" s="841"/>
-      <c r="AD21" s="841"/>
-      <c r="AE21" s="842"/>
-      <c r="AF21" s="843"/>
-      <c r="AG21" s="844"/>
-      <c r="AH21" s="844"/>
-      <c r="AI21" s="845"/>
+      <c r="B21" s="794"/>
+      <c r="C21" s="795"/>
+      <c r="D21" s="796"/>
+      <c r="E21" s="797"/>
+      <c r="F21" s="798"/>
+      <c r="G21" s="799"/>
+      <c r="H21" s="800"/>
+      <c r="I21" s="801"/>
+      <c r="J21" s="802"/>
+      <c r="K21" s="803"/>
+      <c r="L21" s="803"/>
+      <c r="M21" s="803"/>
+      <c r="N21" s="803"/>
+      <c r="O21" s="803"/>
+      <c r="P21" s="804"/>
+      <c r="Q21" s="805"/>
+      <c r="R21" s="806"/>
+      <c r="S21" s="806"/>
+      <c r="T21" s="806"/>
+      <c r="U21" s="806"/>
+      <c r="V21" s="806"/>
+      <c r="W21" s="806"/>
+      <c r="X21" s="806"/>
+      <c r="Y21" s="806"/>
+      <c r="Z21" s="806"/>
+      <c r="AA21" s="806"/>
+      <c r="AB21" s="806"/>
+      <c r="AC21" s="806"/>
+      <c r="AD21" s="806"/>
+      <c r="AE21" s="807"/>
+      <c r="AF21" s="802"/>
+      <c r="AG21" s="803"/>
+      <c r="AH21" s="803"/>
+      <c r="AI21" s="804"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="830"/>
-      <c r="C22" s="831"/>
-      <c r="D22" s="832"/>
-      <c r="E22" s="833"/>
-      <c r="F22" s="834"/>
-      <c r="G22" s="856"/>
-      <c r="H22" s="835"/>
-      <c r="I22" s="836"/>
-      <c r="J22" s="843"/>
-      <c r="K22" s="844"/>
-      <c r="L22" s="844"/>
-      <c r="M22" s="844"/>
-      <c r="N22" s="844"/>
-      <c r="O22" s="844"/>
-      <c r="P22" s="845"/>
-      <c r="Q22" s="840"/>
-      <c r="R22" s="841"/>
-      <c r="S22" s="841"/>
-      <c r="T22" s="841"/>
-      <c r="U22" s="841"/>
-      <c r="V22" s="841"/>
-      <c r="W22" s="841"/>
-      <c r="X22" s="841"/>
-      <c r="Y22" s="841"/>
-      <c r="Z22" s="841"/>
-      <c r="AA22" s="841"/>
-      <c r="AB22" s="841"/>
-      <c r="AC22" s="841"/>
-      <c r="AD22" s="841"/>
-      <c r="AE22" s="842"/>
-      <c r="AF22" s="843"/>
-      <c r="AG22" s="844"/>
-      <c r="AH22" s="844"/>
-      <c r="AI22" s="845"/>
+      <c r="B22" s="794"/>
+      <c r="C22" s="795"/>
+      <c r="D22" s="796"/>
+      <c r="E22" s="797"/>
+      <c r="F22" s="798"/>
+      <c r="G22" s="799"/>
+      <c r="H22" s="800"/>
+      <c r="I22" s="801"/>
+      <c r="J22" s="802"/>
+      <c r="K22" s="803"/>
+      <c r="L22" s="803"/>
+      <c r="M22" s="803"/>
+      <c r="N22" s="803"/>
+      <c r="O22" s="803"/>
+      <c r="P22" s="804"/>
+      <c r="Q22" s="805"/>
+      <c r="R22" s="806"/>
+      <c r="S22" s="806"/>
+      <c r="T22" s="806"/>
+      <c r="U22" s="806"/>
+      <c r="V22" s="806"/>
+      <c r="W22" s="806"/>
+      <c r="X22" s="806"/>
+      <c r="Y22" s="806"/>
+      <c r="Z22" s="806"/>
+      <c r="AA22" s="806"/>
+      <c r="AB22" s="806"/>
+      <c r="AC22" s="806"/>
+      <c r="AD22" s="806"/>
+      <c r="AE22" s="807"/>
+      <c r="AF22" s="802"/>
+      <c r="AG22" s="803"/>
+      <c r="AH22" s="803"/>
+      <c r="AI22" s="804"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="830"/>
-      <c r="C23" s="831"/>
-      <c r="D23" s="832"/>
-      <c r="E23" s="833"/>
-      <c r="F23" s="834"/>
-      <c r="G23" s="856"/>
-      <c r="H23" s="835"/>
-      <c r="I23" s="836"/>
-      <c r="J23" s="843"/>
-      <c r="K23" s="844"/>
-      <c r="L23" s="844"/>
-      <c r="M23" s="844"/>
-      <c r="N23" s="844"/>
-      <c r="O23" s="844"/>
-      <c r="P23" s="845"/>
-      <c r="Q23" s="840"/>
-      <c r="R23" s="841"/>
-      <c r="S23" s="841"/>
-      <c r="T23" s="841"/>
-      <c r="U23" s="841"/>
-      <c r="V23" s="841"/>
-      <c r="W23" s="841"/>
-      <c r="X23" s="841"/>
-      <c r="Y23" s="841"/>
-      <c r="Z23" s="841"/>
-      <c r="AA23" s="841"/>
-      <c r="AB23" s="841"/>
-      <c r="AC23" s="841"/>
-      <c r="AD23" s="841"/>
-      <c r="AE23" s="842"/>
-      <c r="AF23" s="843"/>
-      <c r="AG23" s="844"/>
-      <c r="AH23" s="844"/>
-      <c r="AI23" s="845"/>
+      <c r="B23" s="794"/>
+      <c r="C23" s="795"/>
+      <c r="D23" s="796"/>
+      <c r="E23" s="797"/>
+      <c r="F23" s="798"/>
+      <c r="G23" s="799"/>
+      <c r="H23" s="800"/>
+      <c r="I23" s="801"/>
+      <c r="J23" s="802"/>
+      <c r="K23" s="803"/>
+      <c r="L23" s="803"/>
+      <c r="M23" s="803"/>
+      <c r="N23" s="803"/>
+      <c r="O23" s="803"/>
+      <c r="P23" s="804"/>
+      <c r="Q23" s="805"/>
+      <c r="R23" s="806"/>
+      <c r="S23" s="806"/>
+      <c r="T23" s="806"/>
+      <c r="U23" s="806"/>
+      <c r="V23" s="806"/>
+      <c r="W23" s="806"/>
+      <c r="X23" s="806"/>
+      <c r="Y23" s="806"/>
+      <c r="Z23" s="806"/>
+      <c r="AA23" s="806"/>
+      <c r="AB23" s="806"/>
+      <c r="AC23" s="806"/>
+      <c r="AD23" s="806"/>
+      <c r="AE23" s="807"/>
+      <c r="AF23" s="802"/>
+      <c r="AG23" s="803"/>
+      <c r="AH23" s="803"/>
+      <c r="AI23" s="804"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="830"/>
-      <c r="C24" s="831"/>
-      <c r="D24" s="832"/>
-      <c r="E24" s="833"/>
-      <c r="F24" s="834"/>
-      <c r="G24" s="856"/>
-      <c r="H24" s="835"/>
-      <c r="I24" s="836"/>
-      <c r="J24" s="843"/>
-      <c r="K24" s="844"/>
-      <c r="L24" s="844"/>
-      <c r="M24" s="844"/>
-      <c r="N24" s="844"/>
-      <c r="O24" s="844"/>
-      <c r="P24" s="845"/>
-      <c r="Q24" s="840"/>
-      <c r="R24" s="841"/>
-      <c r="S24" s="841"/>
-      <c r="T24" s="841"/>
-      <c r="U24" s="841"/>
-      <c r="V24" s="841"/>
-      <c r="W24" s="841"/>
-      <c r="X24" s="841"/>
-      <c r="Y24" s="841"/>
-      <c r="Z24" s="841"/>
-      <c r="AA24" s="841"/>
-      <c r="AB24" s="841"/>
-      <c r="AC24" s="841"/>
-      <c r="AD24" s="841"/>
-      <c r="AE24" s="842"/>
-      <c r="AF24" s="843"/>
-      <c r="AG24" s="844"/>
-      <c r="AH24" s="844"/>
-      <c r="AI24" s="845"/>
+      <c r="B24" s="794"/>
+      <c r="C24" s="795"/>
+      <c r="D24" s="796"/>
+      <c r="E24" s="797"/>
+      <c r="F24" s="798"/>
+      <c r="G24" s="799"/>
+      <c r="H24" s="800"/>
+      <c r="I24" s="801"/>
+      <c r="J24" s="802"/>
+      <c r="K24" s="803"/>
+      <c r="L24" s="803"/>
+      <c r="M24" s="803"/>
+      <c r="N24" s="803"/>
+      <c r="O24" s="803"/>
+      <c r="P24" s="804"/>
+      <c r="Q24" s="805"/>
+      <c r="R24" s="806"/>
+      <c r="S24" s="806"/>
+      <c r="T24" s="806"/>
+      <c r="U24" s="806"/>
+      <c r="V24" s="806"/>
+      <c r="W24" s="806"/>
+      <c r="X24" s="806"/>
+      <c r="Y24" s="806"/>
+      <c r="Z24" s="806"/>
+      <c r="AA24" s="806"/>
+      <c r="AB24" s="806"/>
+      <c r="AC24" s="806"/>
+      <c r="AD24" s="806"/>
+      <c r="AE24" s="807"/>
+      <c r="AF24" s="802"/>
+      <c r="AG24" s="803"/>
+      <c r="AH24" s="803"/>
+      <c r="AI24" s="804"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="830"/>
-      <c r="C25" s="831"/>
-      <c r="D25" s="832"/>
-      <c r="E25" s="833"/>
-      <c r="F25" s="834"/>
-      <c r="G25" s="856"/>
-      <c r="H25" s="835"/>
-      <c r="I25" s="836"/>
-      <c r="J25" s="843"/>
-      <c r="K25" s="844"/>
-      <c r="L25" s="844"/>
-      <c r="M25" s="844"/>
-      <c r="N25" s="844"/>
-      <c r="O25" s="844"/>
-      <c r="P25" s="845"/>
-      <c r="Q25" s="840"/>
-      <c r="R25" s="841"/>
-      <c r="S25" s="841"/>
-      <c r="T25" s="841"/>
-      <c r="U25" s="841"/>
-      <c r="V25" s="841"/>
-      <c r="W25" s="841"/>
-      <c r="X25" s="841"/>
-      <c r="Y25" s="841"/>
-      <c r="Z25" s="841"/>
-      <c r="AA25" s="841"/>
-      <c r="AB25" s="841"/>
-      <c r="AC25" s="841"/>
-      <c r="AD25" s="841"/>
-      <c r="AE25" s="842"/>
-      <c r="AF25" s="843"/>
-      <c r="AG25" s="844"/>
-      <c r="AH25" s="844"/>
-      <c r="AI25" s="845"/>
+      <c r="B25" s="794"/>
+      <c r="C25" s="795"/>
+      <c r="D25" s="796"/>
+      <c r="E25" s="797"/>
+      <c r="F25" s="798"/>
+      <c r="G25" s="799"/>
+      <c r="H25" s="800"/>
+      <c r="I25" s="801"/>
+      <c r="J25" s="802"/>
+      <c r="K25" s="803"/>
+      <c r="L25" s="803"/>
+      <c r="M25" s="803"/>
+      <c r="N25" s="803"/>
+      <c r="O25" s="803"/>
+      <c r="P25" s="804"/>
+      <c r="Q25" s="805"/>
+      <c r="R25" s="806"/>
+      <c r="S25" s="806"/>
+      <c r="T25" s="806"/>
+      <c r="U25" s="806"/>
+      <c r="V25" s="806"/>
+      <c r="W25" s="806"/>
+      <c r="X25" s="806"/>
+      <c r="Y25" s="806"/>
+      <c r="Z25" s="806"/>
+      <c r="AA25" s="806"/>
+      <c r="AB25" s="806"/>
+      <c r="AC25" s="806"/>
+      <c r="AD25" s="806"/>
+      <c r="AE25" s="807"/>
+      <c r="AF25" s="802"/>
+      <c r="AG25" s="803"/>
+      <c r="AH25" s="803"/>
+      <c r="AI25" s="804"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="830"/>
-      <c r="C26" s="831"/>
-      <c r="D26" s="832"/>
-      <c r="E26" s="833"/>
-      <c r="F26" s="834"/>
-      <c r="G26" s="856"/>
-      <c r="H26" s="835"/>
-      <c r="I26" s="836"/>
-      <c r="J26" s="843"/>
-      <c r="K26" s="844"/>
-      <c r="L26" s="844"/>
-      <c r="M26" s="844"/>
-      <c r="N26" s="844"/>
-      <c r="O26" s="844"/>
-      <c r="P26" s="845"/>
-      <c r="Q26" s="840"/>
-      <c r="R26" s="841"/>
-      <c r="S26" s="841"/>
-      <c r="T26" s="841"/>
-      <c r="U26" s="841"/>
-      <c r="V26" s="841"/>
-      <c r="W26" s="841"/>
-      <c r="X26" s="841"/>
-      <c r="Y26" s="841"/>
-      <c r="Z26" s="841"/>
-      <c r="AA26" s="841"/>
-      <c r="AB26" s="841"/>
-      <c r="AC26" s="841"/>
-      <c r="AD26" s="841"/>
-      <c r="AE26" s="842"/>
-      <c r="AF26" s="843"/>
-      <c r="AG26" s="844"/>
-      <c r="AH26" s="844"/>
-      <c r="AI26" s="845"/>
+      <c r="B26" s="794"/>
+      <c r="C26" s="795"/>
+      <c r="D26" s="796"/>
+      <c r="E26" s="797"/>
+      <c r="F26" s="798"/>
+      <c r="G26" s="799"/>
+      <c r="H26" s="800"/>
+      <c r="I26" s="801"/>
+      <c r="J26" s="802"/>
+      <c r="K26" s="803"/>
+      <c r="L26" s="803"/>
+      <c r="M26" s="803"/>
+      <c r="N26" s="803"/>
+      <c r="O26" s="803"/>
+      <c r="P26" s="804"/>
+      <c r="Q26" s="805"/>
+      <c r="R26" s="806"/>
+      <c r="S26" s="806"/>
+      <c r="T26" s="806"/>
+      <c r="U26" s="806"/>
+      <c r="V26" s="806"/>
+      <c r="W26" s="806"/>
+      <c r="X26" s="806"/>
+      <c r="Y26" s="806"/>
+      <c r="Z26" s="806"/>
+      <c r="AA26" s="806"/>
+      <c r="AB26" s="806"/>
+      <c r="AC26" s="806"/>
+      <c r="AD26" s="806"/>
+      <c r="AE26" s="807"/>
+      <c r="AF26" s="802"/>
+      <c r="AG26" s="803"/>
+      <c r="AH26" s="803"/>
+      <c r="AI26" s="804"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="830"/>
-      <c r="C27" s="831"/>
-      <c r="D27" s="832"/>
-      <c r="E27" s="833"/>
-      <c r="F27" s="834"/>
-      <c r="G27" s="856"/>
-      <c r="H27" s="835"/>
-      <c r="I27" s="836"/>
-      <c r="J27" s="843"/>
-      <c r="K27" s="844"/>
-      <c r="L27" s="844"/>
-      <c r="M27" s="844"/>
-      <c r="N27" s="844"/>
-      <c r="O27" s="844"/>
-      <c r="P27" s="845"/>
-      <c r="Q27" s="840"/>
-      <c r="R27" s="841"/>
-      <c r="S27" s="841"/>
-      <c r="T27" s="841"/>
-      <c r="U27" s="841"/>
-      <c r="V27" s="841"/>
-      <c r="W27" s="841"/>
-      <c r="X27" s="841"/>
-      <c r="Y27" s="841"/>
-      <c r="Z27" s="841"/>
-      <c r="AA27" s="841"/>
-      <c r="AB27" s="841"/>
-      <c r="AC27" s="841"/>
-      <c r="AD27" s="841"/>
-      <c r="AE27" s="842"/>
-      <c r="AF27" s="843"/>
-      <c r="AG27" s="844"/>
-      <c r="AH27" s="844"/>
-      <c r="AI27" s="845"/>
+      <c r="B27" s="794"/>
+      <c r="C27" s="795"/>
+      <c r="D27" s="796"/>
+      <c r="E27" s="797"/>
+      <c r="F27" s="798"/>
+      <c r="G27" s="799"/>
+      <c r="H27" s="800"/>
+      <c r="I27" s="801"/>
+      <c r="J27" s="802"/>
+      <c r="K27" s="803"/>
+      <c r="L27" s="803"/>
+      <c r="M27" s="803"/>
+      <c r="N27" s="803"/>
+      <c r="O27" s="803"/>
+      <c r="P27" s="804"/>
+      <c r="Q27" s="805"/>
+      <c r="R27" s="806"/>
+      <c r="S27" s="806"/>
+      <c r="T27" s="806"/>
+      <c r="U27" s="806"/>
+      <c r="V27" s="806"/>
+      <c r="W27" s="806"/>
+      <c r="X27" s="806"/>
+      <c r="Y27" s="806"/>
+      <c r="Z27" s="806"/>
+      <c r="AA27" s="806"/>
+      <c r="AB27" s="806"/>
+      <c r="AC27" s="806"/>
+      <c r="AD27" s="806"/>
+      <c r="AE27" s="807"/>
+      <c r="AF27" s="802"/>
+      <c r="AG27" s="803"/>
+      <c r="AH27" s="803"/>
+      <c r="AI27" s="804"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="830"/>
-      <c r="C28" s="831"/>
-      <c r="D28" s="832"/>
-      <c r="E28" s="833"/>
-      <c r="F28" s="834"/>
-      <c r="G28" s="856"/>
-      <c r="H28" s="835"/>
-      <c r="I28" s="836"/>
-      <c r="J28" s="843"/>
-      <c r="K28" s="844"/>
-      <c r="L28" s="844"/>
-      <c r="M28" s="844"/>
-      <c r="N28" s="844"/>
-      <c r="O28" s="844"/>
-      <c r="P28" s="845"/>
-      <c r="Q28" s="840"/>
-      <c r="R28" s="841"/>
-      <c r="S28" s="841"/>
-      <c r="T28" s="841"/>
-      <c r="U28" s="841"/>
-      <c r="V28" s="841"/>
-      <c r="W28" s="841"/>
-      <c r="X28" s="841"/>
-      <c r="Y28" s="841"/>
-      <c r="Z28" s="841"/>
-      <c r="AA28" s="841"/>
-      <c r="AB28" s="841"/>
-      <c r="AC28" s="841"/>
-      <c r="AD28" s="841"/>
-      <c r="AE28" s="842"/>
-      <c r="AF28" s="843"/>
-      <c r="AG28" s="844"/>
-      <c r="AH28" s="844"/>
-      <c r="AI28" s="845"/>
+      <c r="B28" s="794"/>
+      <c r="C28" s="795"/>
+      <c r="D28" s="796"/>
+      <c r="E28" s="797"/>
+      <c r="F28" s="798"/>
+      <c r="G28" s="799"/>
+      <c r="H28" s="800"/>
+      <c r="I28" s="801"/>
+      <c r="J28" s="802"/>
+      <c r="K28" s="803"/>
+      <c r="L28" s="803"/>
+      <c r="M28" s="803"/>
+      <c r="N28" s="803"/>
+      <c r="O28" s="803"/>
+      <c r="P28" s="804"/>
+      <c r="Q28" s="805"/>
+      <c r="R28" s="806"/>
+      <c r="S28" s="806"/>
+      <c r="T28" s="806"/>
+      <c r="U28" s="806"/>
+      <c r="V28" s="806"/>
+      <c r="W28" s="806"/>
+      <c r="X28" s="806"/>
+      <c r="Y28" s="806"/>
+      <c r="Z28" s="806"/>
+      <c r="AA28" s="806"/>
+      <c r="AB28" s="806"/>
+      <c r="AC28" s="806"/>
+      <c r="AD28" s="806"/>
+      <c r="AE28" s="807"/>
+      <c r="AF28" s="802"/>
+      <c r="AG28" s="803"/>
+      <c r="AH28" s="803"/>
+      <c r="AI28" s="804"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="830"/>
-      <c r="C29" s="831"/>
-      <c r="D29" s="832"/>
-      <c r="E29" s="833"/>
-      <c r="F29" s="834"/>
-      <c r="G29" s="856"/>
-      <c r="H29" s="835"/>
-      <c r="I29" s="836"/>
-      <c r="J29" s="843"/>
-      <c r="K29" s="844"/>
-      <c r="L29" s="844"/>
-      <c r="M29" s="844"/>
-      <c r="N29" s="844"/>
-      <c r="O29" s="844"/>
-      <c r="P29" s="845"/>
-      <c r="Q29" s="840"/>
-      <c r="R29" s="841"/>
-      <c r="S29" s="841"/>
-      <c r="T29" s="841"/>
-      <c r="U29" s="841"/>
-      <c r="V29" s="841"/>
-      <c r="W29" s="841"/>
-      <c r="X29" s="841"/>
-      <c r="Y29" s="841"/>
-      <c r="Z29" s="841"/>
-      <c r="AA29" s="841"/>
-      <c r="AB29" s="841"/>
-      <c r="AC29" s="841"/>
-      <c r="AD29" s="841"/>
-      <c r="AE29" s="842"/>
-      <c r="AF29" s="843"/>
-      <c r="AG29" s="844"/>
-      <c r="AH29" s="844"/>
-      <c r="AI29" s="845"/>
+      <c r="B29" s="794"/>
+      <c r="C29" s="795"/>
+      <c r="D29" s="796"/>
+      <c r="E29" s="797"/>
+      <c r="F29" s="798"/>
+      <c r="G29" s="799"/>
+      <c r="H29" s="800"/>
+      <c r="I29" s="801"/>
+      <c r="J29" s="802"/>
+      <c r="K29" s="803"/>
+      <c r="L29" s="803"/>
+      <c r="M29" s="803"/>
+      <c r="N29" s="803"/>
+      <c r="O29" s="803"/>
+      <c r="P29" s="804"/>
+      <c r="Q29" s="805"/>
+      <c r="R29" s="806"/>
+      <c r="S29" s="806"/>
+      <c r="T29" s="806"/>
+      <c r="U29" s="806"/>
+      <c r="V29" s="806"/>
+      <c r="W29" s="806"/>
+      <c r="X29" s="806"/>
+      <c r="Y29" s="806"/>
+      <c r="Z29" s="806"/>
+      <c r="AA29" s="806"/>
+      <c r="AB29" s="806"/>
+      <c r="AC29" s="806"/>
+      <c r="AD29" s="806"/>
+      <c r="AE29" s="807"/>
+      <c r="AF29" s="802"/>
+      <c r="AG29" s="803"/>
+      <c r="AH29" s="803"/>
+      <c r="AI29" s="804"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="830"/>
-      <c r="C30" s="831"/>
-      <c r="D30" s="832"/>
-      <c r="E30" s="833"/>
-      <c r="F30" s="834"/>
-      <c r="G30" s="856"/>
-      <c r="H30" s="835"/>
-      <c r="I30" s="836"/>
-      <c r="J30" s="843"/>
-      <c r="K30" s="844"/>
-      <c r="L30" s="844"/>
-      <c r="M30" s="844"/>
-      <c r="N30" s="844"/>
-      <c r="O30" s="844"/>
-      <c r="P30" s="845"/>
-      <c r="Q30" s="840"/>
-      <c r="R30" s="841"/>
-      <c r="S30" s="841"/>
-      <c r="T30" s="841"/>
-      <c r="U30" s="841"/>
-      <c r="V30" s="841"/>
-      <c r="W30" s="841"/>
-      <c r="X30" s="841"/>
-      <c r="Y30" s="841"/>
-      <c r="Z30" s="841"/>
-      <c r="AA30" s="841"/>
-      <c r="AB30" s="841"/>
-      <c r="AC30" s="841"/>
-      <c r="AD30" s="841"/>
-      <c r="AE30" s="842"/>
-      <c r="AF30" s="843"/>
-      <c r="AG30" s="844"/>
-      <c r="AH30" s="844"/>
-      <c r="AI30" s="845"/>
+      <c r="B30" s="794"/>
+      <c r="C30" s="795"/>
+      <c r="D30" s="796"/>
+      <c r="E30" s="797"/>
+      <c r="F30" s="798"/>
+      <c r="G30" s="799"/>
+      <c r="H30" s="800"/>
+      <c r="I30" s="801"/>
+      <c r="J30" s="802"/>
+      <c r="K30" s="803"/>
+      <c r="L30" s="803"/>
+      <c r="M30" s="803"/>
+      <c r="N30" s="803"/>
+      <c r="O30" s="803"/>
+      <c r="P30" s="804"/>
+      <c r="Q30" s="805"/>
+      <c r="R30" s="806"/>
+      <c r="S30" s="806"/>
+      <c r="T30" s="806"/>
+      <c r="U30" s="806"/>
+      <c r="V30" s="806"/>
+      <c r="W30" s="806"/>
+      <c r="X30" s="806"/>
+      <c r="Y30" s="806"/>
+      <c r="Z30" s="806"/>
+      <c r="AA30" s="806"/>
+      <c r="AB30" s="806"/>
+      <c r="AC30" s="806"/>
+      <c r="AD30" s="806"/>
+      <c r="AE30" s="807"/>
+      <c r="AF30" s="802"/>
+      <c r="AG30" s="803"/>
+      <c r="AH30" s="803"/>
+      <c r="AI30" s="804"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="830"/>
-      <c r="C31" s="831"/>
-      <c r="D31" s="832"/>
-      <c r="E31" s="833"/>
-      <c r="F31" s="834"/>
-      <c r="G31" s="856"/>
-      <c r="H31" s="835"/>
-      <c r="I31" s="836"/>
-      <c r="J31" s="843"/>
-      <c r="K31" s="844"/>
-      <c r="L31" s="844"/>
-      <c r="M31" s="844"/>
-      <c r="N31" s="844"/>
-      <c r="O31" s="844"/>
-      <c r="P31" s="845"/>
-      <c r="Q31" s="840"/>
-      <c r="R31" s="841"/>
-      <c r="S31" s="841"/>
-      <c r="T31" s="841"/>
-      <c r="U31" s="841"/>
-      <c r="V31" s="841"/>
-      <c r="W31" s="841"/>
-      <c r="X31" s="841"/>
-      <c r="Y31" s="841"/>
-      <c r="Z31" s="841"/>
-      <c r="AA31" s="841"/>
-      <c r="AB31" s="841"/>
-      <c r="AC31" s="841"/>
-      <c r="AD31" s="841"/>
-      <c r="AE31" s="842"/>
-      <c r="AF31" s="843"/>
-      <c r="AG31" s="844"/>
-      <c r="AH31" s="844"/>
-      <c r="AI31" s="845"/>
+      <c r="B31" s="794"/>
+      <c r="C31" s="795"/>
+      <c r="D31" s="796"/>
+      <c r="E31" s="797"/>
+      <c r="F31" s="798"/>
+      <c r="G31" s="799"/>
+      <c r="H31" s="800"/>
+      <c r="I31" s="801"/>
+      <c r="J31" s="802"/>
+      <c r="K31" s="803"/>
+      <c r="L31" s="803"/>
+      <c r="M31" s="803"/>
+      <c r="N31" s="803"/>
+      <c r="O31" s="803"/>
+      <c r="P31" s="804"/>
+      <c r="Q31" s="805"/>
+      <c r="R31" s="806"/>
+      <c r="S31" s="806"/>
+      <c r="T31" s="806"/>
+      <c r="U31" s="806"/>
+      <c r="V31" s="806"/>
+      <c r="W31" s="806"/>
+      <c r="X31" s="806"/>
+      <c r="Y31" s="806"/>
+      <c r="Z31" s="806"/>
+      <c r="AA31" s="806"/>
+      <c r="AB31" s="806"/>
+      <c r="AC31" s="806"/>
+      <c r="AD31" s="806"/>
+      <c r="AE31" s="807"/>
+      <c r="AF31" s="802"/>
+      <c r="AG31" s="803"/>
+      <c r="AH31" s="803"/>
+      <c r="AI31" s="804"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="830"/>
-      <c r="C32" s="831"/>
-      <c r="D32" s="832"/>
-      <c r="E32" s="833"/>
-      <c r="F32" s="834"/>
-      <c r="G32" s="856"/>
-      <c r="H32" s="835"/>
-      <c r="I32" s="836"/>
-      <c r="J32" s="843"/>
-      <c r="K32" s="857"/>
-      <c r="L32" s="844"/>
-      <c r="M32" s="844"/>
-      <c r="N32" s="844"/>
-      <c r="O32" s="844"/>
-      <c r="P32" s="845"/>
-      <c r="Q32" s="840"/>
-      <c r="R32" s="841"/>
-      <c r="S32" s="841"/>
-      <c r="T32" s="841"/>
-      <c r="U32" s="841"/>
-      <c r="V32" s="841"/>
-      <c r="W32" s="841"/>
-      <c r="X32" s="841"/>
-      <c r="Y32" s="841"/>
-      <c r="Z32" s="841"/>
-      <c r="AA32" s="841"/>
-      <c r="AB32" s="841"/>
-      <c r="AC32" s="841"/>
-      <c r="AD32" s="841"/>
-      <c r="AE32" s="842"/>
-      <c r="AF32" s="843"/>
-      <c r="AG32" s="844"/>
-      <c r="AH32" s="844"/>
-      <c r="AI32" s="845"/>
+      <c r="B32" s="794"/>
+      <c r="C32" s="795"/>
+      <c r="D32" s="796"/>
+      <c r="E32" s="797"/>
+      <c r="F32" s="798"/>
+      <c r="G32" s="799"/>
+      <c r="H32" s="800"/>
+      <c r="I32" s="801"/>
+      <c r="J32" s="802"/>
+      <c r="K32" s="808"/>
+      <c r="L32" s="803"/>
+      <c r="M32" s="803"/>
+      <c r="N32" s="803"/>
+      <c r="O32" s="803"/>
+      <c r="P32" s="804"/>
+      <c r="Q32" s="805"/>
+      <c r="R32" s="806"/>
+      <c r="S32" s="806"/>
+      <c r="T32" s="806"/>
+      <c r="U32" s="806"/>
+      <c r="V32" s="806"/>
+      <c r="W32" s="806"/>
+      <c r="X32" s="806"/>
+      <c r="Y32" s="806"/>
+      <c r="Z32" s="806"/>
+      <c r="AA32" s="806"/>
+      <c r="AB32" s="806"/>
+      <c r="AC32" s="806"/>
+      <c r="AD32" s="806"/>
+      <c r="AE32" s="807"/>
+      <c r="AF32" s="802"/>
+      <c r="AG32" s="803"/>
+      <c r="AH32" s="803"/>
+      <c r="AI32" s="804"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="830"/>
-      <c r="C33" s="831"/>
-      <c r="D33" s="832"/>
-      <c r="E33" s="833"/>
-      <c r="F33" s="834"/>
-      <c r="G33" s="856"/>
-      <c r="H33" s="835"/>
-      <c r="I33" s="836"/>
-      <c r="J33" s="843"/>
-      <c r="K33" s="844"/>
-      <c r="L33" s="844"/>
-      <c r="M33" s="844"/>
-      <c r="N33" s="844"/>
-      <c r="O33" s="844"/>
-      <c r="P33" s="845"/>
-      <c r="Q33" s="840"/>
-      <c r="R33" s="841"/>
-      <c r="S33" s="841"/>
-      <c r="T33" s="841"/>
-      <c r="U33" s="841"/>
-      <c r="V33" s="841"/>
-      <c r="W33" s="841"/>
-      <c r="X33" s="841"/>
-      <c r="Y33" s="841"/>
-      <c r="Z33" s="841"/>
-      <c r="AA33" s="841"/>
-      <c r="AB33" s="841"/>
-      <c r="AC33" s="841"/>
-      <c r="AD33" s="841"/>
-      <c r="AE33" s="842"/>
-      <c r="AF33" s="843"/>
-      <c r="AG33" s="844"/>
-      <c r="AH33" s="844"/>
-      <c r="AI33" s="845"/>
+      <c r="B33" s="794"/>
+      <c r="C33" s="795"/>
+      <c r="D33" s="796"/>
+      <c r="E33" s="797"/>
+      <c r="F33" s="798"/>
+      <c r="G33" s="799"/>
+      <c r="H33" s="800"/>
+      <c r="I33" s="801"/>
+      <c r="J33" s="802"/>
+      <c r="K33" s="803"/>
+      <c r="L33" s="803"/>
+      <c r="M33" s="803"/>
+      <c r="N33" s="803"/>
+      <c r="O33" s="803"/>
+      <c r="P33" s="804"/>
+      <c r="Q33" s="805"/>
+      <c r="R33" s="806"/>
+      <c r="S33" s="806"/>
+      <c r="T33" s="806"/>
+      <c r="U33" s="806"/>
+      <c r="V33" s="806"/>
+      <c r="W33" s="806"/>
+      <c r="X33" s="806"/>
+      <c r="Y33" s="806"/>
+      <c r="Z33" s="806"/>
+      <c r="AA33" s="806"/>
+      <c r="AB33" s="806"/>
+      <c r="AC33" s="806"/>
+      <c r="AD33" s="806"/>
+      <c r="AE33" s="807"/>
+      <c r="AF33" s="802"/>
+      <c r="AG33" s="803"/>
+      <c r="AH33" s="803"/>
+      <c r="AI33" s="804"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -14732,6 +14592,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -14872,7 +14888,7 @@
         <v>3</v>
       </c>
       <c r="L10" s="104" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="M10" s="104" t="s">
         <v>4</v>
@@ -14920,21 +14936,21 @@
       </c>
       <c r="L11" s="111"/>
       <c r="M11" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N11" s="151">
         <v>43817</v>
       </c>
       <c r="O11" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P11" s="112"/>
       <c r="Q11" s="634"/>
       <c r="R11" s="752" t="s">
+        <v>554</v>
+      </c>
+      <c r="S11" s="753" t="s">
         <v>555</v>
-      </c>
-      <c r="S11" s="753" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="36.75" customHeight="1">
@@ -14950,28 +14966,28 @@
       <c r="H12" s="578"/>
       <c r="I12" s="578"/>
       <c r="J12" s="567" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K12" s="110" t="s">
         <v>432</v>
       </c>
       <c r="L12" s="34"/>
       <c r="M12" s="47" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N12" s="154">
         <v>43817</v>
       </c>
       <c r="O12" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P12" s="32"/>
       <c r="Q12" s="608"/>
       <c r="R12" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S12" s="753" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="35.25" customHeight="1">
@@ -14987,28 +15003,28 @@
       <c r="H13" s="578"/>
       <c r="I13" s="578"/>
       <c r="J13" s="567" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K13" s="110" t="s">
         <v>432</v>
       </c>
       <c r="L13" s="34"/>
       <c r="M13" s="47" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N13" s="154">
         <v>43817</v>
       </c>
       <c r="O13" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P13" s="112"/>
       <c r="Q13" s="517"/>
       <c r="R13" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S13" s="753" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="23.1" customHeight="1">
@@ -15024,28 +15040,28 @@
       <c r="H14" s="579"/>
       <c r="I14" s="567"/>
       <c r="J14" s="567" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K14" s="567" t="s">
         <v>434</v>
       </c>
       <c r="L14" s="34"/>
       <c r="M14" s="47" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N14" s="154">
         <v>43817</v>
       </c>
       <c r="O14" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P14" s="112"/>
       <c r="Q14" s="517"/>
       <c r="R14" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S14" s="753" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="721" customFormat="1">
@@ -15105,25 +15121,25 @@
         <v>435</v>
       </c>
       <c r="K16" s="116" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L16" s="117"/>
       <c r="M16" s="118" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N16" s="152">
         <v>43817</v>
       </c>
       <c r="O16" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P16" s="119"/>
       <c r="Q16" s="120"/>
       <c r="R16" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S16" s="753" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="17" spans="1:19" s="41" customFormat="1" ht="22.5">
@@ -15145,28 +15161,28 @@
         <v>23</v>
       </c>
       <c r="J17" s="48" t="s">
+        <v>459</v>
+      </c>
+      <c r="K17" s="48" t="s">
         <v>460</v>
-      </c>
-      <c r="K17" s="48" t="s">
-        <v>461</v>
       </c>
       <c r="L17" s="34"/>
       <c r="M17" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N17" s="153">
         <v>43817</v>
       </c>
       <c r="O17" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P17" s="49"/>
       <c r="Q17" s="120"/>
       <c r="R17" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S17" s="756" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18" spans="1:19" s="31" customFormat="1" ht="56.25">
@@ -15191,25 +15207,25 @@
         <v>439</v>
       </c>
       <c r="K18" s="48" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L18" s="34"/>
       <c r="M18" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N18" s="153">
         <v>43817</v>
       </c>
       <c r="O18" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P18" s="558"/>
       <c r="Q18" s="120"/>
       <c r="R18" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S18" s="753" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="19" spans="1:19" s="31" customFormat="1" ht="22.5">
@@ -15228,25 +15244,25 @@
         <v>440</v>
       </c>
       <c r="K19" s="48" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L19" s="34"/>
       <c r="M19" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N19" s="153">
         <v>43817</v>
       </c>
       <c r="O19" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P19" s="582"/>
       <c r="Q19" s="583"/>
       <c r="R19" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S19" s="753" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="20" spans="1:19" s="31" customFormat="1" ht="33.75">
@@ -15265,25 +15281,25 @@
         <v>441</v>
       </c>
       <c r="K20" s="580" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L20" s="657"/>
       <c r="M20" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N20" s="153">
         <v>43817</v>
       </c>
       <c r="O20" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P20" s="658"/>
       <c r="Q20" s="659"/>
       <c r="R20" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S20" s="753" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:19" s="31" customFormat="1" ht="22.5">
@@ -15302,25 +15318,25 @@
         <v>436</v>
       </c>
       <c r="K21" s="48" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L21" s="34"/>
       <c r="M21" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N21" s="153">
         <v>43817</v>
       </c>
       <c r="O21" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P21" s="658"/>
       <c r="Q21" s="659"/>
       <c r="R21" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S21" s="753" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="1:19" s="31" customFormat="1" ht="22.5">
@@ -15339,25 +15355,25 @@
         <v>437</v>
       </c>
       <c r="K22" s="48" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L22" s="34"/>
       <c r="M22" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N22" s="153">
         <v>43817</v>
       </c>
       <c r="O22" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P22" s="658"/>
       <c r="Q22" s="659"/>
       <c r="R22" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S22" s="753" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="1:19" s="31" customFormat="1" ht="22.5">
@@ -15376,25 +15392,25 @@
         <v>438</v>
       </c>
       <c r="K23" s="580" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L23" s="657"/>
       <c r="M23" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N23" s="153">
         <v>43817</v>
       </c>
       <c r="O23" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P23" s="658"/>
       <c r="Q23" s="659"/>
       <c r="R23" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S23" s="753" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="24" spans="1:19" s="31" customFormat="1" ht="22.5">
@@ -15413,25 +15429,25 @@
         <v>442</v>
       </c>
       <c r="K24" s="48" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L24" s="34"/>
       <c r="M24" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N24" s="153">
         <v>43817</v>
       </c>
       <c r="O24" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P24" s="658"/>
       <c r="Q24" s="659"/>
       <c r="R24" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S24" s="753" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="25" spans="1:19" s="31" customFormat="1" ht="22.5">
@@ -15450,25 +15466,25 @@
         <v>443</v>
       </c>
       <c r="K25" s="48" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L25" s="34"/>
       <c r="M25" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N25" s="153">
         <v>43817</v>
       </c>
       <c r="O25" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P25" s="658"/>
       <c r="Q25" s="659"/>
       <c r="R25" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S25" s="753" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="26" spans="1:19" s="31" customFormat="1" ht="22.5">
@@ -15487,25 +15503,25 @@
         <v>444</v>
       </c>
       <c r="K26" s="580" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L26" s="581"/>
       <c r="M26" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N26" s="153">
         <v>43817</v>
       </c>
       <c r="O26" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P26" s="582"/>
       <c r="Q26" s="583"/>
       <c r="R26" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S26" s="753" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="27" spans="1:19" s="720" customFormat="1" ht="67.5">
@@ -15561,25 +15577,25 @@
         <v>412</v>
       </c>
       <c r="K28" s="599" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L28" s="34"/>
       <c r="M28" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N28" s="153">
         <v>43817</v>
       </c>
       <c r="O28" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P28" s="32"/>
       <c r="Q28" s="600"/>
       <c r="R28" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S28" s="753" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="29" spans="1:19" s="720" customFormat="1" ht="33.75">
@@ -15595,7 +15611,7 @@
       <c r="H29" s="728"/>
       <c r="I29" s="728"/>
       <c r="J29" s="729" t="s">
-        <v>454</v>
+        <v>648</v>
       </c>
       <c r="K29" s="729" t="s">
         <v>413</v>
@@ -15628,7 +15644,7 @@
         <v>29</v>
       </c>
       <c r="J30" s="179" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K30" s="179"/>
       <c r="L30" s="52"/>
@@ -16762,33 +16778,33 @@
         <v>36</v>
       </c>
       <c r="J66" s="128" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K66" s="43" t="s">
         <v>394</v>
       </c>
       <c r="L66" s="46"/>
       <c r="M66" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N66" s="153">
         <v>43817</v>
       </c>
       <c r="O66" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P66" s="47"/>
       <c r="Q66" s="131"/>
       <c r="R66" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S66" s="753" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="67" spans="1:19" s="31" customFormat="1" ht="22.5">
       <c r="A67" s="40" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B67" s="38"/>
       <c r="C67" s="38"/>
@@ -16799,28 +16815,28 @@
       <c r="H67" s="38"/>
       <c r="I67" s="38"/>
       <c r="J67" s="704" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K67" s="43" t="s">
         <v>394</v>
       </c>
       <c r="L67" s="34"/>
       <c r="M67" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N67" s="153">
         <v>43817</v>
       </c>
       <c r="O67" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P67" s="47"/>
       <c r="Q67" s="706"/>
       <c r="R67" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S67" s="753" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="68" spans="1:19" s="31" customFormat="1" ht="22.5">
@@ -16842,28 +16858,28 @@
         <v>147</v>
       </c>
       <c r="J68" s="128" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K68" s="43" t="s">
         <v>394</v>
       </c>
       <c r="L68" s="34"/>
       <c r="M68" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N68" s="153">
         <v>43817</v>
       </c>
       <c r="O68" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P68" s="32"/>
       <c r="Q68" s="131"/>
       <c r="R68" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S68" s="753" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="69" spans="1:19" s="31" customFormat="1" ht="22.5">
@@ -16885,28 +16901,28 @@
         <v>147</v>
       </c>
       <c r="J69" s="128" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K69" s="43" t="s">
         <v>394</v>
       </c>
       <c r="L69" s="34"/>
       <c r="M69" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N69" s="153">
         <v>43817</v>
       </c>
       <c r="O69" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P69" s="32"/>
       <c r="Q69" s="131"/>
       <c r="R69" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S69" s="753" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="70" spans="1:19" s="41" customFormat="1" ht="22.5">
@@ -16928,33 +16944,33 @@
         <v>36</v>
       </c>
       <c r="J70" s="128" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K70" s="43" t="s">
         <v>394</v>
       </c>
       <c r="L70" s="34"/>
       <c r="M70" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N70" s="153">
         <v>43817</v>
       </c>
       <c r="O70" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P70" s="32"/>
       <c r="Q70" s="131"/>
       <c r="R70" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S70" s="753" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="71" spans="1:19" s="41" customFormat="1" ht="22.5">
       <c r="A71" s="40" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B71" s="38"/>
       <c r="C71" s="38"/>
@@ -16965,28 +16981,28 @@
       <c r="H71" s="38"/>
       <c r="I71" s="38"/>
       <c r="J71" s="704" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K71" s="43" t="s">
         <v>394</v>
       </c>
       <c r="L71" s="34"/>
       <c r="M71" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N71" s="153">
         <v>43817</v>
       </c>
       <c r="O71" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P71" s="112"/>
       <c r="Q71" s="706"/>
       <c r="R71" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S71" s="753" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="72" spans="1:19" s="41" customFormat="1" ht="22.5">
@@ -17008,28 +17024,28 @@
         <v>147</v>
       </c>
       <c r="J72" s="128" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K72" s="43" t="s">
         <v>394</v>
       </c>
       <c r="L72" s="34"/>
       <c r="M72" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N72" s="153">
         <v>43817</v>
       </c>
       <c r="O72" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P72" s="32"/>
       <c r="Q72" s="131"/>
       <c r="R72" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S72" s="753" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="73" spans="1:19" s="720" customFormat="1" ht="22.5">
@@ -17148,33 +17164,33 @@
         <v>36</v>
       </c>
       <c r="J76" s="132" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K76" s="132" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L76" s="34"/>
       <c r="M76" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N76" s="153">
         <v>43817</v>
       </c>
       <c r="O76" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P76" s="32"/>
       <c r="Q76" s="560"/>
       <c r="R76" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S76" s="753" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="77" spans="1:19" s="31" customFormat="1" ht="33.75">
       <c r="A77" s="40" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B77" s="38"/>
       <c r="C77" s="38"/>
@@ -17185,28 +17201,28 @@
       <c r="H77" s="38"/>
       <c r="I77" s="38"/>
       <c r="J77" s="132" t="s">
+        <v>467</v>
+      </c>
+      <c r="K77" s="132" t="s">
         <v>468</v>
-      </c>
-      <c r="K77" s="132" t="s">
-        <v>469</v>
       </c>
       <c r="L77" s="34"/>
       <c r="M77" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N77" s="153">
         <v>43817</v>
       </c>
       <c r="O77" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P77" s="32"/>
       <c r="Q77" s="706"/>
       <c r="R77" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S77" s="753" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="78" spans="1:19" s="31" customFormat="1" ht="33.75">
@@ -17228,33 +17244,33 @@
         <v>36</v>
       </c>
       <c r="J78" s="132" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K78" s="132" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L78" s="34"/>
       <c r="M78" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N78" s="153">
         <v>43817</v>
       </c>
       <c r="O78" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P78" s="32"/>
       <c r="Q78" s="560"/>
       <c r="R78" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S78" s="753" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="79" spans="1:19" s="31" customFormat="1" ht="33.75">
       <c r="A79" s="40" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B79" s="38"/>
       <c r="C79" s="38"/>
@@ -17265,28 +17281,28 @@
       <c r="H79" s="38"/>
       <c r="I79" s="38"/>
       <c r="J79" s="132" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K79" s="132" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L79" s="34"/>
       <c r="M79" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N79" s="153">
         <v>43817</v>
       </c>
       <c r="O79" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P79" s="32"/>
       <c r="Q79" s="706"/>
       <c r="R79" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S79" s="753" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="80" spans="1:19" s="31" customFormat="1" ht="33.75">
@@ -17310,28 +17326,28 @@
         <v>49</v>
       </c>
       <c r="J80" s="132" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K80" s="132" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L80" s="34"/>
       <c r="M80" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N80" s="153">
         <v>43818</v>
       </c>
       <c r="O80" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P80" s="32"/>
       <c r="Q80" s="560"/>
       <c r="R80" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S80" s="753" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="81" spans="1:19" s="31" customFormat="1" ht="23.1" customHeight="1">
@@ -17353,28 +17369,28 @@
         <v>49</v>
       </c>
       <c r="J81" s="132" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K81" s="132" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L81" s="34"/>
       <c r="M81" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N81" s="153">
         <v>43818</v>
       </c>
       <c r="O81" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P81" s="32"/>
       <c r="Q81" s="560"/>
       <c r="R81" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S81" s="753" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="82" spans="1:19" s="31" customFormat="1" ht="23.1" customHeight="1">
@@ -17396,28 +17412,28 @@
         <v>49</v>
       </c>
       <c r="J82" s="132" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K82" s="132" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L82" s="34"/>
       <c r="M82" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N82" s="153">
         <v>43818</v>
       </c>
       <c r="O82" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P82" s="32"/>
       <c r="Q82" s="560"/>
       <c r="R82" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S82" s="753" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="83" spans="1:19" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
@@ -17470,28 +17486,28 @@
         <v>49</v>
       </c>
       <c r="J84" s="132" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K84" s="132" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L84" s="34"/>
       <c r="M84" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N84" s="153">
         <v>43818</v>
       </c>
       <c r="O84" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P84" s="32"/>
       <c r="Q84" s="560"/>
       <c r="R84" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S84" s="753" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="85" spans="1:19" s="31" customFormat="1" ht="45">
@@ -17513,28 +17529,28 @@
         <v>49</v>
       </c>
       <c r="J85" s="132" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K85" s="132" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L85" s="34"/>
       <c r="M85" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N85" s="153">
         <v>43818</v>
       </c>
       <c r="O85" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P85" s="32"/>
       <c r="Q85" s="560"/>
       <c r="R85" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S85" s="753" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="86" spans="1:19" s="720" customFormat="1" ht="23.1" customHeight="1">
@@ -17556,7 +17572,7 @@
         <v>49</v>
       </c>
       <c r="J86" s="269" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K86" s="269"/>
       <c r="L86" s="52"/>
@@ -17587,7 +17603,7 @@
         <v>49</v>
       </c>
       <c r="J87" s="269" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K87" s="269"/>
       <c r="L87" s="52"/>
@@ -17620,28 +17636,28 @@
         <v>290</v>
       </c>
       <c r="J88" s="132" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K88" s="110" t="s">
         <v>432</v>
       </c>
       <c r="L88" s="34"/>
       <c r="M88" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N88" s="153">
         <v>43818</v>
       </c>
       <c r="O88" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P88" s="32"/>
       <c r="Q88" s="560"/>
       <c r="R88" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S88" s="753" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="89" spans="1:19" s="31" customFormat="1" ht="23.1" customHeight="1">
@@ -17665,28 +17681,28 @@
         <v>53</v>
       </c>
       <c r="J89" s="132" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K89" s="132" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L89" s="34"/>
       <c r="M89" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N89" s="153">
         <v>43818</v>
       </c>
       <c r="O89" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P89" s="32"/>
       <c r="Q89" s="560"/>
       <c r="R89" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S89" s="753" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="90" spans="1:19" s="31" customFormat="1" ht="33.75">
@@ -17708,28 +17724,28 @@
         <v>53</v>
       </c>
       <c r="J90" s="132" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K90" s="110" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L90" s="34"/>
       <c r="M90" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N90" s="153">
         <v>43818</v>
       </c>
       <c r="O90" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P90" s="32"/>
       <c r="Q90" s="560"/>
       <c r="R90" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S90" s="753" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="91" spans="1:19" s="720" customFormat="1" ht="22.5">
@@ -17787,25 +17803,25 @@
         <v>435</v>
       </c>
       <c r="K92" s="132" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L92" s="34"/>
       <c r="M92" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N92" s="153">
         <v>43818</v>
       </c>
       <c r="O92" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P92" s="32"/>
       <c r="Q92" s="560"/>
       <c r="R92" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S92" s="753" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="93" spans="1:19" s="31" customFormat="1" ht="33.75">
@@ -17830,25 +17846,25 @@
         <v>435</v>
       </c>
       <c r="K93" s="132" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L93" s="34"/>
       <c r="M93" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N93" s="153">
         <v>43818</v>
       </c>
       <c r="O93" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P93" s="32"/>
       <c r="Q93" s="560"/>
       <c r="R93" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S93" s="753" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="94" spans="1:19" s="720" customFormat="1" ht="22.5">
@@ -17901,33 +17917,33 @@
         <v>53</v>
       </c>
       <c r="J95" s="128" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K95" s="132" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L95" s="34"/>
       <c r="M95" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N95" s="153">
         <v>43818</v>
       </c>
       <c r="O95" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P95" s="32"/>
       <c r="Q95" s="560"/>
       <c r="R95" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S95" s="753" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="96" spans="1:19" s="31" customFormat="1" ht="33.75">
       <c r="A96" s="40" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B96" s="38"/>
       <c r="C96" s="38"/>
@@ -17938,28 +17954,28 @@
       <c r="H96" s="711"/>
       <c r="I96" s="712"/>
       <c r="J96" s="704" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K96" s="132" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L96" s="34"/>
       <c r="M96" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N96" s="153">
         <v>43818</v>
       </c>
       <c r="O96" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P96" s="32"/>
       <c r="Q96" s="706"/>
       <c r="R96" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S96" s="753" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="97" spans="1:19" s="31" customFormat="1" ht="22.5" hidden="1">
@@ -18014,28 +18030,28 @@
         <v>60</v>
       </c>
       <c r="J98" s="704" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K98" s="132" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L98" s="34"/>
       <c r="M98" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N98" s="153">
         <v>43818</v>
       </c>
       <c r="O98" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P98" s="136"/>
       <c r="Q98" s="562"/>
       <c r="R98" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S98" s="753" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="99" spans="1:19" s="31" customFormat="1" ht="33.75">
@@ -18059,28 +18075,28 @@
         <v>60</v>
       </c>
       <c r="J99" s="128" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K99" s="132" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L99" s="135"/>
       <c r="M99" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N99" s="153">
         <v>43818</v>
       </c>
       <c r="O99" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P99" s="136"/>
       <c r="Q99" s="562"/>
       <c r="R99" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S99" s="753" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="100" spans="1:19" s="720" customFormat="1" ht="23.1" customHeight="1">
@@ -18133,28 +18149,28 @@
         <v>60</v>
       </c>
       <c r="J101" s="704" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K101" s="132" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L101" s="34"/>
       <c r="M101" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N101" s="153">
         <v>43818</v>
       </c>
       <c r="O101" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P101" s="136"/>
       <c r="Q101" s="562"/>
       <c r="R101" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S101" s="753" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="102" spans="1:19" s="31" customFormat="1" ht="33.75">
@@ -18176,28 +18192,28 @@
         <v>60</v>
       </c>
       <c r="J102" s="704" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K102" s="132" t="s">
         <v>393</v>
       </c>
       <c r="L102" s="34"/>
       <c r="M102" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N102" s="153">
         <v>43818</v>
       </c>
       <c r="O102" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P102" s="136"/>
       <c r="Q102" s="562"/>
       <c r="R102" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S102" s="753" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="103" spans="1:19" s="31" customFormat="1" ht="33.75">
@@ -18219,28 +18235,28 @@
         <v>60</v>
       </c>
       <c r="J103" s="704" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K103" s="132" t="s">
         <v>393</v>
       </c>
       <c r="L103" s="34"/>
       <c r="M103" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N103" s="153">
         <v>43818</v>
       </c>
       <c r="O103" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P103" s="136"/>
       <c r="Q103" s="562"/>
       <c r="R103" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S103" s="753" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="104" spans="1:19" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
@@ -18420,25 +18436,25 @@
         <v>412</v>
       </c>
       <c r="K109" s="132" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L109" s="34"/>
       <c r="M109" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N109" s="153">
         <v>43818</v>
       </c>
       <c r="O109" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P109" s="136"/>
       <c r="Q109" s="562"/>
       <c r="R109" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S109" s="753" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="110" spans="1:19" s="720" customFormat="1" ht="38.25" customHeight="1">
@@ -18457,7 +18473,7 @@
         <v>415</v>
       </c>
       <c r="K110" s="269" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L110" s="734"/>
       <c r="M110" s="735"/>
@@ -18470,7 +18486,7 @@
     </row>
     <row r="111" spans="1:19" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A111" s="717" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B111" s="38"/>
       <c r="C111" s="38"/>
@@ -18481,28 +18497,28 @@
       <c r="H111" s="38"/>
       <c r="I111" s="38"/>
       <c r="J111" s="704" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K111" s="132" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L111" s="34"/>
       <c r="M111" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N111" s="153">
         <v>43818</v>
       </c>
       <c r="O111" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P111" s="719"/>
       <c r="Q111" s="706"/>
       <c r="R111" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S111" s="753" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="112" spans="1:19" s="31" customFormat="1" ht="33.75">
@@ -18524,28 +18540,28 @@
         <v>60</v>
       </c>
       <c r="J112" s="704" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K112" s="132" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L112" s="34"/>
       <c r="M112" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N112" s="153">
         <v>43818</v>
       </c>
       <c r="O112" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P112" s="136"/>
       <c r="Q112" s="562"/>
       <c r="R112" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S112" s="753" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="113" spans="1:19" s="31" customFormat="1" ht="59.25" customHeight="1">
@@ -18567,28 +18583,28 @@
         <v>60</v>
       </c>
       <c r="J113" s="128" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K113" s="132" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L113" s="135"/>
       <c r="M113" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N113" s="153">
         <v>43818</v>
       </c>
       <c r="O113" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P113" s="136"/>
       <c r="Q113" s="562"/>
       <c r="R113" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S113" s="753" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="114" spans="1:19" s="31" customFormat="1" ht="33.75">
@@ -18610,28 +18626,28 @@
         <v>60</v>
       </c>
       <c r="J114" s="141" t="s">
+        <v>488</v>
+      </c>
+      <c r="K114" s="141" t="s">
         <v>489</v>
-      </c>
-      <c r="K114" s="141" t="s">
-        <v>490</v>
       </c>
       <c r="L114" s="34"/>
       <c r="M114" s="122" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N114" s="153">
         <v>43818</v>
       </c>
       <c r="O114" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P114" s="32"/>
       <c r="Q114" s="562"/>
       <c r="R114" s="752" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S114" s="753" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="115" spans="1:19" s="720" customFormat="1" ht="23.1" customHeight="1">
@@ -18777,7 +18793,7 @@
         <v>60</v>
       </c>
       <c r="J119" s="288" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K119" s="288"/>
       <c r="L119" s="289"/>
@@ -19042,7 +19058,7 @@
   </sheetPr>
   <dimension ref="A1:S128"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1"/>
   <cols>
@@ -19099,7 +19115,7 @@
         <v>15</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J7" s="25" t="s">
         <v>1</v>
@@ -19165,7 +19181,7 @@
         <v>3</v>
       </c>
       <c r="L10" s="300" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="M10" s="300" t="s">
         <v>4</v>
@@ -19206,28 +19222,28 @@
         <v>75</v>
       </c>
       <c r="J11" s="110" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K11" s="110" t="s">
         <v>417</v>
       </c>
       <c r="L11" s="34"/>
       <c r="M11" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N11" s="151">
         <v>43818</v>
       </c>
       <c r="O11" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P11" s="112"/>
       <c r="Q11" s="301"/>
       <c r="R11" s="753" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S11" s="753" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -19282,7 +19298,7 @@
         <v>144</v>
       </c>
       <c r="J13" s="333" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K13" s="333"/>
       <c r="L13" s="334"/>
@@ -19313,7 +19329,7 @@
         <v>23</v>
       </c>
       <c r="J14" s="333" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K14" s="67"/>
       <c r="L14" s="68"/>
@@ -19344,7 +19360,7 @@
         <v>145</v>
       </c>
       <c r="J15" s="333" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K15" s="344"/>
       <c r="L15" s="345"/>
@@ -19375,7 +19391,7 @@
         <v>146</v>
       </c>
       <c r="J16" s="333" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K16" s="344"/>
       <c r="L16" s="345"/>
@@ -19437,7 +19453,7 @@
         <v>29</v>
       </c>
       <c r="J18" s="179" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K18" s="351"/>
       <c r="L18" s="52"/>
@@ -20517,22 +20533,28 @@
         <v>36</v>
       </c>
       <c r="J54" s="778" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K54" s="788" t="s">
         <v>394</v>
       </c>
       <c r="L54" s="771"/>
-      <c r="M54" s="780"/>
-      <c r="N54" s="781"/>
-      <c r="O54" s="782"/>
+      <c r="M54" s="780" t="s">
+        <v>649</v>
+      </c>
+      <c r="N54" s="781">
+        <v>43900</v>
+      </c>
+      <c r="O54" s="782" t="s">
+        <v>578</v>
+      </c>
       <c r="P54" s="47"/>
       <c r="Q54" s="302"/>
       <c r="R54" s="753" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S54" s="753" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="55" spans="1:19" s="31" customFormat="1" ht="22.5">
@@ -20554,28 +20576,28 @@
         <v>147</v>
       </c>
       <c r="J55" s="128" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K55" s="43" t="s">
         <v>394</v>
       </c>
       <c r="L55" s="34"/>
       <c r="M55" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N55" s="151">
         <v>43818</v>
       </c>
       <c r="O55" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P55" s="32"/>
       <c r="Q55" s="310"/>
       <c r="R55" s="753" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S55" s="753" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="56" spans="1:19" s="31" customFormat="1" ht="22.5">
@@ -20597,28 +20619,28 @@
         <v>147</v>
       </c>
       <c r="J56" s="128" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K56" s="43" t="s">
         <v>394</v>
       </c>
       <c r="L56" s="34"/>
       <c r="M56" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N56" s="151">
         <v>43818</v>
       </c>
       <c r="O56" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P56" s="32"/>
       <c r="Q56" s="310"/>
       <c r="R56" s="753" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S56" s="753" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="57" spans="1:19" s="41" customFormat="1" ht="22.5">
@@ -20640,28 +20662,28 @@
         <v>36</v>
       </c>
       <c r="J57" s="128" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K57" s="43" t="s">
         <v>394</v>
       </c>
       <c r="L57" s="34"/>
       <c r="M57" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N57" s="151">
         <v>43818</v>
       </c>
       <c r="O57" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P57" s="32"/>
       <c r="Q57" s="310"/>
       <c r="R57" s="753" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S57" s="753" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="58" spans="1:19" s="41" customFormat="1" ht="22.5">
@@ -20683,28 +20705,28 @@
         <v>147</v>
       </c>
       <c r="J58" s="128" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K58" s="43" t="s">
         <v>394</v>
       </c>
       <c r="L58" s="34"/>
       <c r="M58" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N58" s="151">
         <v>43818</v>
       </c>
       <c r="O58" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P58" s="32"/>
       <c r="Q58" s="310"/>
       <c r="R58" s="753" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S58" s="753" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="59" spans="1:19" s="31" customFormat="1" ht="22.5">
@@ -20830,21 +20852,21 @@
       </c>
       <c r="L62" s="34"/>
       <c r="M62" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N62" s="151">
         <v>43818</v>
       </c>
       <c r="O62" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P62" s="32"/>
       <c r="Q62" s="620"/>
       <c r="R62" s="753" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S62" s="753" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="63" spans="1:19" s="31" customFormat="1" ht="33.75">
@@ -20873,21 +20895,21 @@
       </c>
       <c r="L63" s="34"/>
       <c r="M63" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N63" s="151">
         <v>43818</v>
       </c>
       <c r="O63" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P63" s="32"/>
       <c r="Q63" s="620"/>
       <c r="R63" s="753" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S63" s="753" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="64" spans="1:19" s="31" customFormat="1" ht="33.75">
@@ -20911,28 +20933,28 @@
         <v>49</v>
       </c>
       <c r="J64" s="132" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K64" s="311" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L64" s="34"/>
       <c r="M64" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N64" s="151">
         <v>43818</v>
       </c>
       <c r="O64" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P64" s="32"/>
       <c r="Q64" s="312"/>
       <c r="R64" s="753" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S64" s="753" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="65" spans="1:19" s="31" customFormat="1" ht="23.1" customHeight="1">
@@ -20954,28 +20976,28 @@
         <v>49</v>
       </c>
       <c r="J65" s="132" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K65" s="311" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L65" s="34"/>
       <c r="M65" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N65" s="151">
         <v>43818</v>
       </c>
       <c r="O65" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P65" s="32"/>
       <c r="Q65" s="312"/>
       <c r="R65" s="753" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S65" s="753" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="66" spans="1:19" s="31" customFormat="1" ht="23.1" customHeight="1">
@@ -21470,22 +21492,28 @@
         <v>60</v>
       </c>
       <c r="J81" s="778" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K81" s="779" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L81" s="771"/>
-      <c r="M81" s="780"/>
-      <c r="N81" s="781"/>
-      <c r="O81" s="782"/>
+      <c r="M81" s="780" t="s">
+        <v>649</v>
+      </c>
+      <c r="N81" s="781">
+        <v>43900</v>
+      </c>
+      <c r="O81" s="782" t="s">
+        <v>578</v>
+      </c>
       <c r="P81" s="783"/>
       <c r="Q81" s="784"/>
       <c r="R81" s="753" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S81" s="753" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="82" spans="1:19" s="31" customFormat="1" ht="22.5">
@@ -21509,28 +21537,28 @@
         <v>60</v>
       </c>
       <c r="J82" s="128" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K82" s="311" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L82" s="34"/>
       <c r="M82" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N82" s="151">
         <v>43818</v>
       </c>
       <c r="O82" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P82" s="316"/>
       <c r="Q82" s="317"/>
       <c r="R82" s="753" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S82" s="753" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="83" spans="1:19" s="31" customFormat="1" ht="23.1" customHeight="1">
@@ -21552,7 +21580,7 @@
         <v>60</v>
       </c>
       <c r="J83" s="333" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K83" s="495"/>
       <c r="L83" s="503"/>
@@ -21583,28 +21611,28 @@
         <v>60</v>
       </c>
       <c r="J84" s="128" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K84" s="311" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L84" s="34"/>
       <c r="M84" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N84" s="151">
         <v>43818</v>
       </c>
       <c r="O84" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P84" s="316"/>
       <c r="Q84" s="317"/>
       <c r="R84" s="753" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S84" s="753" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="85" spans="1:19" s="792" customFormat="1" ht="22.5">
@@ -21626,22 +21654,28 @@
         <v>60</v>
       </c>
       <c r="J85" s="778" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K85" s="779" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L85" s="771"/>
-      <c r="M85" s="780"/>
-      <c r="N85" s="781"/>
-      <c r="O85" s="782"/>
+      <c r="M85" s="780" t="s">
+        <v>649</v>
+      </c>
+      <c r="N85" s="781">
+        <v>43900</v>
+      </c>
+      <c r="O85" s="782" t="s">
+        <v>578</v>
+      </c>
       <c r="P85" s="783"/>
       <c r="Q85" s="784"/>
       <c r="R85" s="791" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S85" s="791" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="86" spans="1:19" s="792" customFormat="1" ht="22.5">
@@ -21663,22 +21697,28 @@
         <v>60</v>
       </c>
       <c r="J86" s="778" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K86" s="779" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L86" s="771"/>
-      <c r="M86" s="780"/>
-      <c r="N86" s="781"/>
-      <c r="O86" s="782"/>
+      <c r="M86" s="780" t="s">
+        <v>649</v>
+      </c>
+      <c r="N86" s="781">
+        <v>43900</v>
+      </c>
+      <c r="O86" s="782" t="s">
+        <v>578</v>
+      </c>
       <c r="P86" s="783"/>
       <c r="Q86" s="784"/>
       <c r="R86" s="791" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S86" s="791" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="87" spans="1:19" s="31" customFormat="1" ht="22.5" hidden="1">
@@ -21855,28 +21895,28 @@
         <v>60</v>
       </c>
       <c r="J92" s="128" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K92" s="311" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L92" s="34"/>
       <c r="M92" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N92" s="151">
         <v>43818</v>
       </c>
       <c r="O92" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P92" s="316"/>
       <c r="Q92" s="317"/>
       <c r="R92" s="753" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S92" s="753" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="93" spans="1:19" s="31" customFormat="1" ht="23.1" customHeight="1">
@@ -21929,7 +21969,7 @@
         <v>60</v>
       </c>
       <c r="J94" s="333" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K94" s="269"/>
       <c r="L94" s="503"/>
@@ -22115,28 +22155,28 @@
         <v>60</v>
       </c>
       <c r="J100" s="321" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K100" s="321" t="s">
         <v>423</v>
       </c>
       <c r="L100" s="34"/>
       <c r="M100" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N100" s="151">
         <v>43818</v>
       </c>
       <c r="O100" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P100" s="145"/>
       <c r="Q100" s="322"/>
       <c r="R100" s="753" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S100" s="753" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="101" spans="1:19" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
@@ -22511,7 +22551,7 @@
         <v>3</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="M10" s="30" t="s">
         <v>4</v>
@@ -22554,33 +22594,33 @@
         <v>148</v>
       </c>
       <c r="J11" s="88" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K11" s="88" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L11" s="34"/>
       <c r="M11" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N11" s="151">
         <v>43818</v>
       </c>
       <c r="O11" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P11" s="526"/>
       <c r="Q11" s="526"/>
       <c r="R11" s="753" t="s">
+        <v>579</v>
+      </c>
+      <c r="S11" s="753" t="s">
         <v>580</v>
-      </c>
-      <c r="S11" s="753" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="31" customFormat="1" ht="22.5">
       <c r="A12" s="523" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B12" s="711"/>
       <c r="C12" s="711"/>
@@ -22591,33 +22631,33 @@
       <c r="H12" s="711"/>
       <c r="I12" s="711"/>
       <c r="J12" s="705" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K12" s="88" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L12" s="34"/>
       <c r="M12" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N12" s="151">
         <v>43818</v>
       </c>
       <c r="O12" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P12" s="760"/>
       <c r="Q12" s="760"/>
       <c r="R12" s="753" t="s">
+        <v>623</v>
+      </c>
+      <c r="S12" s="753" t="s">
         <v>624</v>
-      </c>
-      <c r="S12" s="753" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="31" customFormat="1" ht="22.5">
       <c r="A13" s="523" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B13" s="711"/>
       <c r="C13" s="711"/>
@@ -22628,33 +22668,33 @@
       <c r="H13" s="711"/>
       <c r="I13" s="711"/>
       <c r="J13" s="705" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K13" s="88" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L13" s="34"/>
       <c r="M13" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N13" s="151">
         <v>43818</v>
       </c>
       <c r="O13" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P13" s="760"/>
       <c r="Q13" s="760"/>
       <c r="R13" s="753" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="S13" s="753" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="31" customFormat="1" ht="22.5">
       <c r="A14" s="523" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B14" s="711"/>
       <c r="C14" s="711"/>
@@ -22665,33 +22705,33 @@
       <c r="H14" s="711"/>
       <c r="I14" s="711"/>
       <c r="J14" s="705" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K14" s="88" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L14" s="34"/>
       <c r="M14" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N14" s="151">
         <v>43818</v>
       </c>
       <c r="O14" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P14" s="760"/>
       <c r="Q14" s="760"/>
       <c r="R14" s="753" t="s">
+        <v>626</v>
+      </c>
+      <c r="S14" s="753" t="s">
         <v>627</v>
-      </c>
-      <c r="S14" s="753" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="31" customFormat="1" ht="22.5">
       <c r="A15" s="523" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B15" s="711"/>
       <c r="C15" s="711"/>
@@ -22702,33 +22742,33 @@
       <c r="H15" s="711"/>
       <c r="I15" s="711"/>
       <c r="J15" s="705" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="K15" s="88" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L15" s="34"/>
       <c r="M15" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N15" s="151">
         <v>43818</v>
       </c>
       <c r="O15" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P15" s="760"/>
       <c r="Q15" s="760"/>
       <c r="R15" s="753" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="S15" s="753" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="31" customFormat="1" ht="33.75">
       <c r="A16" s="523" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B16" s="711"/>
       <c r="C16" s="711"/>
@@ -22739,33 +22779,33 @@
       <c r="H16" s="711"/>
       <c r="I16" s="711"/>
       <c r="J16" s="705" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K16" s="88" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L16" s="34"/>
       <c r="M16" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N16" s="151">
         <v>43818</v>
       </c>
       <c r="O16" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P16" s="760"/>
       <c r="Q16" s="760"/>
       <c r="R16" s="753" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="S16" s="753" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="17" spans="1:19" s="31" customFormat="1" ht="33.75">
       <c r="A17" s="523" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B17" s="711"/>
       <c r="C17" s="711"/>
@@ -22776,33 +22816,33 @@
       <c r="H17" s="711"/>
       <c r="I17" s="711"/>
       <c r="J17" s="705" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K17" s="88" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L17" s="34"/>
       <c r="M17" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N17" s="151">
         <v>43818</v>
       </c>
       <c r="O17" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P17" s="760"/>
       <c r="Q17" s="760"/>
       <c r="R17" s="753" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="S17" s="753" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="18" spans="1:19" s="31" customFormat="1" ht="33.75">
       <c r="A18" s="523" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B18" s="711"/>
       <c r="C18" s="711"/>
@@ -22813,33 +22853,33 @@
       <c r="H18" s="711"/>
       <c r="I18" s="711"/>
       <c r="J18" s="705" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K18" s="88" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L18" s="34"/>
       <c r="M18" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N18" s="151">
         <v>43818</v>
       </c>
       <c r="O18" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P18" s="760"/>
       <c r="Q18" s="760"/>
       <c r="R18" s="753" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="S18" s="753" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="19" spans="1:19" s="31" customFormat="1" ht="33.75">
       <c r="A19" s="523" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B19" s="711"/>
       <c r="C19" s="711"/>
@@ -22850,33 +22890,33 @@
       <c r="H19" s="711"/>
       <c r="I19" s="711"/>
       <c r="J19" s="705" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K19" s="88" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L19" s="34"/>
       <c r="M19" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N19" s="151">
         <v>43818</v>
       </c>
       <c r="O19" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P19" s="760"/>
       <c r="Q19" s="760"/>
       <c r="R19" s="753" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="S19" s="753" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="20" spans="1:19" s="31" customFormat="1" ht="33.75">
       <c r="A20" s="523" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B20" s="711"/>
       <c r="C20" s="711"/>
@@ -22887,33 +22927,33 @@
       <c r="H20" s="711"/>
       <c r="I20" s="711"/>
       <c r="J20" s="705" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K20" s="88" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L20" s="34"/>
       <c r="M20" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N20" s="151">
         <v>43818</v>
       </c>
       <c r="O20" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P20" s="760"/>
       <c r="Q20" s="760"/>
       <c r="R20" s="753" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="S20" s="753" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="21" spans="1:19" s="31" customFormat="1" ht="33.75">
       <c r="A21" s="523" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B21" s="711"/>
       <c r="C21" s="711"/>
@@ -22924,33 +22964,33 @@
       <c r="H21" s="711"/>
       <c r="I21" s="711"/>
       <c r="J21" s="705" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K21" s="88" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L21" s="34"/>
       <c r="M21" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N21" s="151">
         <v>43818</v>
       </c>
       <c r="O21" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P21" s="760"/>
       <c r="Q21" s="760"/>
       <c r="R21" s="753" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="S21" s="753" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="22" spans="1:19" s="31" customFormat="1" ht="33.75">
       <c r="A22" s="523" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B22" s="711"/>
       <c r="C22" s="711"/>
@@ -22961,33 +23001,33 @@
       <c r="H22" s="711"/>
       <c r="I22" s="711"/>
       <c r="J22" s="705" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K22" s="88" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L22" s="34"/>
       <c r="M22" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N22" s="151">
         <v>43818</v>
       </c>
       <c r="O22" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P22" s="760"/>
       <c r="Q22" s="760"/>
       <c r="R22" s="753" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="S22" s="753" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="23" spans="1:19" s="31" customFormat="1" ht="22.5">
       <c r="A23" s="523" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B23" s="711"/>
       <c r="C23" s="711"/>
@@ -22998,33 +23038,33 @@
       <c r="H23" s="711"/>
       <c r="I23" s="711"/>
       <c r="J23" s="705" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="K23" s="88" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L23" s="34"/>
       <c r="M23" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N23" s="151">
         <v>43818</v>
       </c>
       <c r="O23" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P23" s="760"/>
       <c r="Q23" s="760"/>
       <c r="R23" s="753" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="S23" s="753" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="24" spans="1:19" s="31" customFormat="1" ht="22.5">
       <c r="A24" s="523" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B24" s="711"/>
       <c r="C24" s="711"/>
@@ -23035,33 +23075,33 @@
       <c r="H24" s="711"/>
       <c r="I24" s="711"/>
       <c r="J24" s="705" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="K24" s="88" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L24" s="34"/>
       <c r="M24" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N24" s="151">
         <v>43818</v>
       </c>
       <c r="O24" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P24" s="760"/>
       <c r="Q24" s="760"/>
       <c r="R24" s="753" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="S24" s="753" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="25" spans="1:19" s="31" customFormat="1" ht="22.5">
       <c r="A25" s="523" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B25" s="711"/>
       <c r="C25" s="711"/>
@@ -23072,33 +23112,33 @@
       <c r="H25" s="711"/>
       <c r="I25" s="711"/>
       <c r="J25" s="705" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K25" s="88" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L25" s="34"/>
       <c r="M25" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N25" s="151">
         <v>43818</v>
       </c>
       <c r="O25" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P25" s="760"/>
       <c r="Q25" s="760"/>
       <c r="R25" s="753" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="S25" s="753" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="26" spans="1:19" s="31" customFormat="1" ht="22.5">
       <c r="A26" s="523" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B26" s="711"/>
       <c r="C26" s="711"/>
@@ -23109,28 +23149,28 @@
       <c r="H26" s="711"/>
       <c r="I26" s="711"/>
       <c r="J26" s="705" t="s">
+        <v>610</v>
+      </c>
+      <c r="K26" s="88" t="s">
         <v>611</v>
-      </c>
-      <c r="K26" s="88" t="s">
-        <v>612</v>
       </c>
       <c r="L26" s="34"/>
       <c r="M26" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N26" s="151">
         <v>43818</v>
       </c>
       <c r="O26" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P26" s="760"/>
       <c r="Q26" s="760"/>
       <c r="R26" s="753" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="S26" s="753" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="27" spans="1:19" s="31" customFormat="1" ht="22.5">
@@ -23152,36 +23192,36 @@
         <v>85</v>
       </c>
       <c r="J27" s="518" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K27" s="88"/>
       <c r="L27" s="528"/>
       <c r="M27" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N27" s="151">
         <v>43818</v>
       </c>
       <c r="O27" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P27" s="529"/>
       <c r="Q27" s="529"/>
       <c r="R27" s="753" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="S27" s="753" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="28" spans="1:19" s="31" customFormat="1" ht="67.5">
       <c r="A28" s="772" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B28" s="763"/>
       <c r="C28" s="763"/>
       <c r="D28" s="765" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E28" s="766"/>
       <c r="F28" s="758"/>
@@ -23193,15 +23233,21 @@
         <v>85</v>
       </c>
       <c r="J28" s="769" t="s">
+        <v>641</v>
+      </c>
+      <c r="K28" s="770" t="s">
         <v>642</v>
       </c>
-      <c r="K28" s="770" t="s">
-        <v>643</v>
-      </c>
       <c r="L28" s="771"/>
-      <c r="M28" s="112"/>
-      <c r="N28" s="151"/>
-      <c r="O28" s="113"/>
+      <c r="M28" s="780" t="s">
+        <v>649</v>
+      </c>
+      <c r="N28" s="781">
+        <v>43900</v>
+      </c>
+      <c r="O28" s="782" t="s">
+        <v>578</v>
+      </c>
       <c r="P28" s="764"/>
       <c r="Q28" s="764"/>
       <c r="R28" s="753"/>
@@ -23226,28 +23272,28 @@
         <v>85</v>
       </c>
       <c r="J29" s="88" t="s">
+        <v>582</v>
+      </c>
+      <c r="K29" s="518" t="s">
         <v>583</v>
-      </c>
-      <c r="K29" s="518" t="s">
-        <v>584</v>
       </c>
       <c r="L29" s="528"/>
       <c r="M29" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N29" s="151">
         <v>43818</v>
       </c>
       <c r="O29" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P29" s="529"/>
       <c r="Q29" s="529"/>
       <c r="R29" s="756" t="s">
+        <v>584</v>
+      </c>
+      <c r="S29" s="756" t="s">
         <v>585</v>
-      </c>
-      <c r="S29" s="756" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="30" spans="1:19" s="720" customFormat="1" ht="22.5">
@@ -23269,7 +23315,7 @@
         <v>85</v>
       </c>
       <c r="J30" s="739" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K30" s="521"/>
       <c r="L30" s="535"/>
@@ -23302,28 +23348,28 @@
         <v>85</v>
       </c>
       <c r="J31" s="518" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K31" s="88" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L31" s="34"/>
       <c r="M31" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N31" s="151">
         <v>43818</v>
       </c>
       <c r="O31" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P31" s="529"/>
       <c r="Q31" s="529"/>
       <c r="R31" s="753" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="S31" s="753" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="32" spans="1:19" s="720" customFormat="1" ht="22.5">
@@ -23345,7 +23391,7 @@
         <v>85</v>
       </c>
       <c r="J32" s="521" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K32" s="80"/>
       <c r="L32" s="52"/>
@@ -23407,28 +23453,28 @@
         <v>85</v>
       </c>
       <c r="J34" s="518" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K34" s="88" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N34" s="151">
         <v>43818</v>
       </c>
       <c r="O34" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P34" s="529"/>
       <c r="Q34" s="529"/>
       <c r="R34" s="756" t="s">
+        <v>587</v>
+      </c>
+      <c r="S34" s="757" t="s">
         <v>588</v>
-      </c>
-      <c r="S34" s="757" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="35" spans="1:19" s="41" customFormat="1" ht="180">
@@ -23452,28 +23498,28 @@
         <v>85</v>
       </c>
       <c r="J35" s="518" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K35" s="88" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L35" s="34"/>
       <c r="M35" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N35" s="151">
         <v>43818</v>
       </c>
       <c r="O35" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P35" s="529"/>
       <c r="Q35" s="529"/>
       <c r="R35" s="756" t="s">
+        <v>589</v>
+      </c>
+      <c r="S35" s="756" t="s">
         <v>590</v>
-      </c>
-      <c r="S35" s="756" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="36" spans="1:19" s="41" customFormat="1" ht="43.5" customHeight="1">
@@ -23497,26 +23543,26 @@
         <v>85</v>
       </c>
       <c r="J36" s="518" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K36" s="518"/>
       <c r="L36" s="528"/>
       <c r="M36" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N36" s="151">
         <v>43818</v>
       </c>
       <c r="O36" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P36" s="529"/>
       <c r="Q36" s="529"/>
       <c r="R36" s="753" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="S36" s="753" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="37" spans="1:19" s="31" customFormat="1" ht="38.25" customHeight="1">
@@ -23571,7 +23617,7 @@
         <v>85</v>
       </c>
       <c r="J38" s="521" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K38" s="521"/>
       <c r="L38" s="535"/>
@@ -23835,147 +23881,147 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B1" t="s">
         <v>514</v>
-      </c>
-      <c r="B1" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" s="743" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C4" s="744" t="s">
+        <v>527</v>
+      </c>
+      <c r="D4" s="743" t="s">
         <v>528</v>
-      </c>
-      <c r="D4" s="743" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="741" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C5" s="741" t="s">
+        <v>515</v>
+      </c>
+      <c r="D5" s="741" t="s">
         <v>516</v>
-      </c>
-      <c r="D5" s="741" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="741" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C6" s="741" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D6" s="741" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="741" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C7" s="741" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D7" s="741" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="741" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C8" s="741" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D8" s="741" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="742" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C9" s="741" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D9" s="741" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="742" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C10" s="741" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D10" s="741" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="742" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C11" s="741" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D11" s="741" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="742" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C12" s="741" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D12" s="741" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="742" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C13" s="741" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D13" s="741" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="742" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C14" s="741" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D14" s="741" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="742" t="s">
+        <v>540</v>
+      </c>
+      <c r="C15" s="741" t="s">
+        <v>526</v>
+      </c>
+      <c r="D15" s="741" t="s">
         <v>541</v>
-      </c>
-      <c r="C15" s="741" t="s">
-        <v>527</v>
-      </c>
-      <c r="D15" s="741" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -23986,70 +24032,70 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="748" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B19" s="740"/>
     </row>
     <row r="20" spans="1:5">
       <c r="B20" s="746" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="B21" s="743" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C21" s="744" t="s">
+        <v>527</v>
+      </c>
+      <c r="D21" s="743" t="s">
         <v>528</v>
-      </c>
-      <c r="D21" s="743" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="B22" s="741" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C22" s="741" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D22" s="749"/>
     </row>
     <row r="23" spans="1:5">
       <c r="B23" s="741" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C23" s="741" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D23" s="749"/>
     </row>
     <row r="24" spans="1:5">
       <c r="B24" s="741" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C24" s="741" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D24" s="749"/>
       <c r="E24" s="750"/>
     </row>
     <row r="25" spans="1:5">
       <c r="B25" s="741" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C25" s="741" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D25" s="749"/>
       <c r="E25" s="750"/>
     </row>
     <row r="26" spans="1:5">
       <c r="B26" s="742" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C26" s="741" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D26" s="741">
         <v>1</v>
@@ -24057,10 +24103,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="B27" s="742" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C27" s="741" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D27" s="741">
         <v>0</v>
@@ -24068,54 +24114,54 @@
     </row>
     <row r="28" spans="1:5">
       <c r="B28" s="742" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C28" s="741" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D28" s="751" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="B29" s="742" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C29" s="741" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D29" s="749" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="B30" s="742" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C30" s="741" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D30" s="751" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="B31" s="742" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C31" s="741" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D31" s="749" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="B32" s="742" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C32" s="741" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D32" s="747"/>
     </row>
@@ -24127,62 +24173,62 @@
     </row>
     <row r="36" spans="2:4" ht="25.5">
       <c r="B36" s="746" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="743" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C37" s="744" t="s">
+        <v>527</v>
+      </c>
+      <c r="D37" s="743" t="s">
         <v>528</v>
-      </c>
-      <c r="D37" s="743" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="741" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C38" s="741" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D38" s="749"/>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="741" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C39" s="741" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D39" s="749"/>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="741" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C40" s="741" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D40" s="749"/>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="741" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C41" s="741" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D41" s="749"/>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" s="742" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C42" s="741" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D42" s="741">
         <v>1</v>
@@ -24190,10 +24236,10 @@
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="742" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C43" s="741" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D43" s="741">
         <v>1</v>
@@ -24201,54 +24247,54 @@
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="742" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C44" s="741" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D44" s="749" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="742" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C45" s="741" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D45" s="749" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="742" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C46" s="741" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D46" s="749" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="742" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C47" s="741" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D47" s="749" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="742" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C48" s="741" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D48" s="747"/>
     </row>
@@ -24260,62 +24306,62 @@
     </row>
     <row r="52" spans="2:4">
       <c r="B52" s="746" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="743" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C53" s="744" t="s">
+        <v>527</v>
+      </c>
+      <c r="D53" s="743" t="s">
         <v>528</v>
-      </c>
-      <c r="D53" s="743" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="741" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C54" s="741" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D54" s="749"/>
     </row>
     <row r="55" spans="2:4">
       <c r="B55" s="741" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C55" s="741" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D55" s="749"/>
     </row>
     <row r="56" spans="2:4">
       <c r="B56" s="741" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C56" s="741" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D56" s="749"/>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="741" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C57" s="741" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D57" s="749"/>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="742" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C58" s="741" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D58" s="741">
         <v>0</v>
@@ -24323,10 +24369,10 @@
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="742" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C59" s="741" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D59" s="741">
         <v>1</v>
@@ -24334,54 +24380,54 @@
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="742" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C60" s="741" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D60" s="749" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="742" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C61" s="741" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D61" s="751" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="62" spans="2:4">
       <c r="B62" s="742" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C62" s="741" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D62" s="749" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="63" spans="2:4">
       <c r="B63" s="742" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C63" s="741" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D63" s="751" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="742" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C64" s="741" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D64" s="747"/>
     </row>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_取引単体(画面)_WA10202_プロジェクト照会.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_取引単体(画面)_WA10202_プロジェクト照会.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1242C28A-4B99-49B5-BBA4-F5998B22D0F3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2DBB7D-60C4-4EA4-810B-64EFC71045D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5529,10 +5529,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>金沢</t>
-    <rPh sb="0" eb="2">
-      <t>カナザワ</t>
-    </rPh>
+    <t>金澤</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -11666,6 +11663,114 @@
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="179" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -11681,197 +11786,89 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="121" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="122" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="21" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="23" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="22" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="21" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="23" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="22" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="121" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="122" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -13340,57 +13337,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="828" t="s">
+      <c r="A1" s="800" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="829"/>
-      <c r="C1" s="829"/>
-      <c r="D1" s="830"/>
-      <c r="E1" s="831" t="s">
+      <c r="B1" s="801"/>
+      <c r="C1" s="801"/>
+      <c r="D1" s="802"/>
+      <c r="E1" s="803" t="s">
         <v>158</v>
       </c>
-      <c r="F1" s="832"/>
-      <c r="G1" s="832"/>
-      <c r="H1" s="832"/>
-      <c r="I1" s="832"/>
-      <c r="J1" s="832"/>
-      <c r="K1" s="832"/>
-      <c r="L1" s="832"/>
-      <c r="M1" s="832"/>
-      <c r="N1" s="833"/>
-      <c r="O1" s="837" t="s">
+      <c r="F1" s="804"/>
+      <c r="G1" s="804"/>
+      <c r="H1" s="804"/>
+      <c r="I1" s="804"/>
+      <c r="J1" s="804"/>
+      <c r="K1" s="804"/>
+      <c r="L1" s="804"/>
+      <c r="M1" s="804"/>
+      <c r="N1" s="805"/>
+      <c r="O1" s="809" t="s">
         <v>104</v>
       </c>
-      <c r="P1" s="838"/>
-      <c r="Q1" s="838"/>
-      <c r="R1" s="839"/>
-      <c r="S1" s="846" t="s">
+      <c r="P1" s="810"/>
+      <c r="Q1" s="810"/>
+      <c r="R1" s="811"/>
+      <c r="S1" s="818" t="s">
         <v>122</v>
       </c>
-      <c r="T1" s="847"/>
-      <c r="U1" s="847"/>
-      <c r="V1" s="847"/>
-      <c r="W1" s="847"/>
-      <c r="X1" s="847"/>
-      <c r="Y1" s="847"/>
-      <c r="Z1" s="848"/>
-      <c r="AA1" s="828" t="s">
+      <c r="T1" s="819"/>
+      <c r="U1" s="819"/>
+      <c r="V1" s="819"/>
+      <c r="W1" s="819"/>
+      <c r="X1" s="819"/>
+      <c r="Y1" s="819"/>
+      <c r="Z1" s="820"/>
+      <c r="AA1" s="800" t="s">
         <v>105</v>
       </c>
-      <c r="AB1" s="830"/>
-      <c r="AC1" s="855" t="str">
+      <c r="AB1" s="802"/>
+      <c r="AC1" s="827" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="856"/>
-      <c r="AE1" s="856"/>
-      <c r="AF1" s="857"/>
-      <c r="AG1" s="822">
+      <c r="AD1" s="828"/>
+      <c r="AE1" s="828"/>
+      <c r="AF1" s="829"/>
+      <c r="AG1" s="794">
         <f>IF(D8="","",D8)</f>
         <v>43808</v>
       </c>
-      <c r="AH1" s="823"/>
-      <c r="AI1" s="824"/>
+      <c r="AH1" s="795"/>
+      <c r="AI1" s="796"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -13398,53 +13395,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="828" t="s">
+      <c r="A2" s="800" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="829"/>
-      <c r="C2" s="829"/>
-      <c r="D2" s="830"/>
-      <c r="E2" s="831" t="s">
+      <c r="B2" s="801"/>
+      <c r="C2" s="801"/>
+      <c r="D2" s="802"/>
+      <c r="E2" s="803" t="s">
         <v>159</v>
       </c>
-      <c r="F2" s="832"/>
-      <c r="G2" s="832"/>
-      <c r="H2" s="832"/>
-      <c r="I2" s="832"/>
-      <c r="J2" s="832"/>
-      <c r="K2" s="832"/>
-      <c r="L2" s="832"/>
-      <c r="M2" s="832"/>
-      <c r="N2" s="833"/>
-      <c r="O2" s="840"/>
-      <c r="P2" s="841"/>
-      <c r="Q2" s="841"/>
-      <c r="R2" s="842"/>
-      <c r="S2" s="849"/>
-      <c r="T2" s="850"/>
-      <c r="U2" s="850"/>
-      <c r="V2" s="850"/>
-      <c r="W2" s="850"/>
-      <c r="X2" s="850"/>
-      <c r="Y2" s="850"/>
-      <c r="Z2" s="851"/>
-      <c r="AA2" s="828" t="s">
+      <c r="F2" s="804"/>
+      <c r="G2" s="804"/>
+      <c r="H2" s="804"/>
+      <c r="I2" s="804"/>
+      <c r="J2" s="804"/>
+      <c r="K2" s="804"/>
+      <c r="L2" s="804"/>
+      <c r="M2" s="804"/>
+      <c r="N2" s="805"/>
+      <c r="O2" s="812"/>
+      <c r="P2" s="813"/>
+      <c r="Q2" s="813"/>
+      <c r="R2" s="814"/>
+      <c r="S2" s="821"/>
+      <c r="T2" s="822"/>
+      <c r="U2" s="822"/>
+      <c r="V2" s="822"/>
+      <c r="W2" s="822"/>
+      <c r="X2" s="822"/>
+      <c r="Y2" s="822"/>
+      <c r="Z2" s="823"/>
+      <c r="AA2" s="800" t="s">
         <v>107</v>
       </c>
-      <c r="AB2" s="830"/>
-      <c r="AC2" s="834" t="str">
+      <c r="AB2" s="802"/>
+      <c r="AC2" s="806" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="835"/>
-      <c r="AE2" s="835"/>
-      <c r="AF2" s="836"/>
-      <c r="AG2" s="822">
+      <c r="AD2" s="807"/>
+      <c r="AE2" s="807"/>
+      <c r="AF2" s="808"/>
+      <c r="AG2" s="794">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>43896</v>
       </c>
-      <c r="AH2" s="823"/>
-      <c r="AI2" s="824"/>
+      <c r="AH2" s="795"/>
+      <c r="AI2" s="796"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -13452,45 +13449,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="828" t="s">
+      <c r="A3" s="800" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="829"/>
-      <c r="C3" s="829"/>
-      <c r="D3" s="830"/>
-      <c r="E3" s="831" t="s">
+      <c r="B3" s="801"/>
+      <c r="C3" s="801"/>
+      <c r="D3" s="802"/>
+      <c r="E3" s="803" t="s">
         <v>160</v>
       </c>
-      <c r="F3" s="832"/>
-      <c r="G3" s="832"/>
-      <c r="H3" s="832"/>
-      <c r="I3" s="832"/>
-      <c r="J3" s="832"/>
-      <c r="K3" s="832"/>
-      <c r="L3" s="832"/>
-      <c r="M3" s="832"/>
-      <c r="N3" s="833"/>
-      <c r="O3" s="843"/>
-      <c r="P3" s="844"/>
-      <c r="Q3" s="844"/>
-      <c r="R3" s="845"/>
-      <c r="S3" s="852"/>
-      <c r="T3" s="853"/>
-      <c r="U3" s="853"/>
-      <c r="V3" s="853"/>
-      <c r="W3" s="853"/>
-      <c r="X3" s="853"/>
-      <c r="Y3" s="853"/>
-      <c r="Z3" s="854"/>
-      <c r="AA3" s="828"/>
-      <c r="AB3" s="830"/>
-      <c r="AC3" s="855"/>
-      <c r="AD3" s="856"/>
-      <c r="AE3" s="856"/>
-      <c r="AF3" s="857"/>
-      <c r="AG3" s="822"/>
-      <c r="AH3" s="823"/>
-      <c r="AI3" s="824"/>
+      <c r="F3" s="804"/>
+      <c r="G3" s="804"/>
+      <c r="H3" s="804"/>
+      <c r="I3" s="804"/>
+      <c r="J3" s="804"/>
+      <c r="K3" s="804"/>
+      <c r="L3" s="804"/>
+      <c r="M3" s="804"/>
+      <c r="N3" s="805"/>
+      <c r="O3" s="815"/>
+      <c r="P3" s="816"/>
+      <c r="Q3" s="816"/>
+      <c r="R3" s="817"/>
+      <c r="S3" s="824"/>
+      <c r="T3" s="825"/>
+      <c r="U3" s="825"/>
+      <c r="V3" s="825"/>
+      <c r="W3" s="825"/>
+      <c r="X3" s="825"/>
+      <c r="Y3" s="825"/>
+      <c r="Z3" s="826"/>
+      <c r="AA3" s="800"/>
+      <c r="AB3" s="802"/>
+      <c r="AC3" s="827"/>
+      <c r="AD3" s="828"/>
+      <c r="AE3" s="828"/>
+      <c r="AF3" s="829"/>
+      <c r="AG3" s="794"/>
+      <c r="AH3" s="795"/>
+      <c r="AI3" s="796"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -13527,1048 +13524,1204 @@
       <c r="A7" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="825" t="s">
+      <c r="B7" s="797" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="826"/>
-      <c r="D7" s="825" t="s">
+      <c r="C7" s="798"/>
+      <c r="D7" s="797" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="827"/>
-      <c r="F7" s="826"/>
-      <c r="G7" s="825" t="s">
+      <c r="E7" s="799"/>
+      <c r="F7" s="798"/>
+      <c r="G7" s="797" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="827"/>
-      <c r="I7" s="826"/>
-      <c r="J7" s="825" t="s">
+      <c r="H7" s="799"/>
+      <c r="I7" s="798"/>
+      <c r="J7" s="797" t="s">
         <v>113</v>
       </c>
-      <c r="K7" s="827"/>
-      <c r="L7" s="827"/>
-      <c r="M7" s="827"/>
-      <c r="N7" s="827"/>
-      <c r="O7" s="827"/>
-      <c r="P7" s="826"/>
-      <c r="Q7" s="825" t="s">
+      <c r="K7" s="799"/>
+      <c r="L7" s="799"/>
+      <c r="M7" s="799"/>
+      <c r="N7" s="799"/>
+      <c r="O7" s="799"/>
+      <c r="P7" s="798"/>
+      <c r="Q7" s="797" t="s">
         <v>114</v>
       </c>
-      <c r="R7" s="827"/>
-      <c r="S7" s="827"/>
-      <c r="T7" s="827"/>
-      <c r="U7" s="827"/>
-      <c r="V7" s="827"/>
-      <c r="W7" s="827"/>
-      <c r="X7" s="827"/>
-      <c r="Y7" s="827"/>
-      <c r="Z7" s="827"/>
-      <c r="AA7" s="827"/>
-      <c r="AB7" s="827"/>
-      <c r="AC7" s="827"/>
-      <c r="AD7" s="827"/>
-      <c r="AE7" s="826"/>
-      <c r="AF7" s="825" t="s">
+      <c r="R7" s="799"/>
+      <c r="S7" s="799"/>
+      <c r="T7" s="799"/>
+      <c r="U7" s="799"/>
+      <c r="V7" s="799"/>
+      <c r="W7" s="799"/>
+      <c r="X7" s="799"/>
+      <c r="Y7" s="799"/>
+      <c r="Z7" s="799"/>
+      <c r="AA7" s="799"/>
+      <c r="AB7" s="799"/>
+      <c r="AC7" s="799"/>
+      <c r="AD7" s="799"/>
+      <c r="AE7" s="798"/>
+      <c r="AF7" s="797" t="s">
         <v>115</v>
       </c>
-      <c r="AG7" s="827"/>
-      <c r="AH7" s="827"/>
-      <c r="AI7" s="826"/>
+      <c r="AG7" s="799"/>
+      <c r="AH7" s="799"/>
+      <c r="AI7" s="798"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="812" t="s">
+      <c r="B8" s="846" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="813"/>
-      <c r="D8" s="814">
+      <c r="C8" s="847"/>
+      <c r="D8" s="848">
         <v>43808</v>
       </c>
-      <c r="E8" s="815"/>
-      <c r="F8" s="816"/>
-      <c r="G8" s="817" t="s">
+      <c r="E8" s="849"/>
+      <c r="F8" s="850"/>
+      <c r="G8" s="851" t="s">
         <v>151</v>
       </c>
-      <c r="H8" s="818"/>
-      <c r="I8" s="813"/>
-      <c r="J8" s="809" t="s">
+      <c r="H8" s="852"/>
+      <c r="I8" s="847"/>
+      <c r="J8" s="853" t="s">
         <v>152</v>
       </c>
-      <c r="K8" s="810"/>
-      <c r="L8" s="810"/>
-      <c r="M8" s="810"/>
-      <c r="N8" s="810"/>
-      <c r="O8" s="810"/>
-      <c r="P8" s="811"/>
-      <c r="Q8" s="819" t="s">
+      <c r="K8" s="854"/>
+      <c r="L8" s="854"/>
+      <c r="M8" s="854"/>
+      <c r="N8" s="854"/>
+      <c r="O8" s="854"/>
+      <c r="P8" s="855"/>
+      <c r="Q8" s="856" t="s">
         <v>153</v>
       </c>
-      <c r="R8" s="820"/>
-      <c r="S8" s="820"/>
-      <c r="T8" s="820"/>
-      <c r="U8" s="820"/>
-      <c r="V8" s="820"/>
-      <c r="W8" s="820"/>
-      <c r="X8" s="820"/>
-      <c r="Y8" s="820"/>
-      <c r="Z8" s="820"/>
-      <c r="AA8" s="820"/>
-      <c r="AB8" s="820"/>
-      <c r="AC8" s="820"/>
-      <c r="AD8" s="820"/>
-      <c r="AE8" s="821"/>
-      <c r="AF8" s="809" t="s">
+      <c r="R8" s="857"/>
+      <c r="S8" s="857"/>
+      <c r="T8" s="857"/>
+      <c r="U8" s="857"/>
+      <c r="V8" s="857"/>
+      <c r="W8" s="857"/>
+      <c r="X8" s="857"/>
+      <c r="Y8" s="857"/>
+      <c r="Z8" s="857"/>
+      <c r="AA8" s="857"/>
+      <c r="AB8" s="857"/>
+      <c r="AC8" s="857"/>
+      <c r="AD8" s="857"/>
+      <c r="AE8" s="858"/>
+      <c r="AF8" s="853" t="s">
         <v>154</v>
       </c>
-      <c r="AG8" s="810"/>
-      <c r="AH8" s="810"/>
-      <c r="AI8" s="811"/>
+      <c r="AG8" s="854"/>
+      <c r="AH8" s="854"/>
+      <c r="AI8" s="855"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22">
         <v>2</v>
       </c>
-      <c r="B9" s="794">
+      <c r="B9" s="830">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="795"/>
-      <c r="D9" s="796">
+      <c r="C9" s="831"/>
+      <c r="D9" s="832">
         <v>43896</v>
       </c>
-      <c r="E9" s="797"/>
-      <c r="F9" s="798"/>
-      <c r="G9" s="796" t="s">
+      <c r="E9" s="833"/>
+      <c r="F9" s="834"/>
+      <c r="G9" s="832" t="s">
         <v>643</v>
       </c>
-      <c r="H9" s="800"/>
-      <c r="I9" s="801"/>
-      <c r="J9" s="860" t="s">
+      <c r="H9" s="835"/>
+      <c r="I9" s="836"/>
+      <c r="J9" s="837" t="s">
         <v>645</v>
       </c>
-      <c r="K9" s="861"/>
-      <c r="L9" s="861"/>
-      <c r="M9" s="861"/>
-      <c r="N9" s="861"/>
-      <c r="O9" s="861"/>
-      <c r="P9" s="862"/>
-      <c r="Q9" s="805" t="s">
+      <c r="K9" s="838"/>
+      <c r="L9" s="838"/>
+      <c r="M9" s="838"/>
+      <c r="N9" s="838"/>
+      <c r="O9" s="838"/>
+      <c r="P9" s="839"/>
+      <c r="Q9" s="840" t="s">
         <v>646</v>
       </c>
-      <c r="R9" s="806"/>
-      <c r="S9" s="806"/>
-      <c r="T9" s="806"/>
-      <c r="U9" s="806"/>
-      <c r="V9" s="806"/>
-      <c r="W9" s="806"/>
-      <c r="X9" s="806"/>
-      <c r="Y9" s="806"/>
-      <c r="Z9" s="806"/>
-      <c r="AA9" s="806"/>
-      <c r="AB9" s="806"/>
-      <c r="AC9" s="806"/>
-      <c r="AD9" s="806"/>
-      <c r="AE9" s="807"/>
-      <c r="AF9" s="802" t="s">
+      <c r="R9" s="841"/>
+      <c r="S9" s="841"/>
+      <c r="T9" s="841"/>
+      <c r="U9" s="841"/>
+      <c r="V9" s="841"/>
+      <c r="W9" s="841"/>
+      <c r="X9" s="841"/>
+      <c r="Y9" s="841"/>
+      <c r="Z9" s="841"/>
+      <c r="AA9" s="841"/>
+      <c r="AB9" s="841"/>
+      <c r="AC9" s="841"/>
+      <c r="AD9" s="841"/>
+      <c r="AE9" s="842"/>
+      <c r="AF9" s="843" t="s">
         <v>154</v>
       </c>
-      <c r="AG9" s="803"/>
-      <c r="AH9" s="803"/>
-      <c r="AI9" s="804"/>
+      <c r="AG9" s="844"/>
+      <c r="AH9" s="844"/>
+      <c r="AI9" s="845"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="794"/>
-      <c r="C10" s="795"/>
-      <c r="D10" s="796"/>
-      <c r="E10" s="797"/>
-      <c r="F10" s="798"/>
-      <c r="G10" s="799"/>
-      <c r="H10" s="800"/>
-      <c r="I10" s="801"/>
-      <c r="J10" s="802"/>
-      <c r="K10" s="803"/>
-      <c r="L10" s="803"/>
-      <c r="M10" s="803"/>
-      <c r="N10" s="803"/>
-      <c r="O10" s="803"/>
-      <c r="P10" s="804"/>
-      <c r="Q10" s="805"/>
-      <c r="R10" s="806"/>
-      <c r="S10" s="806"/>
-      <c r="T10" s="806"/>
-      <c r="U10" s="806"/>
-      <c r="V10" s="806"/>
-      <c r="W10" s="806"/>
-      <c r="X10" s="806"/>
-      <c r="Y10" s="806"/>
-      <c r="Z10" s="806"/>
-      <c r="AA10" s="806"/>
-      <c r="AB10" s="806"/>
-      <c r="AC10" s="806"/>
-      <c r="AD10" s="806"/>
-      <c r="AE10" s="807"/>
-      <c r="AF10" s="802"/>
-      <c r="AG10" s="803"/>
-      <c r="AH10" s="803"/>
-      <c r="AI10" s="804"/>
+      <c r="B10" s="830"/>
+      <c r="C10" s="831"/>
+      <c r="D10" s="832"/>
+      <c r="E10" s="833"/>
+      <c r="F10" s="834"/>
+      <c r="G10" s="859"/>
+      <c r="H10" s="835"/>
+      <c r="I10" s="836"/>
+      <c r="J10" s="843"/>
+      <c r="K10" s="844"/>
+      <c r="L10" s="844"/>
+      <c r="M10" s="844"/>
+      <c r="N10" s="844"/>
+      <c r="O10" s="844"/>
+      <c r="P10" s="845"/>
+      <c r="Q10" s="840"/>
+      <c r="R10" s="841"/>
+      <c r="S10" s="841"/>
+      <c r="T10" s="841"/>
+      <c r="U10" s="841"/>
+      <c r="V10" s="841"/>
+      <c r="W10" s="841"/>
+      <c r="X10" s="841"/>
+      <c r="Y10" s="841"/>
+      <c r="Z10" s="841"/>
+      <c r="AA10" s="841"/>
+      <c r="AB10" s="841"/>
+      <c r="AC10" s="841"/>
+      <c r="AD10" s="841"/>
+      <c r="AE10" s="842"/>
+      <c r="AF10" s="843"/>
+      <c r="AG10" s="844"/>
+      <c r="AH10" s="844"/>
+      <c r="AI10" s="845"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="794"/>
-      <c r="C11" s="795"/>
-      <c r="D11" s="796"/>
-      <c r="E11" s="797"/>
-      <c r="F11" s="798"/>
-      <c r="G11" s="799"/>
-      <c r="H11" s="800"/>
-      <c r="I11" s="801"/>
-      <c r="J11" s="802"/>
-      <c r="K11" s="803"/>
-      <c r="L11" s="803"/>
-      <c r="M11" s="803"/>
-      <c r="N11" s="803"/>
-      <c r="O11" s="803"/>
-      <c r="P11" s="804"/>
-      <c r="Q11" s="805"/>
-      <c r="R11" s="806"/>
-      <c r="S11" s="806"/>
-      <c r="T11" s="806"/>
-      <c r="U11" s="806"/>
-      <c r="V11" s="806"/>
-      <c r="W11" s="806"/>
-      <c r="X11" s="806"/>
-      <c r="Y11" s="806"/>
-      <c r="Z11" s="806"/>
-      <c r="AA11" s="806"/>
-      <c r="AB11" s="806"/>
-      <c r="AC11" s="806"/>
-      <c r="AD11" s="806"/>
-      <c r="AE11" s="807"/>
-      <c r="AF11" s="802"/>
-      <c r="AG11" s="803"/>
-      <c r="AH11" s="803"/>
-      <c r="AI11" s="804"/>
+      <c r="B11" s="830"/>
+      <c r="C11" s="831"/>
+      <c r="D11" s="832"/>
+      <c r="E11" s="833"/>
+      <c r="F11" s="834"/>
+      <c r="G11" s="859"/>
+      <c r="H11" s="835"/>
+      <c r="I11" s="836"/>
+      <c r="J11" s="843"/>
+      <c r="K11" s="844"/>
+      <c r="L11" s="844"/>
+      <c r="M11" s="844"/>
+      <c r="N11" s="844"/>
+      <c r="O11" s="844"/>
+      <c r="P11" s="845"/>
+      <c r="Q11" s="840"/>
+      <c r="R11" s="841"/>
+      <c r="S11" s="841"/>
+      <c r="T11" s="841"/>
+      <c r="U11" s="841"/>
+      <c r="V11" s="841"/>
+      <c r="W11" s="841"/>
+      <c r="X11" s="841"/>
+      <c r="Y11" s="841"/>
+      <c r="Z11" s="841"/>
+      <c r="AA11" s="841"/>
+      <c r="AB11" s="841"/>
+      <c r="AC11" s="841"/>
+      <c r="AD11" s="841"/>
+      <c r="AE11" s="842"/>
+      <c r="AF11" s="843"/>
+      <c r="AG11" s="844"/>
+      <c r="AH11" s="844"/>
+      <c r="AI11" s="845"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="794"/>
-      <c r="C12" s="795"/>
-      <c r="D12" s="796"/>
-      <c r="E12" s="797"/>
-      <c r="F12" s="798"/>
-      <c r="G12" s="799"/>
-      <c r="H12" s="800"/>
-      <c r="I12" s="801"/>
-      <c r="J12" s="802"/>
-      <c r="K12" s="803"/>
-      <c r="L12" s="803"/>
-      <c r="M12" s="803"/>
-      <c r="N12" s="803"/>
-      <c r="O12" s="803"/>
-      <c r="P12" s="804"/>
-      <c r="Q12" s="805"/>
-      <c r="R12" s="806"/>
-      <c r="S12" s="806"/>
-      <c r="T12" s="806"/>
-      <c r="U12" s="806"/>
-      <c r="V12" s="806"/>
-      <c r="W12" s="806"/>
-      <c r="X12" s="806"/>
-      <c r="Y12" s="806"/>
-      <c r="Z12" s="806"/>
-      <c r="AA12" s="806"/>
-      <c r="AB12" s="806"/>
-      <c r="AC12" s="806"/>
-      <c r="AD12" s="806"/>
-      <c r="AE12" s="807"/>
-      <c r="AF12" s="802"/>
-      <c r="AG12" s="803"/>
-      <c r="AH12" s="803"/>
-      <c r="AI12" s="804"/>
+      <c r="B12" s="830"/>
+      <c r="C12" s="831"/>
+      <c r="D12" s="832"/>
+      <c r="E12" s="833"/>
+      <c r="F12" s="834"/>
+      <c r="G12" s="859"/>
+      <c r="H12" s="835"/>
+      <c r="I12" s="836"/>
+      <c r="J12" s="843"/>
+      <c r="K12" s="844"/>
+      <c r="L12" s="844"/>
+      <c r="M12" s="844"/>
+      <c r="N12" s="844"/>
+      <c r="O12" s="844"/>
+      <c r="P12" s="845"/>
+      <c r="Q12" s="840"/>
+      <c r="R12" s="841"/>
+      <c r="S12" s="841"/>
+      <c r="T12" s="841"/>
+      <c r="U12" s="841"/>
+      <c r="V12" s="841"/>
+      <c r="W12" s="841"/>
+      <c r="X12" s="841"/>
+      <c r="Y12" s="841"/>
+      <c r="Z12" s="841"/>
+      <c r="AA12" s="841"/>
+      <c r="AB12" s="841"/>
+      <c r="AC12" s="841"/>
+      <c r="AD12" s="841"/>
+      <c r="AE12" s="842"/>
+      <c r="AF12" s="843"/>
+      <c r="AG12" s="844"/>
+      <c r="AH12" s="844"/>
+      <c r="AI12" s="845"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="794"/>
-      <c r="C13" s="795"/>
-      <c r="D13" s="796"/>
-      <c r="E13" s="797"/>
-      <c r="F13" s="798"/>
-      <c r="G13" s="799"/>
-      <c r="H13" s="800"/>
-      <c r="I13" s="801"/>
-      <c r="J13" s="802"/>
-      <c r="K13" s="803"/>
-      <c r="L13" s="803"/>
-      <c r="M13" s="803"/>
-      <c r="N13" s="803"/>
-      <c r="O13" s="803"/>
-      <c r="P13" s="804"/>
-      <c r="Q13" s="805"/>
-      <c r="R13" s="806"/>
-      <c r="S13" s="806"/>
-      <c r="T13" s="806"/>
-      <c r="U13" s="806"/>
-      <c r="V13" s="806"/>
-      <c r="W13" s="806"/>
-      <c r="X13" s="806"/>
-      <c r="Y13" s="806"/>
-      <c r="Z13" s="806"/>
-      <c r="AA13" s="806"/>
-      <c r="AB13" s="806"/>
-      <c r="AC13" s="806"/>
-      <c r="AD13" s="806"/>
-      <c r="AE13" s="807"/>
-      <c r="AF13" s="802"/>
-      <c r="AG13" s="803"/>
-      <c r="AH13" s="803"/>
-      <c r="AI13" s="804"/>
+      <c r="B13" s="830"/>
+      <c r="C13" s="831"/>
+      <c r="D13" s="832"/>
+      <c r="E13" s="833"/>
+      <c r="F13" s="834"/>
+      <c r="G13" s="859"/>
+      <c r="H13" s="835"/>
+      <c r="I13" s="836"/>
+      <c r="J13" s="843"/>
+      <c r="K13" s="844"/>
+      <c r="L13" s="844"/>
+      <c r="M13" s="844"/>
+      <c r="N13" s="844"/>
+      <c r="O13" s="844"/>
+      <c r="P13" s="845"/>
+      <c r="Q13" s="840"/>
+      <c r="R13" s="841"/>
+      <c r="S13" s="841"/>
+      <c r="T13" s="841"/>
+      <c r="U13" s="841"/>
+      <c r="V13" s="841"/>
+      <c r="W13" s="841"/>
+      <c r="X13" s="841"/>
+      <c r="Y13" s="841"/>
+      <c r="Z13" s="841"/>
+      <c r="AA13" s="841"/>
+      <c r="AB13" s="841"/>
+      <c r="AC13" s="841"/>
+      <c r="AD13" s="841"/>
+      <c r="AE13" s="842"/>
+      <c r="AF13" s="843"/>
+      <c r="AG13" s="844"/>
+      <c r="AH13" s="844"/>
+      <c r="AI13" s="845"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="794"/>
-      <c r="C14" s="795"/>
-      <c r="D14" s="796"/>
-      <c r="E14" s="797"/>
-      <c r="F14" s="798"/>
-      <c r="G14" s="799"/>
-      <c r="H14" s="800"/>
-      <c r="I14" s="801"/>
-      <c r="J14" s="802"/>
-      <c r="K14" s="803"/>
-      <c r="L14" s="803"/>
-      <c r="M14" s="803"/>
-      <c r="N14" s="803"/>
-      <c r="O14" s="803"/>
-      <c r="P14" s="804"/>
-      <c r="Q14" s="805"/>
-      <c r="R14" s="806"/>
-      <c r="S14" s="806"/>
-      <c r="T14" s="806"/>
-      <c r="U14" s="806"/>
-      <c r="V14" s="806"/>
-      <c r="W14" s="806"/>
-      <c r="X14" s="806"/>
-      <c r="Y14" s="806"/>
-      <c r="Z14" s="806"/>
-      <c r="AA14" s="806"/>
-      <c r="AB14" s="806"/>
-      <c r="AC14" s="806"/>
-      <c r="AD14" s="806"/>
-      <c r="AE14" s="807"/>
-      <c r="AF14" s="802"/>
-      <c r="AG14" s="803"/>
-      <c r="AH14" s="803"/>
-      <c r="AI14" s="804"/>
+      <c r="B14" s="830"/>
+      <c r="C14" s="831"/>
+      <c r="D14" s="832"/>
+      <c r="E14" s="833"/>
+      <c r="F14" s="834"/>
+      <c r="G14" s="859"/>
+      <c r="H14" s="835"/>
+      <c r="I14" s="836"/>
+      <c r="J14" s="843"/>
+      <c r="K14" s="844"/>
+      <c r="L14" s="844"/>
+      <c r="M14" s="844"/>
+      <c r="N14" s="844"/>
+      <c r="O14" s="844"/>
+      <c r="P14" s="845"/>
+      <c r="Q14" s="840"/>
+      <c r="R14" s="841"/>
+      <c r="S14" s="841"/>
+      <c r="T14" s="841"/>
+      <c r="U14" s="841"/>
+      <c r="V14" s="841"/>
+      <c r="W14" s="841"/>
+      <c r="X14" s="841"/>
+      <c r="Y14" s="841"/>
+      <c r="Z14" s="841"/>
+      <c r="AA14" s="841"/>
+      <c r="AB14" s="841"/>
+      <c r="AC14" s="841"/>
+      <c r="AD14" s="841"/>
+      <c r="AE14" s="842"/>
+      <c r="AF14" s="843"/>
+      <c r="AG14" s="844"/>
+      <c r="AH14" s="844"/>
+      <c r="AI14" s="845"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="794"/>
-      <c r="C15" s="795"/>
-      <c r="D15" s="796"/>
-      <c r="E15" s="797"/>
-      <c r="F15" s="798"/>
-      <c r="G15" s="799"/>
-      <c r="H15" s="800"/>
-      <c r="I15" s="801"/>
-      <c r="J15" s="802"/>
-      <c r="K15" s="803"/>
-      <c r="L15" s="803"/>
-      <c r="M15" s="803"/>
-      <c r="N15" s="803"/>
-      <c r="O15" s="803"/>
-      <c r="P15" s="804"/>
-      <c r="Q15" s="805"/>
-      <c r="R15" s="806"/>
-      <c r="S15" s="806"/>
-      <c r="T15" s="806"/>
-      <c r="U15" s="806"/>
-      <c r="V15" s="806"/>
-      <c r="W15" s="806"/>
-      <c r="X15" s="806"/>
-      <c r="Y15" s="806"/>
-      <c r="Z15" s="806"/>
-      <c r="AA15" s="806"/>
-      <c r="AB15" s="806"/>
-      <c r="AC15" s="806"/>
-      <c r="AD15" s="806"/>
-      <c r="AE15" s="807"/>
-      <c r="AF15" s="802"/>
-      <c r="AG15" s="803"/>
-      <c r="AH15" s="803"/>
-      <c r="AI15" s="804"/>
+      <c r="B15" s="830"/>
+      <c r="C15" s="831"/>
+      <c r="D15" s="832"/>
+      <c r="E15" s="833"/>
+      <c r="F15" s="834"/>
+      <c r="G15" s="859"/>
+      <c r="H15" s="835"/>
+      <c r="I15" s="836"/>
+      <c r="J15" s="843"/>
+      <c r="K15" s="844"/>
+      <c r="L15" s="844"/>
+      <c r="M15" s="844"/>
+      <c r="N15" s="844"/>
+      <c r="O15" s="844"/>
+      <c r="P15" s="845"/>
+      <c r="Q15" s="840"/>
+      <c r="R15" s="841"/>
+      <c r="S15" s="841"/>
+      <c r="T15" s="841"/>
+      <c r="U15" s="841"/>
+      <c r="V15" s="841"/>
+      <c r="W15" s="841"/>
+      <c r="X15" s="841"/>
+      <c r="Y15" s="841"/>
+      <c r="Z15" s="841"/>
+      <c r="AA15" s="841"/>
+      <c r="AB15" s="841"/>
+      <c r="AC15" s="841"/>
+      <c r="AD15" s="841"/>
+      <c r="AE15" s="842"/>
+      <c r="AF15" s="843"/>
+      <c r="AG15" s="844"/>
+      <c r="AH15" s="844"/>
+      <c r="AI15" s="845"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="794"/>
-      <c r="C16" s="795"/>
-      <c r="D16" s="796"/>
-      <c r="E16" s="797"/>
-      <c r="F16" s="798"/>
-      <c r="G16" s="799"/>
-      <c r="H16" s="800"/>
-      <c r="I16" s="801"/>
-      <c r="J16" s="802"/>
-      <c r="K16" s="803"/>
-      <c r="L16" s="803"/>
-      <c r="M16" s="803"/>
-      <c r="N16" s="803"/>
-      <c r="O16" s="803"/>
-      <c r="P16" s="804"/>
-      <c r="Q16" s="805"/>
-      <c r="R16" s="806"/>
-      <c r="S16" s="806"/>
-      <c r="T16" s="806"/>
-      <c r="U16" s="806"/>
-      <c r="V16" s="806"/>
-      <c r="W16" s="806"/>
-      <c r="X16" s="806"/>
-      <c r="Y16" s="806"/>
-      <c r="Z16" s="806"/>
-      <c r="AA16" s="806"/>
-      <c r="AB16" s="806"/>
-      <c r="AC16" s="806"/>
-      <c r="AD16" s="806"/>
-      <c r="AE16" s="807"/>
-      <c r="AF16" s="802"/>
-      <c r="AG16" s="803"/>
-      <c r="AH16" s="803"/>
-      <c r="AI16" s="804"/>
+      <c r="B16" s="830"/>
+      <c r="C16" s="831"/>
+      <c r="D16" s="832"/>
+      <c r="E16" s="833"/>
+      <c r="F16" s="834"/>
+      <c r="G16" s="859"/>
+      <c r="H16" s="835"/>
+      <c r="I16" s="836"/>
+      <c r="J16" s="843"/>
+      <c r="K16" s="844"/>
+      <c r="L16" s="844"/>
+      <c r="M16" s="844"/>
+      <c r="N16" s="844"/>
+      <c r="O16" s="844"/>
+      <c r="P16" s="845"/>
+      <c r="Q16" s="840"/>
+      <c r="R16" s="841"/>
+      <c r="S16" s="841"/>
+      <c r="T16" s="841"/>
+      <c r="U16" s="841"/>
+      <c r="V16" s="841"/>
+      <c r="W16" s="841"/>
+      <c r="X16" s="841"/>
+      <c r="Y16" s="841"/>
+      <c r="Z16" s="841"/>
+      <c r="AA16" s="841"/>
+      <c r="AB16" s="841"/>
+      <c r="AC16" s="841"/>
+      <c r="AD16" s="841"/>
+      <c r="AE16" s="842"/>
+      <c r="AF16" s="843"/>
+      <c r="AG16" s="844"/>
+      <c r="AH16" s="844"/>
+      <c r="AI16" s="845"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="794"/>
-      <c r="C17" s="795"/>
-      <c r="D17" s="796"/>
-      <c r="E17" s="797"/>
-      <c r="F17" s="798"/>
-      <c r="G17" s="799"/>
-      <c r="H17" s="800"/>
-      <c r="I17" s="801"/>
-      <c r="J17" s="802"/>
-      <c r="K17" s="803"/>
-      <c r="L17" s="803"/>
-      <c r="M17" s="803"/>
-      <c r="N17" s="803"/>
-      <c r="O17" s="803"/>
-      <c r="P17" s="804"/>
-      <c r="Q17" s="805"/>
-      <c r="R17" s="806"/>
-      <c r="S17" s="806"/>
-      <c r="T17" s="806"/>
-      <c r="U17" s="806"/>
-      <c r="V17" s="806"/>
-      <c r="W17" s="806"/>
-      <c r="X17" s="806"/>
-      <c r="Y17" s="806"/>
-      <c r="Z17" s="806"/>
-      <c r="AA17" s="806"/>
-      <c r="AB17" s="806"/>
-      <c r="AC17" s="806"/>
-      <c r="AD17" s="806"/>
-      <c r="AE17" s="807"/>
-      <c r="AF17" s="802"/>
-      <c r="AG17" s="803"/>
-      <c r="AH17" s="803"/>
-      <c r="AI17" s="804"/>
+      <c r="B17" s="830"/>
+      <c r="C17" s="831"/>
+      <c r="D17" s="832"/>
+      <c r="E17" s="833"/>
+      <c r="F17" s="834"/>
+      <c r="G17" s="859"/>
+      <c r="H17" s="835"/>
+      <c r="I17" s="836"/>
+      <c r="J17" s="843"/>
+      <c r="K17" s="844"/>
+      <c r="L17" s="844"/>
+      <c r="M17" s="844"/>
+      <c r="N17" s="844"/>
+      <c r="O17" s="844"/>
+      <c r="P17" s="845"/>
+      <c r="Q17" s="840"/>
+      <c r="R17" s="841"/>
+      <c r="S17" s="841"/>
+      <c r="T17" s="841"/>
+      <c r="U17" s="841"/>
+      <c r="V17" s="841"/>
+      <c r="W17" s="841"/>
+      <c r="X17" s="841"/>
+      <c r="Y17" s="841"/>
+      <c r="Z17" s="841"/>
+      <c r="AA17" s="841"/>
+      <c r="AB17" s="841"/>
+      <c r="AC17" s="841"/>
+      <c r="AD17" s="841"/>
+      <c r="AE17" s="842"/>
+      <c r="AF17" s="843"/>
+      <c r="AG17" s="844"/>
+      <c r="AH17" s="844"/>
+      <c r="AI17" s="845"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="794"/>
-      <c r="C18" s="795"/>
-      <c r="D18" s="796"/>
-      <c r="E18" s="797"/>
-      <c r="F18" s="798"/>
-      <c r="G18" s="799"/>
-      <c r="H18" s="800"/>
-      <c r="I18" s="801"/>
-      <c r="J18" s="802"/>
-      <c r="K18" s="803"/>
-      <c r="L18" s="803"/>
-      <c r="M18" s="803"/>
-      <c r="N18" s="803"/>
-      <c r="O18" s="803"/>
-      <c r="P18" s="804"/>
-      <c r="Q18" s="805"/>
-      <c r="R18" s="806"/>
-      <c r="S18" s="806"/>
-      <c r="T18" s="806"/>
-      <c r="U18" s="806"/>
-      <c r="V18" s="806"/>
-      <c r="W18" s="806"/>
-      <c r="X18" s="806"/>
-      <c r="Y18" s="806"/>
-      <c r="Z18" s="806"/>
-      <c r="AA18" s="806"/>
-      <c r="AB18" s="806"/>
-      <c r="AC18" s="806"/>
-      <c r="AD18" s="806"/>
-      <c r="AE18" s="807"/>
-      <c r="AF18" s="802"/>
-      <c r="AG18" s="803"/>
-      <c r="AH18" s="803"/>
-      <c r="AI18" s="804"/>
+      <c r="B18" s="830"/>
+      <c r="C18" s="831"/>
+      <c r="D18" s="832"/>
+      <c r="E18" s="833"/>
+      <c r="F18" s="834"/>
+      <c r="G18" s="859"/>
+      <c r="H18" s="835"/>
+      <c r="I18" s="836"/>
+      <c r="J18" s="843"/>
+      <c r="K18" s="844"/>
+      <c r="L18" s="844"/>
+      <c r="M18" s="844"/>
+      <c r="N18" s="844"/>
+      <c r="O18" s="844"/>
+      <c r="P18" s="845"/>
+      <c r="Q18" s="840"/>
+      <c r="R18" s="841"/>
+      <c r="S18" s="841"/>
+      <c r="T18" s="841"/>
+      <c r="U18" s="841"/>
+      <c r="V18" s="841"/>
+      <c r="W18" s="841"/>
+      <c r="X18" s="841"/>
+      <c r="Y18" s="841"/>
+      <c r="Z18" s="841"/>
+      <c r="AA18" s="841"/>
+      <c r="AB18" s="841"/>
+      <c r="AC18" s="841"/>
+      <c r="AD18" s="841"/>
+      <c r="AE18" s="842"/>
+      <c r="AF18" s="843"/>
+      <c r="AG18" s="844"/>
+      <c r="AH18" s="844"/>
+      <c r="AI18" s="845"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="794"/>
-      <c r="C19" s="795"/>
-      <c r="D19" s="796"/>
-      <c r="E19" s="797"/>
-      <c r="F19" s="798"/>
-      <c r="G19" s="799"/>
-      <c r="H19" s="800"/>
-      <c r="I19" s="801"/>
-      <c r="J19" s="802"/>
-      <c r="K19" s="803"/>
-      <c r="L19" s="803"/>
-      <c r="M19" s="803"/>
-      <c r="N19" s="803"/>
-      <c r="O19" s="803"/>
-      <c r="P19" s="804"/>
-      <c r="Q19" s="805"/>
-      <c r="R19" s="806"/>
-      <c r="S19" s="806"/>
-      <c r="T19" s="806"/>
-      <c r="U19" s="806"/>
-      <c r="V19" s="806"/>
-      <c r="W19" s="806"/>
-      <c r="X19" s="806"/>
-      <c r="Y19" s="806"/>
-      <c r="Z19" s="806"/>
-      <c r="AA19" s="806"/>
-      <c r="AB19" s="806"/>
-      <c r="AC19" s="806"/>
-      <c r="AD19" s="806"/>
-      <c r="AE19" s="807"/>
-      <c r="AF19" s="802"/>
-      <c r="AG19" s="803"/>
-      <c r="AH19" s="803"/>
-      <c r="AI19" s="804"/>
+      <c r="B19" s="830"/>
+      <c r="C19" s="831"/>
+      <c r="D19" s="832"/>
+      <c r="E19" s="833"/>
+      <c r="F19" s="834"/>
+      <c r="G19" s="859"/>
+      <c r="H19" s="835"/>
+      <c r="I19" s="836"/>
+      <c r="J19" s="843"/>
+      <c r="K19" s="844"/>
+      <c r="L19" s="844"/>
+      <c r="M19" s="844"/>
+      <c r="N19" s="844"/>
+      <c r="O19" s="844"/>
+      <c r="P19" s="845"/>
+      <c r="Q19" s="840"/>
+      <c r="R19" s="841"/>
+      <c r="S19" s="841"/>
+      <c r="T19" s="841"/>
+      <c r="U19" s="841"/>
+      <c r="V19" s="841"/>
+      <c r="W19" s="841"/>
+      <c r="X19" s="841"/>
+      <c r="Y19" s="841"/>
+      <c r="Z19" s="841"/>
+      <c r="AA19" s="841"/>
+      <c r="AB19" s="841"/>
+      <c r="AC19" s="841"/>
+      <c r="AD19" s="841"/>
+      <c r="AE19" s="842"/>
+      <c r="AF19" s="843"/>
+      <c r="AG19" s="844"/>
+      <c r="AH19" s="844"/>
+      <c r="AI19" s="845"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="794"/>
-      <c r="C20" s="795"/>
-      <c r="D20" s="796"/>
-      <c r="E20" s="797"/>
-      <c r="F20" s="798"/>
-      <c r="G20" s="799"/>
-      <c r="H20" s="800"/>
-      <c r="I20" s="801"/>
-      <c r="J20" s="802"/>
-      <c r="K20" s="803"/>
-      <c r="L20" s="803"/>
-      <c r="M20" s="803"/>
-      <c r="N20" s="803"/>
-      <c r="O20" s="803"/>
-      <c r="P20" s="804"/>
-      <c r="Q20" s="805"/>
-      <c r="R20" s="806"/>
-      <c r="S20" s="806"/>
-      <c r="T20" s="806"/>
-      <c r="U20" s="806"/>
-      <c r="V20" s="806"/>
-      <c r="W20" s="806"/>
-      <c r="X20" s="806"/>
-      <c r="Y20" s="806"/>
-      <c r="Z20" s="806"/>
-      <c r="AA20" s="806"/>
-      <c r="AB20" s="806"/>
-      <c r="AC20" s="806"/>
-      <c r="AD20" s="806"/>
-      <c r="AE20" s="807"/>
-      <c r="AF20" s="802"/>
-      <c r="AG20" s="803"/>
-      <c r="AH20" s="803"/>
-      <c r="AI20" s="804"/>
+      <c r="B20" s="830"/>
+      <c r="C20" s="831"/>
+      <c r="D20" s="832"/>
+      <c r="E20" s="833"/>
+      <c r="F20" s="834"/>
+      <c r="G20" s="859"/>
+      <c r="H20" s="835"/>
+      <c r="I20" s="836"/>
+      <c r="J20" s="843"/>
+      <c r="K20" s="844"/>
+      <c r="L20" s="844"/>
+      <c r="M20" s="844"/>
+      <c r="N20" s="844"/>
+      <c r="O20" s="844"/>
+      <c r="P20" s="845"/>
+      <c r="Q20" s="840"/>
+      <c r="R20" s="841"/>
+      <c r="S20" s="841"/>
+      <c r="T20" s="841"/>
+      <c r="U20" s="841"/>
+      <c r="V20" s="841"/>
+      <c r="W20" s="841"/>
+      <c r="X20" s="841"/>
+      <c r="Y20" s="841"/>
+      <c r="Z20" s="841"/>
+      <c r="AA20" s="841"/>
+      <c r="AB20" s="841"/>
+      <c r="AC20" s="841"/>
+      <c r="AD20" s="841"/>
+      <c r="AE20" s="842"/>
+      <c r="AF20" s="843"/>
+      <c r="AG20" s="844"/>
+      <c r="AH20" s="844"/>
+      <c r="AI20" s="845"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="794"/>
-      <c r="C21" s="795"/>
-      <c r="D21" s="796"/>
-      <c r="E21" s="797"/>
-      <c r="F21" s="798"/>
-      <c r="G21" s="799"/>
-      <c r="H21" s="800"/>
-      <c r="I21" s="801"/>
-      <c r="J21" s="802"/>
-      <c r="K21" s="803"/>
-      <c r="L21" s="803"/>
-      <c r="M21" s="803"/>
-      <c r="N21" s="803"/>
-      <c r="O21" s="803"/>
-      <c r="P21" s="804"/>
-      <c r="Q21" s="805"/>
-      <c r="R21" s="806"/>
-      <c r="S21" s="806"/>
-      <c r="T21" s="806"/>
-      <c r="U21" s="806"/>
-      <c r="V21" s="806"/>
-      <c r="W21" s="806"/>
-      <c r="X21" s="806"/>
-      <c r="Y21" s="806"/>
-      <c r="Z21" s="806"/>
-      <c r="AA21" s="806"/>
-      <c r="AB21" s="806"/>
-      <c r="AC21" s="806"/>
-      <c r="AD21" s="806"/>
-      <c r="AE21" s="807"/>
-      <c r="AF21" s="802"/>
-      <c r="AG21" s="803"/>
-      <c r="AH21" s="803"/>
-      <c r="AI21" s="804"/>
+      <c r="B21" s="830"/>
+      <c r="C21" s="831"/>
+      <c r="D21" s="832"/>
+      <c r="E21" s="833"/>
+      <c r="F21" s="834"/>
+      <c r="G21" s="859"/>
+      <c r="H21" s="835"/>
+      <c r="I21" s="836"/>
+      <c r="J21" s="843"/>
+      <c r="K21" s="844"/>
+      <c r="L21" s="844"/>
+      <c r="M21" s="844"/>
+      <c r="N21" s="844"/>
+      <c r="O21" s="844"/>
+      <c r="P21" s="845"/>
+      <c r="Q21" s="840"/>
+      <c r="R21" s="841"/>
+      <c r="S21" s="841"/>
+      <c r="T21" s="841"/>
+      <c r="U21" s="841"/>
+      <c r="V21" s="841"/>
+      <c r="W21" s="841"/>
+      <c r="X21" s="841"/>
+      <c r="Y21" s="841"/>
+      <c r="Z21" s="841"/>
+      <c r="AA21" s="841"/>
+      <c r="AB21" s="841"/>
+      <c r="AC21" s="841"/>
+      <c r="AD21" s="841"/>
+      <c r="AE21" s="842"/>
+      <c r="AF21" s="843"/>
+      <c r="AG21" s="844"/>
+      <c r="AH21" s="844"/>
+      <c r="AI21" s="845"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="794"/>
-      <c r="C22" s="795"/>
-      <c r="D22" s="796"/>
-      <c r="E22" s="797"/>
-      <c r="F22" s="798"/>
-      <c r="G22" s="799"/>
-      <c r="H22" s="800"/>
-      <c r="I22" s="801"/>
-      <c r="J22" s="802"/>
-      <c r="K22" s="803"/>
-      <c r="L22" s="803"/>
-      <c r="M22" s="803"/>
-      <c r="N22" s="803"/>
-      <c r="O22" s="803"/>
-      <c r="P22" s="804"/>
-      <c r="Q22" s="805"/>
-      <c r="R22" s="806"/>
-      <c r="S22" s="806"/>
-      <c r="T22" s="806"/>
-      <c r="U22" s="806"/>
-      <c r="V22" s="806"/>
-      <c r="W22" s="806"/>
-      <c r="X22" s="806"/>
-      <c r="Y22" s="806"/>
-      <c r="Z22" s="806"/>
-      <c r="AA22" s="806"/>
-      <c r="AB22" s="806"/>
-      <c r="AC22" s="806"/>
-      <c r="AD22" s="806"/>
-      <c r="AE22" s="807"/>
-      <c r="AF22" s="802"/>
-      <c r="AG22" s="803"/>
-      <c r="AH22" s="803"/>
-      <c r="AI22" s="804"/>
+      <c r="B22" s="830"/>
+      <c r="C22" s="831"/>
+      <c r="D22" s="832"/>
+      <c r="E22" s="833"/>
+      <c r="F22" s="834"/>
+      <c r="G22" s="859"/>
+      <c r="H22" s="835"/>
+      <c r="I22" s="836"/>
+      <c r="J22" s="843"/>
+      <c r="K22" s="844"/>
+      <c r="L22" s="844"/>
+      <c r="M22" s="844"/>
+      <c r="N22" s="844"/>
+      <c r="O22" s="844"/>
+      <c r="P22" s="845"/>
+      <c r="Q22" s="840"/>
+      <c r="R22" s="841"/>
+      <c r="S22" s="841"/>
+      <c r="T22" s="841"/>
+      <c r="U22" s="841"/>
+      <c r="V22" s="841"/>
+      <c r="W22" s="841"/>
+      <c r="X22" s="841"/>
+      <c r="Y22" s="841"/>
+      <c r="Z22" s="841"/>
+      <c r="AA22" s="841"/>
+      <c r="AB22" s="841"/>
+      <c r="AC22" s="841"/>
+      <c r="AD22" s="841"/>
+      <c r="AE22" s="842"/>
+      <c r="AF22" s="843"/>
+      <c r="AG22" s="844"/>
+      <c r="AH22" s="844"/>
+      <c r="AI22" s="845"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="794"/>
-      <c r="C23" s="795"/>
-      <c r="D23" s="796"/>
-      <c r="E23" s="797"/>
-      <c r="F23" s="798"/>
-      <c r="G23" s="799"/>
-      <c r="H23" s="800"/>
-      <c r="I23" s="801"/>
-      <c r="J23" s="802"/>
-      <c r="K23" s="803"/>
-      <c r="L23" s="803"/>
-      <c r="M23" s="803"/>
-      <c r="N23" s="803"/>
-      <c r="O23" s="803"/>
-      <c r="P23" s="804"/>
-      <c r="Q23" s="805"/>
-      <c r="R23" s="806"/>
-      <c r="S23" s="806"/>
-      <c r="T23" s="806"/>
-      <c r="U23" s="806"/>
-      <c r="V23" s="806"/>
-      <c r="W23" s="806"/>
-      <c r="X23" s="806"/>
-      <c r="Y23" s="806"/>
-      <c r="Z23" s="806"/>
-      <c r="AA23" s="806"/>
-      <c r="AB23" s="806"/>
-      <c r="AC23" s="806"/>
-      <c r="AD23" s="806"/>
-      <c r="AE23" s="807"/>
-      <c r="AF23" s="802"/>
-      <c r="AG23" s="803"/>
-      <c r="AH23" s="803"/>
-      <c r="AI23" s="804"/>
+      <c r="B23" s="830"/>
+      <c r="C23" s="831"/>
+      <c r="D23" s="832"/>
+      <c r="E23" s="833"/>
+      <c r="F23" s="834"/>
+      <c r="G23" s="859"/>
+      <c r="H23" s="835"/>
+      <c r="I23" s="836"/>
+      <c r="J23" s="843"/>
+      <c r="K23" s="844"/>
+      <c r="L23" s="844"/>
+      <c r="M23" s="844"/>
+      <c r="N23" s="844"/>
+      <c r="O23" s="844"/>
+      <c r="P23" s="845"/>
+      <c r="Q23" s="840"/>
+      <c r="R23" s="841"/>
+      <c r="S23" s="841"/>
+      <c r="T23" s="841"/>
+      <c r="U23" s="841"/>
+      <c r="V23" s="841"/>
+      <c r="W23" s="841"/>
+      <c r="X23" s="841"/>
+      <c r="Y23" s="841"/>
+      <c r="Z23" s="841"/>
+      <c r="AA23" s="841"/>
+      <c r="AB23" s="841"/>
+      <c r="AC23" s="841"/>
+      <c r="AD23" s="841"/>
+      <c r="AE23" s="842"/>
+      <c r="AF23" s="843"/>
+      <c r="AG23" s="844"/>
+      <c r="AH23" s="844"/>
+      <c r="AI23" s="845"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="794"/>
-      <c r="C24" s="795"/>
-      <c r="D24" s="796"/>
-      <c r="E24" s="797"/>
-      <c r="F24" s="798"/>
-      <c r="G24" s="799"/>
-      <c r="H24" s="800"/>
-      <c r="I24" s="801"/>
-      <c r="J24" s="802"/>
-      <c r="K24" s="803"/>
-      <c r="L24" s="803"/>
-      <c r="M24" s="803"/>
-      <c r="N24" s="803"/>
-      <c r="O24" s="803"/>
-      <c r="P24" s="804"/>
-      <c r="Q24" s="805"/>
-      <c r="R24" s="806"/>
-      <c r="S24" s="806"/>
-      <c r="T24" s="806"/>
-      <c r="U24" s="806"/>
-      <c r="V24" s="806"/>
-      <c r="W24" s="806"/>
-      <c r="X24" s="806"/>
-      <c r="Y24" s="806"/>
-      <c r="Z24" s="806"/>
-      <c r="AA24" s="806"/>
-      <c r="AB24" s="806"/>
-      <c r="AC24" s="806"/>
-      <c r="AD24" s="806"/>
-      <c r="AE24" s="807"/>
-      <c r="AF24" s="802"/>
-      <c r="AG24" s="803"/>
-      <c r="AH24" s="803"/>
-      <c r="AI24" s="804"/>
+      <c r="B24" s="830"/>
+      <c r="C24" s="831"/>
+      <c r="D24" s="832"/>
+      <c r="E24" s="833"/>
+      <c r="F24" s="834"/>
+      <c r="G24" s="859"/>
+      <c r="H24" s="835"/>
+      <c r="I24" s="836"/>
+      <c r="J24" s="843"/>
+      <c r="K24" s="844"/>
+      <c r="L24" s="844"/>
+      <c r="M24" s="844"/>
+      <c r="N24" s="844"/>
+      <c r="O24" s="844"/>
+      <c r="P24" s="845"/>
+      <c r="Q24" s="840"/>
+      <c r="R24" s="841"/>
+      <c r="S24" s="841"/>
+      <c r="T24" s="841"/>
+      <c r="U24" s="841"/>
+      <c r="V24" s="841"/>
+      <c r="W24" s="841"/>
+      <c r="X24" s="841"/>
+      <c r="Y24" s="841"/>
+      <c r="Z24" s="841"/>
+      <c r="AA24" s="841"/>
+      <c r="AB24" s="841"/>
+      <c r="AC24" s="841"/>
+      <c r="AD24" s="841"/>
+      <c r="AE24" s="842"/>
+      <c r="AF24" s="843"/>
+      <c r="AG24" s="844"/>
+      <c r="AH24" s="844"/>
+      <c r="AI24" s="845"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="794"/>
-      <c r="C25" s="795"/>
-      <c r="D25" s="796"/>
-      <c r="E25" s="797"/>
-      <c r="F25" s="798"/>
-      <c r="G25" s="799"/>
-      <c r="H25" s="800"/>
-      <c r="I25" s="801"/>
-      <c r="J25" s="802"/>
-      <c r="K25" s="803"/>
-      <c r="L25" s="803"/>
-      <c r="M25" s="803"/>
-      <c r="N25" s="803"/>
-      <c r="O25" s="803"/>
-      <c r="P25" s="804"/>
-      <c r="Q25" s="805"/>
-      <c r="R25" s="806"/>
-      <c r="S25" s="806"/>
-      <c r="T25" s="806"/>
-      <c r="U25" s="806"/>
-      <c r="V25" s="806"/>
-      <c r="W25" s="806"/>
-      <c r="X25" s="806"/>
-      <c r="Y25" s="806"/>
-      <c r="Z25" s="806"/>
-      <c r="AA25" s="806"/>
-      <c r="AB25" s="806"/>
-      <c r="AC25" s="806"/>
-      <c r="AD25" s="806"/>
-      <c r="AE25" s="807"/>
-      <c r="AF25" s="802"/>
-      <c r="AG25" s="803"/>
-      <c r="AH25" s="803"/>
-      <c r="AI25" s="804"/>
+      <c r="B25" s="830"/>
+      <c r="C25" s="831"/>
+      <c r="D25" s="832"/>
+      <c r="E25" s="833"/>
+      <c r="F25" s="834"/>
+      <c r="G25" s="859"/>
+      <c r="H25" s="835"/>
+      <c r="I25" s="836"/>
+      <c r="J25" s="843"/>
+      <c r="K25" s="844"/>
+      <c r="L25" s="844"/>
+      <c r="M25" s="844"/>
+      <c r="N25" s="844"/>
+      <c r="O25" s="844"/>
+      <c r="P25" s="845"/>
+      <c r="Q25" s="840"/>
+      <c r="R25" s="841"/>
+      <c r="S25" s="841"/>
+      <c r="T25" s="841"/>
+      <c r="U25" s="841"/>
+      <c r="V25" s="841"/>
+      <c r="W25" s="841"/>
+      <c r="X25" s="841"/>
+      <c r="Y25" s="841"/>
+      <c r="Z25" s="841"/>
+      <c r="AA25" s="841"/>
+      <c r="AB25" s="841"/>
+      <c r="AC25" s="841"/>
+      <c r="AD25" s="841"/>
+      <c r="AE25" s="842"/>
+      <c r="AF25" s="843"/>
+      <c r="AG25" s="844"/>
+      <c r="AH25" s="844"/>
+      <c r="AI25" s="845"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="794"/>
-      <c r="C26" s="795"/>
-      <c r="D26" s="796"/>
-      <c r="E26" s="797"/>
-      <c r="F26" s="798"/>
-      <c r="G26" s="799"/>
-      <c r="H26" s="800"/>
-      <c r="I26" s="801"/>
-      <c r="J26" s="802"/>
-      <c r="K26" s="803"/>
-      <c r="L26" s="803"/>
-      <c r="M26" s="803"/>
-      <c r="N26" s="803"/>
-      <c r="O26" s="803"/>
-      <c r="P26" s="804"/>
-      <c r="Q26" s="805"/>
-      <c r="R26" s="806"/>
-      <c r="S26" s="806"/>
-      <c r="T26" s="806"/>
-      <c r="U26" s="806"/>
-      <c r="V26" s="806"/>
-      <c r="W26" s="806"/>
-      <c r="X26" s="806"/>
-      <c r="Y26" s="806"/>
-      <c r="Z26" s="806"/>
-      <c r="AA26" s="806"/>
-      <c r="AB26" s="806"/>
-      <c r="AC26" s="806"/>
-      <c r="AD26" s="806"/>
-      <c r="AE26" s="807"/>
-      <c r="AF26" s="802"/>
-      <c r="AG26" s="803"/>
-      <c r="AH26" s="803"/>
-      <c r="AI26" s="804"/>
+      <c r="B26" s="830"/>
+      <c r="C26" s="831"/>
+      <c r="D26" s="832"/>
+      <c r="E26" s="833"/>
+      <c r="F26" s="834"/>
+      <c r="G26" s="859"/>
+      <c r="H26" s="835"/>
+      <c r="I26" s="836"/>
+      <c r="J26" s="843"/>
+      <c r="K26" s="844"/>
+      <c r="L26" s="844"/>
+      <c r="M26" s="844"/>
+      <c r="N26" s="844"/>
+      <c r="O26" s="844"/>
+      <c r="P26" s="845"/>
+      <c r="Q26" s="840"/>
+      <c r="R26" s="841"/>
+      <c r="S26" s="841"/>
+      <c r="T26" s="841"/>
+      <c r="U26" s="841"/>
+      <c r="V26" s="841"/>
+      <c r="W26" s="841"/>
+      <c r="X26" s="841"/>
+      <c r="Y26" s="841"/>
+      <c r="Z26" s="841"/>
+      <c r="AA26" s="841"/>
+      <c r="AB26" s="841"/>
+      <c r="AC26" s="841"/>
+      <c r="AD26" s="841"/>
+      <c r="AE26" s="842"/>
+      <c r="AF26" s="843"/>
+      <c r="AG26" s="844"/>
+      <c r="AH26" s="844"/>
+      <c r="AI26" s="845"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="794"/>
-      <c r="C27" s="795"/>
-      <c r="D27" s="796"/>
-      <c r="E27" s="797"/>
-      <c r="F27" s="798"/>
-      <c r="G27" s="799"/>
-      <c r="H27" s="800"/>
-      <c r="I27" s="801"/>
-      <c r="J27" s="802"/>
-      <c r="K27" s="803"/>
-      <c r="L27" s="803"/>
-      <c r="M27" s="803"/>
-      <c r="N27" s="803"/>
-      <c r="O27" s="803"/>
-      <c r="P27" s="804"/>
-      <c r="Q27" s="805"/>
-      <c r="R27" s="806"/>
-      <c r="S27" s="806"/>
-      <c r="T27" s="806"/>
-      <c r="U27" s="806"/>
-      <c r="V27" s="806"/>
-      <c r="W27" s="806"/>
-      <c r="X27" s="806"/>
-      <c r="Y27" s="806"/>
-      <c r="Z27" s="806"/>
-      <c r="AA27" s="806"/>
-      <c r="AB27" s="806"/>
-      <c r="AC27" s="806"/>
-      <c r="AD27" s="806"/>
-      <c r="AE27" s="807"/>
-      <c r="AF27" s="802"/>
-      <c r="AG27" s="803"/>
-      <c r="AH27" s="803"/>
-      <c r="AI27" s="804"/>
+      <c r="B27" s="830"/>
+      <c r="C27" s="831"/>
+      <c r="D27" s="832"/>
+      <c r="E27" s="833"/>
+      <c r="F27" s="834"/>
+      <c r="G27" s="859"/>
+      <c r="H27" s="835"/>
+      <c r="I27" s="836"/>
+      <c r="J27" s="843"/>
+      <c r="K27" s="844"/>
+      <c r="L27" s="844"/>
+      <c r="M27" s="844"/>
+      <c r="N27" s="844"/>
+      <c r="O27" s="844"/>
+      <c r="P27" s="845"/>
+      <c r="Q27" s="840"/>
+      <c r="R27" s="841"/>
+      <c r="S27" s="841"/>
+      <c r="T27" s="841"/>
+      <c r="U27" s="841"/>
+      <c r="V27" s="841"/>
+      <c r="W27" s="841"/>
+      <c r="X27" s="841"/>
+      <c r="Y27" s="841"/>
+      <c r="Z27" s="841"/>
+      <c r="AA27" s="841"/>
+      <c r="AB27" s="841"/>
+      <c r="AC27" s="841"/>
+      <c r="AD27" s="841"/>
+      <c r="AE27" s="842"/>
+      <c r="AF27" s="843"/>
+      <c r="AG27" s="844"/>
+      <c r="AH27" s="844"/>
+      <c r="AI27" s="845"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="794"/>
-      <c r="C28" s="795"/>
-      <c r="D28" s="796"/>
-      <c r="E28" s="797"/>
-      <c r="F28" s="798"/>
-      <c r="G28" s="799"/>
-      <c r="H28" s="800"/>
-      <c r="I28" s="801"/>
-      <c r="J28" s="802"/>
-      <c r="K28" s="803"/>
-      <c r="L28" s="803"/>
-      <c r="M28" s="803"/>
-      <c r="N28" s="803"/>
-      <c r="O28" s="803"/>
-      <c r="P28" s="804"/>
-      <c r="Q28" s="805"/>
-      <c r="R28" s="806"/>
-      <c r="S28" s="806"/>
-      <c r="T28" s="806"/>
-      <c r="U28" s="806"/>
-      <c r="V28" s="806"/>
-      <c r="W28" s="806"/>
-      <c r="X28" s="806"/>
-      <c r="Y28" s="806"/>
-      <c r="Z28" s="806"/>
-      <c r="AA28" s="806"/>
-      <c r="AB28" s="806"/>
-      <c r="AC28" s="806"/>
-      <c r="AD28" s="806"/>
-      <c r="AE28" s="807"/>
-      <c r="AF28" s="802"/>
-      <c r="AG28" s="803"/>
-      <c r="AH28" s="803"/>
-      <c r="AI28" s="804"/>
+      <c r="B28" s="830"/>
+      <c r="C28" s="831"/>
+      <c r="D28" s="832"/>
+      <c r="E28" s="833"/>
+      <c r="F28" s="834"/>
+      <c r="G28" s="859"/>
+      <c r="H28" s="835"/>
+      <c r="I28" s="836"/>
+      <c r="J28" s="843"/>
+      <c r="K28" s="844"/>
+      <c r="L28" s="844"/>
+      <c r="M28" s="844"/>
+      <c r="N28" s="844"/>
+      <c r="O28" s="844"/>
+      <c r="P28" s="845"/>
+      <c r="Q28" s="840"/>
+      <c r="R28" s="841"/>
+      <c r="S28" s="841"/>
+      <c r="T28" s="841"/>
+      <c r="U28" s="841"/>
+      <c r="V28" s="841"/>
+      <c r="W28" s="841"/>
+      <c r="X28" s="841"/>
+      <c r="Y28" s="841"/>
+      <c r="Z28" s="841"/>
+      <c r="AA28" s="841"/>
+      <c r="AB28" s="841"/>
+      <c r="AC28" s="841"/>
+      <c r="AD28" s="841"/>
+      <c r="AE28" s="842"/>
+      <c r="AF28" s="843"/>
+      <c r="AG28" s="844"/>
+      <c r="AH28" s="844"/>
+      <c r="AI28" s="845"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="794"/>
-      <c r="C29" s="795"/>
-      <c r="D29" s="796"/>
-      <c r="E29" s="797"/>
-      <c r="F29" s="798"/>
-      <c r="G29" s="799"/>
-      <c r="H29" s="800"/>
-      <c r="I29" s="801"/>
-      <c r="J29" s="802"/>
-      <c r="K29" s="803"/>
-      <c r="L29" s="803"/>
-      <c r="M29" s="803"/>
-      <c r="N29" s="803"/>
-      <c r="O29" s="803"/>
-      <c r="P29" s="804"/>
-      <c r="Q29" s="805"/>
-      <c r="R29" s="806"/>
-      <c r="S29" s="806"/>
-      <c r="T29" s="806"/>
-      <c r="U29" s="806"/>
-      <c r="V29" s="806"/>
-      <c r="W29" s="806"/>
-      <c r="X29" s="806"/>
-      <c r="Y29" s="806"/>
-      <c r="Z29" s="806"/>
-      <c r="AA29" s="806"/>
-      <c r="AB29" s="806"/>
-      <c r="AC29" s="806"/>
-      <c r="AD29" s="806"/>
-      <c r="AE29" s="807"/>
-      <c r="AF29" s="802"/>
-      <c r="AG29" s="803"/>
-      <c r="AH29" s="803"/>
-      <c r="AI29" s="804"/>
+      <c r="B29" s="830"/>
+      <c r="C29" s="831"/>
+      <c r="D29" s="832"/>
+      <c r="E29" s="833"/>
+      <c r="F29" s="834"/>
+      <c r="G29" s="859"/>
+      <c r="H29" s="835"/>
+      <c r="I29" s="836"/>
+      <c r="J29" s="843"/>
+      <c r="K29" s="844"/>
+      <c r="L29" s="844"/>
+      <c r="M29" s="844"/>
+      <c r="N29" s="844"/>
+      <c r="O29" s="844"/>
+      <c r="P29" s="845"/>
+      <c r="Q29" s="840"/>
+      <c r="R29" s="841"/>
+      <c r="S29" s="841"/>
+      <c r="T29" s="841"/>
+      <c r="U29" s="841"/>
+      <c r="V29" s="841"/>
+      <c r="W29" s="841"/>
+      <c r="X29" s="841"/>
+      <c r="Y29" s="841"/>
+      <c r="Z29" s="841"/>
+      <c r="AA29" s="841"/>
+      <c r="AB29" s="841"/>
+      <c r="AC29" s="841"/>
+      <c r="AD29" s="841"/>
+      <c r="AE29" s="842"/>
+      <c r="AF29" s="843"/>
+      <c r="AG29" s="844"/>
+      <c r="AH29" s="844"/>
+      <c r="AI29" s="845"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="794"/>
-      <c r="C30" s="795"/>
-      <c r="D30" s="796"/>
-      <c r="E30" s="797"/>
-      <c r="F30" s="798"/>
-      <c r="G30" s="799"/>
-      <c r="H30" s="800"/>
-      <c r="I30" s="801"/>
-      <c r="J30" s="802"/>
-      <c r="K30" s="803"/>
-      <c r="L30" s="803"/>
-      <c r="M30" s="803"/>
-      <c r="N30" s="803"/>
-      <c r="O30" s="803"/>
-      <c r="P30" s="804"/>
-      <c r="Q30" s="805"/>
-      <c r="R30" s="806"/>
-      <c r="S30" s="806"/>
-      <c r="T30" s="806"/>
-      <c r="U30" s="806"/>
-      <c r="V30" s="806"/>
-      <c r="W30" s="806"/>
-      <c r="X30" s="806"/>
-      <c r="Y30" s="806"/>
-      <c r="Z30" s="806"/>
-      <c r="AA30" s="806"/>
-      <c r="AB30" s="806"/>
-      <c r="AC30" s="806"/>
-      <c r="AD30" s="806"/>
-      <c r="AE30" s="807"/>
-      <c r="AF30" s="802"/>
-      <c r="AG30" s="803"/>
-      <c r="AH30" s="803"/>
-      <c r="AI30" s="804"/>
+      <c r="B30" s="830"/>
+      <c r="C30" s="831"/>
+      <c r="D30" s="832"/>
+      <c r="E30" s="833"/>
+      <c r="F30" s="834"/>
+      <c r="G30" s="859"/>
+      <c r="H30" s="835"/>
+      <c r="I30" s="836"/>
+      <c r="J30" s="843"/>
+      <c r="K30" s="844"/>
+      <c r="L30" s="844"/>
+      <c r="M30" s="844"/>
+      <c r="N30" s="844"/>
+      <c r="O30" s="844"/>
+      <c r="P30" s="845"/>
+      <c r="Q30" s="840"/>
+      <c r="R30" s="841"/>
+      <c r="S30" s="841"/>
+      <c r="T30" s="841"/>
+      <c r="U30" s="841"/>
+      <c r="V30" s="841"/>
+      <c r="W30" s="841"/>
+      <c r="X30" s="841"/>
+      <c r="Y30" s="841"/>
+      <c r="Z30" s="841"/>
+      <c r="AA30" s="841"/>
+      <c r="AB30" s="841"/>
+      <c r="AC30" s="841"/>
+      <c r="AD30" s="841"/>
+      <c r="AE30" s="842"/>
+      <c r="AF30" s="843"/>
+      <c r="AG30" s="844"/>
+      <c r="AH30" s="844"/>
+      <c r="AI30" s="845"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="794"/>
-      <c r="C31" s="795"/>
-      <c r="D31" s="796"/>
-      <c r="E31" s="797"/>
-      <c r="F31" s="798"/>
-      <c r="G31" s="799"/>
-      <c r="H31" s="800"/>
-      <c r="I31" s="801"/>
-      <c r="J31" s="802"/>
-      <c r="K31" s="803"/>
-      <c r="L31" s="803"/>
-      <c r="M31" s="803"/>
-      <c r="N31" s="803"/>
-      <c r="O31" s="803"/>
-      <c r="P31" s="804"/>
-      <c r="Q31" s="805"/>
-      <c r="R31" s="806"/>
-      <c r="S31" s="806"/>
-      <c r="T31" s="806"/>
-      <c r="U31" s="806"/>
-      <c r="V31" s="806"/>
-      <c r="W31" s="806"/>
-      <c r="X31" s="806"/>
-      <c r="Y31" s="806"/>
-      <c r="Z31" s="806"/>
-      <c r="AA31" s="806"/>
-      <c r="AB31" s="806"/>
-      <c r="AC31" s="806"/>
-      <c r="AD31" s="806"/>
-      <c r="AE31" s="807"/>
-      <c r="AF31" s="802"/>
-      <c r="AG31" s="803"/>
-      <c r="AH31" s="803"/>
-      <c r="AI31" s="804"/>
+      <c r="B31" s="830"/>
+      <c r="C31" s="831"/>
+      <c r="D31" s="832"/>
+      <c r="E31" s="833"/>
+      <c r="F31" s="834"/>
+      <c r="G31" s="859"/>
+      <c r="H31" s="835"/>
+      <c r="I31" s="836"/>
+      <c r="J31" s="843"/>
+      <c r="K31" s="844"/>
+      <c r="L31" s="844"/>
+      <c r="M31" s="844"/>
+      <c r="N31" s="844"/>
+      <c r="O31" s="844"/>
+      <c r="P31" s="845"/>
+      <c r="Q31" s="840"/>
+      <c r="R31" s="841"/>
+      <c r="S31" s="841"/>
+      <c r="T31" s="841"/>
+      <c r="U31" s="841"/>
+      <c r="V31" s="841"/>
+      <c r="W31" s="841"/>
+      <c r="X31" s="841"/>
+      <c r="Y31" s="841"/>
+      <c r="Z31" s="841"/>
+      <c r="AA31" s="841"/>
+      <c r="AB31" s="841"/>
+      <c r="AC31" s="841"/>
+      <c r="AD31" s="841"/>
+      <c r="AE31" s="842"/>
+      <c r="AF31" s="843"/>
+      <c r="AG31" s="844"/>
+      <c r="AH31" s="844"/>
+      <c r="AI31" s="845"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="794"/>
-      <c r="C32" s="795"/>
-      <c r="D32" s="796"/>
-      <c r="E32" s="797"/>
-      <c r="F32" s="798"/>
-      <c r="G32" s="799"/>
-      <c r="H32" s="800"/>
-      <c r="I32" s="801"/>
-      <c r="J32" s="802"/>
-      <c r="K32" s="808"/>
-      <c r="L32" s="803"/>
-      <c r="M32" s="803"/>
-      <c r="N32" s="803"/>
-      <c r="O32" s="803"/>
-      <c r="P32" s="804"/>
-      <c r="Q32" s="805"/>
-      <c r="R32" s="806"/>
-      <c r="S32" s="806"/>
-      <c r="T32" s="806"/>
-      <c r="U32" s="806"/>
-      <c r="V32" s="806"/>
-      <c r="W32" s="806"/>
-      <c r="X32" s="806"/>
-      <c r="Y32" s="806"/>
-      <c r="Z32" s="806"/>
-      <c r="AA32" s="806"/>
-      <c r="AB32" s="806"/>
-      <c r="AC32" s="806"/>
-      <c r="AD32" s="806"/>
-      <c r="AE32" s="807"/>
-      <c r="AF32" s="802"/>
-      <c r="AG32" s="803"/>
-      <c r="AH32" s="803"/>
-      <c r="AI32" s="804"/>
+      <c r="B32" s="830"/>
+      <c r="C32" s="831"/>
+      <c r="D32" s="832"/>
+      <c r="E32" s="833"/>
+      <c r="F32" s="834"/>
+      <c r="G32" s="859"/>
+      <c r="H32" s="835"/>
+      <c r="I32" s="836"/>
+      <c r="J32" s="843"/>
+      <c r="K32" s="860"/>
+      <c r="L32" s="844"/>
+      <c r="M32" s="844"/>
+      <c r="N32" s="844"/>
+      <c r="O32" s="844"/>
+      <c r="P32" s="845"/>
+      <c r="Q32" s="840"/>
+      <c r="R32" s="841"/>
+      <c r="S32" s="841"/>
+      <c r="T32" s="841"/>
+      <c r="U32" s="841"/>
+      <c r="V32" s="841"/>
+      <c r="W32" s="841"/>
+      <c r="X32" s="841"/>
+      <c r="Y32" s="841"/>
+      <c r="Z32" s="841"/>
+      <c r="AA32" s="841"/>
+      <c r="AB32" s="841"/>
+      <c r="AC32" s="841"/>
+      <c r="AD32" s="841"/>
+      <c r="AE32" s="842"/>
+      <c r="AF32" s="843"/>
+      <c r="AG32" s="844"/>
+      <c r="AH32" s="844"/>
+      <c r="AI32" s="845"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="794"/>
-      <c r="C33" s="795"/>
-      <c r="D33" s="796"/>
-      <c r="E33" s="797"/>
-      <c r="F33" s="798"/>
-      <c r="G33" s="799"/>
-      <c r="H33" s="800"/>
-      <c r="I33" s="801"/>
-      <c r="J33" s="802"/>
-      <c r="K33" s="803"/>
-      <c r="L33" s="803"/>
-      <c r="M33" s="803"/>
-      <c r="N33" s="803"/>
-      <c r="O33" s="803"/>
-      <c r="P33" s="804"/>
-      <c r="Q33" s="805"/>
-      <c r="R33" s="806"/>
-      <c r="S33" s="806"/>
-      <c r="T33" s="806"/>
-      <c r="U33" s="806"/>
-      <c r="V33" s="806"/>
-      <c r="W33" s="806"/>
-      <c r="X33" s="806"/>
-      <c r="Y33" s="806"/>
-      <c r="Z33" s="806"/>
-      <c r="AA33" s="806"/>
-      <c r="AB33" s="806"/>
-      <c r="AC33" s="806"/>
-      <c r="AD33" s="806"/>
-      <c r="AE33" s="807"/>
-      <c r="AF33" s="802"/>
-      <c r="AG33" s="803"/>
-      <c r="AH33" s="803"/>
-      <c r="AI33" s="804"/>
+      <c r="B33" s="830"/>
+      <c r="C33" s="831"/>
+      <c r="D33" s="832"/>
+      <c r="E33" s="833"/>
+      <c r="F33" s="834"/>
+      <c r="G33" s="859"/>
+      <c r="H33" s="835"/>
+      <c r="I33" s="836"/>
+      <c r="J33" s="843"/>
+      <c r="K33" s="844"/>
+      <c r="L33" s="844"/>
+      <c r="M33" s="844"/>
+      <c r="N33" s="844"/>
+      <c r="O33" s="844"/>
+      <c r="P33" s="845"/>
+      <c r="Q33" s="840"/>
+      <c r="R33" s="841"/>
+      <c r="S33" s="841"/>
+      <c r="T33" s="841"/>
+      <c r="U33" s="841"/>
+      <c r="V33" s="841"/>
+      <c r="W33" s="841"/>
+      <c r="X33" s="841"/>
+      <c r="Y33" s="841"/>
+      <c r="Z33" s="841"/>
+      <c r="AA33" s="841"/>
+      <c r="AB33" s="841"/>
+      <c r="AC33" s="841"/>
+      <c r="AD33" s="841"/>
+      <c r="AE33" s="842"/>
+      <c r="AF33" s="843"/>
+      <c r="AG33" s="844"/>
+      <c r="AH33" s="844"/>
+      <c r="AI33" s="845"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -14592,162 +14745,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -19058,7 +19055,9 @@
   </sheetPr>
   <dimension ref="A1:S128"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection sqref="A1:S57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1"/>
   <cols>
@@ -23571,10 +23570,10 @@
       </c>
       <c r="B37" s="632"/>
       <c r="C37" s="632"/>
-      <c r="D37" s="858" t="s">
+      <c r="D37" s="861" t="s">
         <v>358</v>
       </c>
-      <c r="E37" s="859"/>
+      <c r="E37" s="862"/>
       <c r="F37" s="95"/>
       <c r="G37" s="95"/>
       <c r="H37" s="534" t="s">
